--- a/docs/Zeitplanung_IPA.xlsx
+++ b/docs/Zeitplanung_IPA.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="118">
   <si>
     <t>Tag 12</t>
   </si>
@@ -380,6 +380,9 @@
   <si>
     <t>Möglichkeiten</t>
   </si>
+  <si>
+    <t>0,5h</t>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -1016,11 +1019,85 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="285">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1204,12 +1281,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1232,7 +1303,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1255,9 +1325,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,9 +1345,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,17 +1478,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1439,17 +1497,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1475,6 +1592,33 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,13 +1628,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1511,10 +1655,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,6 +1673,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1538,16 +1685,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1559,44 +1706,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1619,17 +1745,14 @@
     <xf numFmtId="14" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1639,6 +1762,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -1709,6 +1835,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1727,9 +1856,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1742,8 +1868,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2044,8 +2176,8 @@
   </sheetPr>
   <dimension ref="A1:BX504"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BE57" sqref="BE57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.7109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2084,223 +2216,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="241" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="206" t="s">
+      <c r="B1" s="228"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="232" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="197" t="s">
+      <c r="E1" s="221" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="204" t="s">
+      <c r="F1" s="228" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="199" t="s">
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="204" t="s">
+      <c r="K1" s="228" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="199" t="s">
+      <c r="L1" s="228"/>
+      <c r="M1" s="228"/>
+      <c r="N1" s="228"/>
+      <c r="O1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="204" t="s">
+      <c r="P1" s="228" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="199" t="s">
+      <c r="Q1" s="228"/>
+      <c r="R1" s="228"/>
+      <c r="S1" s="228"/>
+      <c r="T1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="204" t="s">
+      <c r="U1" s="228" t="s">
         <v>9</v>
       </c>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="199" t="s">
+      <c r="V1" s="228"/>
+      <c r="W1" s="228"/>
+      <c r="X1" s="228"/>
+      <c r="Y1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="Z1" s="204" t="s">
+      <c r="Z1" s="228" t="s">
         <v>8</v>
       </c>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="199" t="s">
+      <c r="AA1" s="228"/>
+      <c r="AB1" s="228"/>
+      <c r="AC1" s="228"/>
+      <c r="AD1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="AE1" s="204" t="s">
+      <c r="AE1" s="228" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="199" t="s">
+      <c r="AF1" s="228"/>
+      <c r="AG1" s="228"/>
+      <c r="AH1" s="228"/>
+      <c r="AI1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="AJ1" s="204" t="s">
+      <c r="AJ1" s="228" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" s="204"/>
-      <c r="AL1" s="204"/>
-      <c r="AM1" s="204"/>
-      <c r="AN1" s="199" t="s">
+      <c r="AK1" s="228"/>
+      <c r="AL1" s="228"/>
+      <c r="AM1" s="228"/>
+      <c r="AN1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="AO1" s="204" t="s">
+      <c r="AO1" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="AP1" s="204"/>
-      <c r="AQ1" s="204"/>
-      <c r="AR1" s="204"/>
-      <c r="AS1" s="199" t="s">
+      <c r="AP1" s="228"/>
+      <c r="AQ1" s="228"/>
+      <c r="AR1" s="228"/>
+      <c r="AS1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="AT1" s="204" t="s">
+      <c r="AT1" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="AU1" s="204"/>
-      <c r="AV1" s="204"/>
-      <c r="AW1" s="204"/>
-      <c r="AX1" s="199" t="s">
+      <c r="AU1" s="228"/>
+      <c r="AV1" s="228"/>
+      <c r="AW1" s="228"/>
+      <c r="AX1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="AY1" s="204" t="s">
+      <c r="AY1" s="228" t="s">
         <v>3</v>
       </c>
-      <c r="AZ1" s="204"/>
-      <c r="BA1" s="204"/>
-      <c r="BB1" s="204"/>
-      <c r="BC1" s="199" t="s">
+      <c r="AZ1" s="228"/>
+      <c r="BA1" s="228"/>
+      <c r="BB1" s="228"/>
+      <c r="BC1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="BD1" s="204" t="s">
+      <c r="BD1" s="228" t="s">
         <v>2</v>
       </c>
-      <c r="BE1" s="204"/>
-      <c r="BF1" s="204"/>
-      <c r="BG1" s="204"/>
-      <c r="BH1" s="199" t="s">
+      <c r="BE1" s="228"/>
+      <c r="BF1" s="228"/>
+      <c r="BG1" s="228"/>
+      <c r="BH1" s="230" t="s">
         <v>1</v>
       </c>
-      <c r="BI1" s="204" t="s">
+      <c r="BI1" s="228" t="s">
         <v>0</v>
       </c>
-      <c r="BJ1" s="204"/>
-      <c r="BK1" s="204"/>
-      <c r="BL1" s="204"/>
-      <c r="BM1" s="199" t="s">
+      <c r="BJ1" s="228"/>
+      <c r="BK1" s="228"/>
+      <c r="BL1" s="228"/>
+      <c r="BM1" s="223" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:76" s="5" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="225"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="198"/>
-      <c r="F2" s="205" t="s">
+      <c r="A2" s="242"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="205"/>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="200"/>
-      <c r="K2" s="205" t="s">
+      <c r="G2" s="229"/>
+      <c r="H2" s="229"/>
+      <c r="I2" s="229"/>
+      <c r="J2" s="231"/>
+      <c r="K2" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="205"/>
-      <c r="M2" s="205"/>
-      <c r="N2" s="205"/>
-      <c r="O2" s="200"/>
-      <c r="P2" s="223" t="s">
+      <c r="L2" s="229"/>
+      <c r="M2" s="229"/>
+      <c r="N2" s="229"/>
+      <c r="O2" s="231"/>
+      <c r="P2" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="223"/>
-      <c r="S2" s="223"/>
-      <c r="T2" s="200"/>
-      <c r="U2" s="205" t="s">
+      <c r="Q2" s="240"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="231"/>
+      <c r="U2" s="229" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="205"/>
-      <c r="X2" s="205"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="205" t="s">
+      <c r="V2" s="229"/>
+      <c r="W2" s="229"/>
+      <c r="X2" s="229"/>
+      <c r="Y2" s="231"/>
+      <c r="Z2" s="229" t="s">
         <v>43</v>
       </c>
-      <c r="AA2" s="205"/>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="205"/>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="205" t="s">
+      <c r="AA2" s="229"/>
+      <c r="AB2" s="229"/>
+      <c r="AC2" s="229"/>
+      <c r="AD2" s="231"/>
+      <c r="AE2" s="229" t="s">
         <v>44</v>
       </c>
-      <c r="AF2" s="205"/>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="200"/>
-      <c r="AJ2" s="205" t="s">
+      <c r="AF2" s="229"/>
+      <c r="AG2" s="229"/>
+      <c r="AH2" s="229"/>
+      <c r="AI2" s="231"/>
+      <c r="AJ2" s="229" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="205"/>
-      <c r="AM2" s="205"/>
-      <c r="AN2" s="200"/>
-      <c r="AO2" s="205" t="s">
+      <c r="AK2" s="229"/>
+      <c r="AL2" s="229"/>
+      <c r="AM2" s="229"/>
+      <c r="AN2" s="231"/>
+      <c r="AO2" s="229" t="s">
         <v>46</v>
       </c>
-      <c r="AP2" s="205"/>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="205"/>
-      <c r="AS2" s="200"/>
-      <c r="AT2" s="205" t="s">
+      <c r="AP2" s="229"/>
+      <c r="AQ2" s="229"/>
+      <c r="AR2" s="229"/>
+      <c r="AS2" s="231"/>
+      <c r="AT2" s="229" t="s">
         <v>47</v>
       </c>
-      <c r="AU2" s="205"/>
-      <c r="AV2" s="205"/>
-      <c r="AW2" s="205"/>
-      <c r="AX2" s="200"/>
-      <c r="AY2" s="205" t="s">
+      <c r="AU2" s="229"/>
+      <c r="AV2" s="229"/>
+      <c r="AW2" s="229"/>
+      <c r="AX2" s="231"/>
+      <c r="AY2" s="229" t="s">
         <v>48</v>
       </c>
-      <c r="AZ2" s="205"/>
-      <c r="BA2" s="205"/>
-      <c r="BB2" s="205"/>
-      <c r="BC2" s="200"/>
-      <c r="BD2" s="205" t="s">
+      <c r="AZ2" s="229"/>
+      <c r="BA2" s="229"/>
+      <c r="BB2" s="229"/>
+      <c r="BC2" s="231"/>
+      <c r="BD2" s="229" t="s">
         <v>49</v>
       </c>
-      <c r="BE2" s="205"/>
-      <c r="BF2" s="205"/>
-      <c r="BG2" s="205"/>
-      <c r="BH2" s="200"/>
-      <c r="BI2" s="205" t="s">
+      <c r="BE2" s="229"/>
+      <c r="BF2" s="229"/>
+      <c r="BG2" s="229"/>
+      <c r="BH2" s="231"/>
+      <c r="BI2" s="229" t="s">
         <v>50</v>
       </c>
-      <c r="BJ2" s="205"/>
-      <c r="BK2" s="205"/>
-      <c r="BL2" s="205"/>
-      <c r="BM2" s="200"/>
+      <c r="BJ2" s="229"/>
+      <c r="BK2" s="229"/>
+      <c r="BL2" s="229"/>
+      <c r="BM2" s="224"/>
     </row>
     <row r="3" spans="1:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="201" t="s">
+      <c r="A3" s="225" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="202"/>
-      <c r="C3" s="203"/>
+      <c r="B3" s="226"/>
+      <c r="C3" s="227"/>
       <c r="D3" s="80"/>
       <c r="E3" s="67"/>
       <c r="F3" s="34"/>
@@ -2313,12 +2445,12 @@
       <c r="M3" s="38"/>
       <c r="N3" s="38"/>
       <c r="O3" s="35"/>
-      <c r="P3" s="208" t="s">
+      <c r="P3" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="209"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="210"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="192"/>
       <c r="T3" s="71"/>
       <c r="U3" s="38"/>
       <c r="V3" s="37"/>
@@ -2340,12 +2472,12 @@
       <c r="AL3" s="38"/>
       <c r="AM3" s="38"/>
       <c r="AN3" s="35"/>
-      <c r="AO3" s="208" t="s">
+      <c r="AO3" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="AP3" s="209"/>
-      <c r="AQ3" s="209"/>
-      <c r="AR3" s="210"/>
+      <c r="AP3" s="191"/>
+      <c r="AQ3" s="191"/>
+      <c r="AR3" s="192"/>
       <c r="AS3" s="35"/>
       <c r="AT3" s="38"/>
       <c r="AU3" s="38"/>
@@ -2366,40 +2498,40 @@
       <c r="BJ3" s="38"/>
       <c r="BK3" s="38"/>
       <c r="BL3" s="38"/>
-      <c r="BM3" s="35"/>
+      <c r="BM3" s="167"/>
     </row>
     <row r="4" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="245" t="s">
+      <c r="A4" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="232" t="s">
+      <c r="B4" s="249" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="213" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="186">
+      <c r="D4" s="209">
         <v>2</v>
       </c>
-      <c r="E4" s="187">
+      <c r="E4" s="210">
         <v>2</v>
       </c>
-      <c r="F4" s="102">
+      <c r="F4" s="159">
         <v>2</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="89"/>
-      <c r="P4" s="211"/>
-      <c r="Q4" s="212"/>
-      <c r="R4" s="212"/>
-      <c r="S4" s="213"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="193"/>
+      <c r="Q4" s="194"/>
+      <c r="R4" s="194"/>
+      <c r="S4" s="195"/>
       <c r="T4" s="71"/>
       <c r="U4" s="38"/>
       <c r="V4" s="38"/>
@@ -2421,10 +2553,10 @@
       <c r="AL4" s="38"/>
       <c r="AM4" s="38"/>
       <c r="AN4" s="35"/>
-      <c r="AO4" s="211"/>
-      <c r="AP4" s="212"/>
-      <c r="AQ4" s="212"/>
-      <c r="AR4" s="213"/>
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="194"/>
+      <c r="AQ4" s="194"/>
+      <c r="AR4" s="195"/>
       <c r="AS4" s="35"/>
       <c r="AT4" s="38"/>
       <c r="AU4" s="38"/>
@@ -2445,30 +2577,30 @@
       <c r="BJ4" s="38"/>
       <c r="BK4" s="38"/>
       <c r="BL4" s="38"/>
-      <c r="BM4" s="35"/>
+      <c r="BM4" s="167"/>
     </row>
     <row r="5" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="245"/>
-      <c r="B5" s="232"/>
-      <c r="C5" s="190"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="181"/>
-      <c r="F5" s="164">
+      <c r="A5" s="262"/>
+      <c r="B5" s="249"/>
+      <c r="C5" s="213"/>
+      <c r="D5" s="211"/>
+      <c r="E5" s="212"/>
+      <c r="F5" s="160">
         <v>2</v>
       </c>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="108"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="211"/>
-      <c r="Q5" s="212"/>
-      <c r="R5" s="212"/>
-      <c r="S5" s="213"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="102"/>
+      <c r="N5" s="102"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="193"/>
+      <c r="Q5" s="194"/>
+      <c r="R5" s="194"/>
+      <c r="S5" s="195"/>
       <c r="T5" s="72"/>
       <c r="U5" s="39"/>
       <c r="V5" s="39"/>
@@ -2490,10 +2622,10 @@
       <c r="AL5" s="39"/>
       <c r="AM5" s="39"/>
       <c r="AN5" s="40"/>
-      <c r="AO5" s="211"/>
-      <c r="AP5" s="212"/>
-      <c r="AQ5" s="212"/>
-      <c r="AR5" s="213"/>
+      <c r="AO5" s="193"/>
+      <c r="AP5" s="194"/>
+      <c r="AQ5" s="194"/>
+      <c r="AR5" s="195"/>
       <c r="AS5" s="40"/>
       <c r="AT5" s="39"/>
       <c r="AU5" s="39"/>
@@ -2514,38 +2646,38 @@
       <c r="BJ5" s="39"/>
       <c r="BK5" s="39"/>
       <c r="BL5" s="39"/>
-      <c r="BM5" s="40"/>
+      <c r="BM5" s="168"/>
     </row>
     <row r="6" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="245"/>
-      <c r="B6" s="231" t="s">
+      <c r="A6" s="262"/>
+      <c r="B6" s="248" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="191" t="s">
+      <c r="C6" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="178">
+      <c r="D6" s="201">
         <v>1</v>
       </c>
-      <c r="E6" s="180">
+      <c r="E6" s="203">
         <v>1</v>
       </c>
-      <c r="F6" s="103"/>
-      <c r="G6" s="102">
+      <c r="F6" s="99"/>
+      <c r="G6" s="159">
         <v>1</v>
       </c>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="105"/>
-      <c r="L6" s="105"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="89"/>
-      <c r="P6" s="211"/>
-      <c r="Q6" s="212"/>
-      <c r="R6" s="212"/>
-      <c r="S6" s="213"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="99"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="193"/>
+      <c r="Q6" s="194"/>
+      <c r="R6" s="194"/>
+      <c r="S6" s="195"/>
       <c r="T6" s="73"/>
       <c r="U6" s="6"/>
       <c r="V6" s="6"/>
@@ -2565,10 +2697,10 @@
       <c r="AL6" s="6"/>
       <c r="AM6" s="6"/>
       <c r="AN6" s="8"/>
-      <c r="AO6" s="211"/>
-      <c r="AP6" s="212"/>
-      <c r="AQ6" s="212"/>
-      <c r="AR6" s="213"/>
+      <c r="AO6" s="193"/>
+      <c r="AP6" s="194"/>
+      <c r="AQ6" s="194"/>
+      <c r="AR6" s="195"/>
       <c r="AS6" s="8"/>
       <c r="AT6" s="6"/>
       <c r="AU6" s="6"/>
@@ -2589,7 +2721,7 @@
       <c r="BJ6" s="6"/>
       <c r="BK6" s="6"/>
       <c r="BL6" s="6"/>
-      <c r="BM6" s="8"/>
+      <c r="BM6" s="169"/>
       <c r="BP6" s="54"/>
       <c r="BQ6" s="37"/>
       <c r="BR6" s="37"/>
@@ -2601,27 +2733,27 @@
       <c r="BX6" s="55"/>
     </row>
     <row r="7" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="245"/>
-      <c r="B7" s="247"/>
-      <c r="C7" s="192"/>
-      <c r="D7" s="179"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="164">
+      <c r="A7" s="262"/>
+      <c r="B7" s="264"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="212"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="160">
         <v>1</v>
       </c>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="92"/>
-      <c r="P7" s="211"/>
-      <c r="Q7" s="212"/>
-      <c r="R7" s="212"/>
-      <c r="S7" s="213"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
+      <c r="L7" s="104"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="193"/>
+      <c r="Q7" s="194"/>
+      <c r="R7" s="194"/>
+      <c r="S7" s="195"/>
       <c r="T7" s="73"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6"/>
@@ -2641,10 +2773,10 @@
       <c r="AL7" s="6"/>
       <c r="AM7" s="6"/>
       <c r="AN7" s="8"/>
-      <c r="AO7" s="211"/>
-      <c r="AP7" s="212"/>
-      <c r="AQ7" s="212"/>
-      <c r="AR7" s="213"/>
+      <c r="AO7" s="193"/>
+      <c r="AP7" s="194"/>
+      <c r="AQ7" s="194"/>
+      <c r="AR7" s="195"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="6"/>
       <c r="AU7" s="6"/>
@@ -2665,7 +2797,7 @@
       <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
-      <c r="BM7" s="8"/>
+      <c r="BM7" s="169"/>
       <c r="BP7" s="56"/>
       <c r="BQ7" s="3" t="s">
         <v>68</v>
@@ -2673,35 +2805,35 @@
       <c r="BX7" s="57"/>
     </row>
     <row r="8" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="245"/>
-      <c r="B8" s="231" t="s">
+      <c r="A8" s="262"/>
+      <c r="B8" s="248" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="201">
         <v>3</v>
       </c>
-      <c r="E8" s="180">
+      <c r="E8" s="203">
         <v>3</v>
       </c>
-      <c r="F8" s="103"/>
-      <c r="G8" s="169">
+      <c r="F8" s="99"/>
+      <c r="G8" s="183">
         <v>3</v>
       </c>
-      <c r="H8" s="169"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="103"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="211"/>
-      <c r="Q8" s="212"/>
-      <c r="R8" s="212"/>
-      <c r="S8" s="213"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="193"/>
+      <c r="Q8" s="194"/>
+      <c r="R8" s="194"/>
+      <c r="S8" s="195"/>
       <c r="T8" s="71"/>
       <c r="U8" s="38"/>
       <c r="V8" s="38"/>
@@ -2723,10 +2855,10 @@
       <c r="AL8" s="38"/>
       <c r="AM8" s="38"/>
       <c r="AN8" s="35"/>
-      <c r="AO8" s="211"/>
-      <c r="AP8" s="212"/>
-      <c r="AQ8" s="212"/>
-      <c r="AR8" s="213"/>
+      <c r="AO8" s="193"/>
+      <c r="AP8" s="194"/>
+      <c r="AQ8" s="194"/>
+      <c r="AR8" s="195"/>
       <c r="AS8" s="35"/>
       <c r="AT8" s="38"/>
       <c r="AU8" s="38"/>
@@ -2747,32 +2879,32 @@
       <c r="BJ8" s="38"/>
       <c r="BK8" s="38"/>
       <c r="BL8" s="38"/>
-      <c r="BM8" s="35"/>
+      <c r="BM8" s="167"/>
       <c r="BP8" s="56"/>
       <c r="BX8" s="57"/>
     </row>
     <row r="9" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="245"/>
-      <c r="B9" s="247"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="179"/>
-      <c r="E9" s="181"/>
-      <c r="F9" s="106"/>
-      <c r="G9" s="171">
+      <c r="A9" s="262"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="211"/>
+      <c r="E9" s="212"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="185">
         <v>3</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="106"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="108"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="106"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="212"/>
-      <c r="R9" s="212"/>
-      <c r="S9" s="213"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="104"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="194"/>
+      <c r="R9" s="194"/>
+      <c r="S9" s="195"/>
       <c r="T9" s="72"/>
       <c r="U9" s="39"/>
       <c r="V9" s="39"/>
@@ -2794,10 +2926,10 @@
       <c r="AL9" s="39"/>
       <c r="AM9" s="39"/>
       <c r="AN9" s="40"/>
-      <c r="AO9" s="211"/>
-      <c r="AP9" s="212"/>
-      <c r="AQ9" s="212"/>
-      <c r="AR9" s="213"/>
+      <c r="AO9" s="193"/>
+      <c r="AP9" s="194"/>
+      <c r="AQ9" s="194"/>
+      <c r="AR9" s="195"/>
       <c r="AS9" s="40"/>
       <c r="AT9" s="39"/>
       <c r="AU9" s="39"/>
@@ -2818,49 +2950,49 @@
       <c r="BJ9" s="39"/>
       <c r="BK9" s="39"/>
       <c r="BL9" s="39"/>
-      <c r="BM9" s="40"/>
+      <c r="BM9" s="168"/>
       <c r="BP9" s="58"/>
       <c r="BQ9" s="47"/>
       <c r="BR9" s="46"/>
-      <c r="BS9" s="227" t="s">
+      <c r="BS9" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="BT9" s="227"/>
-      <c r="BU9" s="227"/>
-      <c r="BV9" s="227"/>
-      <c r="BW9" s="227"/>
+      <c r="BT9" s="247"/>
+      <c r="BU9" s="247"/>
+      <c r="BV9" s="247"/>
+      <c r="BW9" s="247"/>
       <c r="BX9" s="57"/>
     </row>
     <row r="10" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="245"/>
-      <c r="B10" s="231" t="s">
+      <c r="A10" s="262"/>
+      <c r="B10" s="248" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="191" t="s">
+      <c r="C10" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="201">
         <v>2</v>
       </c>
-      <c r="E10" s="180">
+      <c r="E10" s="203">
         <v>2</v>
       </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="102">
+      <c r="F10" s="99"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="159">
         <v>2</v>
       </c>
-      <c r="J10" s="104"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="211"/>
-      <c r="Q10" s="212"/>
-      <c r="R10" s="212"/>
-      <c r="S10" s="213"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="193"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="195"/>
       <c r="T10" s="73"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6"/>
@@ -2880,10 +3012,10 @@
       <c r="AL10" s="6"/>
       <c r="AM10" s="6"/>
       <c r="AN10" s="8"/>
-      <c r="AO10" s="211"/>
-      <c r="AP10" s="212"/>
-      <c r="AQ10" s="212"/>
-      <c r="AR10" s="213"/>
+      <c r="AO10" s="193"/>
+      <c r="AP10" s="194"/>
+      <c r="AQ10" s="194"/>
+      <c r="AR10" s="195"/>
       <c r="AS10" s="8"/>
       <c r="AT10" s="6"/>
       <c r="AU10" s="6"/>
@@ -2904,7 +3036,7 @@
       <c r="BJ10" s="6"/>
       <c r="BK10" s="6"/>
       <c r="BL10" s="6"/>
-      <c r="BM10" s="8"/>
+      <c r="BM10" s="169"/>
       <c r="BP10" s="58"/>
       <c r="BQ10" s="46"/>
       <c r="BR10" s="46"/>
@@ -2914,27 +3046,27 @@
       <c r="BX10" s="57"/>
     </row>
     <row r="11" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245"/>
-      <c r="B11" s="247"/>
-      <c r="C11" s="192"/>
-      <c r="D11" s="179"/>
-      <c r="E11" s="181"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="164">
+      <c r="A11" s="262"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="160">
         <v>2</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="211"/>
-      <c r="Q11" s="212"/>
-      <c r="R11" s="212"/>
-      <c r="S11" s="213"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="193"/>
+      <c r="Q11" s="194"/>
+      <c r="R11" s="194"/>
+      <c r="S11" s="195"/>
       <c r="T11" s="73"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
@@ -2954,10 +3086,10 @@
       <c r="AL11" s="6"/>
       <c r="AM11" s="6"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="211"/>
-      <c r="AP11" s="212"/>
-      <c r="AQ11" s="212"/>
-      <c r="AR11" s="213"/>
+      <c r="AO11" s="193"/>
+      <c r="AP11" s="194"/>
+      <c r="AQ11" s="194"/>
+      <c r="AR11" s="195"/>
       <c r="AS11" s="8"/>
       <c r="AT11" s="6"/>
       <c r="AU11" s="6"/>
@@ -2978,49 +3110,49 @@
       <c r="BJ11" s="6"/>
       <c r="BK11" s="6"/>
       <c r="BL11" s="6"/>
-      <c r="BM11" s="8"/>
+      <c r="BM11" s="169"/>
       <c r="BP11" s="58"/>
       <c r="BQ11" s="48"/>
       <c r="BR11" s="46"/>
-      <c r="BS11" s="227" t="s">
+      <c r="BS11" s="247" t="s">
         <v>70</v>
       </c>
-      <c r="BT11" s="227"/>
-      <c r="BU11" s="227"/>
-      <c r="BV11" s="227"/>
-      <c r="BW11" s="227"/>
+      <c r="BT11" s="247"/>
+      <c r="BU11" s="247"/>
+      <c r="BV11" s="247"/>
+      <c r="BW11" s="247"/>
       <c r="BX11" s="57"/>
     </row>
     <row r="12" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="245"/>
-      <c r="B12" s="231" t="s">
+      <c r="A12" s="262"/>
+      <c r="B12" s="248" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="191" t="s">
+      <c r="C12" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="201">
         <v>2</v>
       </c>
-      <c r="E12" s="180">
+      <c r="E12" s="203">
         <v>1</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="110">
+      <c r="F12" s="99"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="162">
         <v>2</v>
       </c>
-      <c r="L12" s="105"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="211"/>
-      <c r="Q12" s="212"/>
-      <c r="R12" s="212"/>
-      <c r="S12" s="213"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="193"/>
+      <c r="Q12" s="194"/>
+      <c r="R12" s="194"/>
+      <c r="S12" s="195"/>
       <c r="T12" s="71"/>
       <c r="U12" s="38"/>
       <c r="V12" s="38"/>
@@ -3042,10 +3174,10 @@
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
       <c r="AN12" s="35"/>
-      <c r="AO12" s="211"/>
-      <c r="AP12" s="212"/>
-      <c r="AQ12" s="212"/>
-      <c r="AR12" s="213"/>
+      <c r="AO12" s="193"/>
+      <c r="AP12" s="194"/>
+      <c r="AQ12" s="194"/>
+      <c r="AR12" s="195"/>
       <c r="AS12" s="35"/>
       <c r="AT12" s="38"/>
       <c r="AU12" s="38"/>
@@ -3066,7 +3198,7 @@
       <c r="BJ12" s="38"/>
       <c r="BK12" s="38"/>
       <c r="BL12" s="38"/>
-      <c r="BM12" s="35"/>
+      <c r="BM12" s="167"/>
       <c r="BP12" s="58"/>
       <c r="BQ12" s="46"/>
       <c r="BR12" s="46"/>
@@ -3076,27 +3208,27 @@
       <c r="BX12" s="57"/>
     </row>
     <row r="13" spans="1:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="190"/>
-      <c r="D13" s="188"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="166">
+      <c r="A13" s="263"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="213"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="161">
         <v>1</v>
       </c>
-      <c r="L13" s="108"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="106"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="211"/>
-      <c r="Q13" s="212"/>
-      <c r="R13" s="212"/>
-      <c r="S13" s="213"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="193"/>
+      <c r="Q13" s="194"/>
+      <c r="R13" s="194"/>
+      <c r="S13" s="195"/>
       <c r="T13" s="72"/>
       <c r="U13" s="39"/>
       <c r="V13" s="39"/>
@@ -3118,10 +3250,10 @@
       <c r="AL13" s="39"/>
       <c r="AM13" s="39"/>
       <c r="AN13" s="40"/>
-      <c r="AO13" s="211"/>
-      <c r="AP13" s="212"/>
-      <c r="AQ13" s="212"/>
-      <c r="AR13" s="213"/>
+      <c r="AO13" s="193"/>
+      <c r="AP13" s="194"/>
+      <c r="AQ13" s="194"/>
+      <c r="AR13" s="195"/>
       <c r="AS13" s="40"/>
       <c r="AT13" s="39"/>
       <c r="AU13" s="39"/>
@@ -3142,41 +3274,41 @@
       <c r="BJ13" s="39"/>
       <c r="BK13" s="39"/>
       <c r="BL13" s="39"/>
-      <c r="BM13" s="40"/>
+      <c r="BM13" s="168"/>
       <c r="BP13" s="59"/>
       <c r="BQ13" s="49"/>
       <c r="BR13" s="21"/>
-      <c r="BS13" s="227" t="s">
+      <c r="BS13" s="247" t="s">
         <v>71</v>
       </c>
-      <c r="BT13" s="227"/>
-      <c r="BU13" s="227"/>
-      <c r="BV13" s="227"/>
-      <c r="BW13" s="227"/>
+      <c r="BT13" s="247"/>
+      <c r="BU13" s="247"/>
+      <c r="BV13" s="247"/>
+      <c r="BW13" s="247"/>
       <c r="BX13" s="57"/>
     </row>
     <row r="14" spans="1:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="233" t="s">
+      <c r="A14" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="234"/>
-      <c r="C14" s="235"/>
+      <c r="B14" s="251"/>
+      <c r="C14" s="252"/>
       <c r="D14" s="20"/>
       <c r="E14" s="66"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="111"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="114"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="211"/>
-      <c r="Q14" s="212"/>
-      <c r="R14" s="212"/>
-      <c r="S14" s="213"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="193"/>
+      <c r="Q14" s="194"/>
+      <c r="R14" s="194"/>
+      <c r="S14" s="195"/>
       <c r="T14" s="73"/>
       <c r="U14" s="28"/>
       <c r="V14" s="28"/>
@@ -3198,10 +3330,10 @@
       <c r="AL14" s="6"/>
       <c r="AM14" s="6"/>
       <c r="AN14" s="8"/>
-      <c r="AO14" s="211"/>
-      <c r="AP14" s="212"/>
-      <c r="AQ14" s="212"/>
-      <c r="AR14" s="213"/>
+      <c r="AO14" s="193"/>
+      <c r="AP14" s="194"/>
+      <c r="AQ14" s="194"/>
+      <c r="AR14" s="195"/>
       <c r="AS14" s="8"/>
       <c r="AT14" s="6"/>
       <c r="AU14" s="6"/>
@@ -3222,7 +3354,7 @@
       <c r="BJ14" s="6"/>
       <c r="BK14" s="6"/>
       <c r="BL14" s="6"/>
-      <c r="BM14" s="8"/>
+      <c r="BM14" s="169"/>
       <c r="BP14" s="58"/>
       <c r="BQ14" s="46"/>
       <c r="BR14" s="46"/>
@@ -3232,37 +3364,37 @@
       <c r="BX14" s="57"/>
     </row>
     <row r="15" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="182" t="s">
+      <c r="A15" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="228" t="s">
+      <c r="B15" s="244" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="190" t="s">
+      <c r="C15" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="186">
+      <c r="D15" s="209">
         <v>4</v>
       </c>
-      <c r="E15" s="187">
+      <c r="E15" s="210">
         <v>5</v>
       </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="103"/>
-      <c r="J15" s="104"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="174">
+      <c r="F15" s="99"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="99"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="188">
         <v>4</v>
       </c>
-      <c r="M15" s="174"/>
-      <c r="N15" s="103"/>
-      <c r="O15" s="89"/>
-      <c r="P15" s="211"/>
-      <c r="Q15" s="212"/>
-      <c r="R15" s="212"/>
-      <c r="S15" s="213"/>
+      <c r="M15" s="188"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="194"/>
+      <c r="R15" s="194"/>
+      <c r="S15" s="195"/>
       <c r="T15" s="71"/>
       <c r="U15" s="38"/>
       <c r="V15" s="38"/>
@@ -3284,10 +3416,10 @@
       <c r="AL15" s="38"/>
       <c r="AM15" s="38"/>
       <c r="AN15" s="35"/>
-      <c r="AO15" s="211"/>
-      <c r="AP15" s="212"/>
-      <c r="AQ15" s="212"/>
-      <c r="AR15" s="213"/>
+      <c r="AO15" s="193"/>
+      <c r="AP15" s="194"/>
+      <c r="AQ15" s="194"/>
+      <c r="AR15" s="195"/>
       <c r="AS15" s="8"/>
       <c r="AT15" s="6"/>
       <c r="AU15" s="6"/>
@@ -3308,66 +3440,66 @@
       <c r="BJ15" s="6"/>
       <c r="BK15" s="6"/>
       <c r="BL15" s="6"/>
-      <c r="BM15" s="8"/>
+      <c r="BM15" s="169"/>
       <c r="BP15" s="60"/>
       <c r="BQ15" s="51"/>
       <c r="BR15" s="22"/>
-      <c r="BS15" s="227" t="s">
+      <c r="BS15" s="247" t="s">
         <v>16</v>
       </c>
-      <c r="BT15" s="227"/>
-      <c r="BU15" s="227"/>
-      <c r="BV15" s="227"/>
-      <c r="BW15" s="227"/>
+      <c r="BT15" s="247"/>
+      <c r="BU15" s="247"/>
+      <c r="BV15" s="247"/>
+      <c r="BW15" s="247"/>
       <c r="BX15" s="57"/>
     </row>
     <row r="16" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="182"/>
-      <c r="B16" s="229"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="181"/>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="172">
+      <c r="A16" s="205"/>
+      <c r="B16" s="245"/>
+      <c r="C16" s="215"/>
+      <c r="D16" s="211"/>
+      <c r="E16" s="212"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="102"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="186">
         <v>5</v>
       </c>
-      <c r="L16" s="173"/>
-      <c r="M16" s="173"/>
-      <c r="N16" s="106"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="211"/>
-      <c r="Q16" s="212"/>
-      <c r="R16" s="212"/>
-      <c r="S16" s="213"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="187"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="193"/>
+      <c r="Q16" s="194"/>
+      <c r="R16" s="194"/>
+      <c r="S16" s="195"/>
       <c r="T16" s="72"/>
-      <c r="U16" s="117"/>
-      <c r="V16" s="117"/>
-      <c r="W16" s="117"/>
-      <c r="X16" s="117"/>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119"/>
-      <c r="AB16" s="117"/>
-      <c r="AC16" s="117"/>
-      <c r="AD16" s="118"/>
-      <c r="AE16" s="117"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="120"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="117"/>
-      <c r="AN16" s="118"/>
-      <c r="AO16" s="211"/>
-      <c r="AP16" s="212"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="213"/>
+      <c r="U16" s="112"/>
+      <c r="V16" s="112"/>
+      <c r="W16" s="112"/>
+      <c r="X16" s="112"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="114"/>
+      <c r="AA16" s="114"/>
+      <c r="AB16" s="112"/>
+      <c r="AC16" s="112"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="112"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="112"/>
+      <c r="AH16" s="112"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="115"/>
+      <c r="AK16" s="163"/>
+      <c r="AL16" s="112"/>
+      <c r="AM16" s="112"/>
+      <c r="AN16" s="113"/>
+      <c r="AO16" s="193"/>
+      <c r="AP16" s="194"/>
+      <c r="AQ16" s="194"/>
+      <c r="AR16" s="195"/>
       <c r="AS16" s="35"/>
       <c r="AT16" s="38"/>
       <c r="AU16" s="38"/>
@@ -3388,7 +3520,7 @@
       <c r="BJ16" s="38"/>
       <c r="BK16" s="38"/>
       <c r="BL16" s="38"/>
-      <c r="BM16" s="35"/>
+      <c r="BM16" s="167"/>
       <c r="BP16" s="60"/>
       <c r="BQ16" s="22"/>
       <c r="BR16" s="22"/>
@@ -3398,62 +3530,62 @@
       <c r="BX16" s="57"/>
     </row>
     <row r="17" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="182"/>
-      <c r="B17" s="230" t="s">
+      <c r="A17" s="205"/>
+      <c r="B17" s="246" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="184" t="s">
+      <c r="C17" s="207" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="176">
+      <c r="D17" s="199">
         <v>3</v>
       </c>
-      <c r="E17" s="177">
+      <c r="E17" s="200">
         <v>2</v>
       </c>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="116">
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="106"/>
+      <c r="N17" s="111">
         <v>1</v>
       </c>
-      <c r="O17" s="95"/>
-      <c r="P17" s="211"/>
-      <c r="Q17" s="212"/>
-      <c r="R17" s="212"/>
-      <c r="S17" s="213"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="194"/>
+      <c r="R17" s="194"/>
+      <c r="S17" s="195"/>
       <c r="T17" s="73"/>
-      <c r="U17" s="116">
+      <c r="U17" s="111">
         <v>2</v>
       </c>
-      <c r="V17" s="111"/>
-      <c r="W17" s="111"/>
-      <c r="X17" s="111"/>
-      <c r="Y17" s="112"/>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="113"/>
-      <c r="AB17" s="111"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="112"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="112"/>
-      <c r="AJ17" s="121"/>
-      <c r="AK17" s="122"/>
-      <c r="AL17" s="111"/>
-      <c r="AM17" s="111"/>
-      <c r="AN17" s="112"/>
-      <c r="AO17" s="211"/>
-      <c r="AP17" s="212"/>
-      <c r="AQ17" s="212"/>
-      <c r="AR17" s="213"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="106"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="108"/>
+      <c r="AA17" s="108"/>
+      <c r="AB17" s="106"/>
+      <c r="AC17" s="106"/>
+      <c r="AD17" s="107"/>
+      <c r="AE17" s="106"/>
+      <c r="AF17" s="106"/>
+      <c r="AG17" s="106"/>
+      <c r="AH17" s="106"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="116"/>
+      <c r="AK17" s="117"/>
+      <c r="AL17" s="106"/>
+      <c r="AM17" s="106"/>
+      <c r="AN17" s="107"/>
+      <c r="AO17" s="193"/>
+      <c r="AP17" s="194"/>
+      <c r="AQ17" s="194"/>
+      <c r="AR17" s="195"/>
       <c r="AS17" s="40"/>
       <c r="AT17" s="39"/>
       <c r="AU17" s="39"/>
@@ -3474,66 +3606,66 @@
       <c r="BJ17" s="39"/>
       <c r="BK17" s="39"/>
       <c r="BL17" s="39"/>
-      <c r="BM17" s="40"/>
+      <c r="BM17" s="168"/>
       <c r="BP17" s="60"/>
       <c r="BQ17" s="27"/>
       <c r="BR17" s="22"/>
-      <c r="BS17" s="227" t="s">
+      <c r="BS17" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="BT17" s="227"/>
-      <c r="BU17" s="227"/>
-      <c r="BV17" s="227"/>
-      <c r="BW17" s="227"/>
+      <c r="BT17" s="247"/>
+      <c r="BU17" s="247"/>
+      <c r="BV17" s="247"/>
+      <c r="BW17" s="247"/>
       <c r="BX17" s="57"/>
     </row>
     <row r="18" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="182"/>
-      <c r="B18" s="229"/>
-      <c r="C18" s="185"/>
-      <c r="D18" s="176"/>
-      <c r="E18" s="177"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="111"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="211"/>
-      <c r="Q18" s="212"/>
-      <c r="R18" s="212"/>
-      <c r="S18" s="213"/>
+      <c r="A18" s="205"/>
+      <c r="B18" s="245"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="199"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="108"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="193"/>
+      <c r="Q18" s="194"/>
+      <c r="R18" s="194"/>
+      <c r="S18" s="195"/>
       <c r="T18" s="73"/>
-      <c r="U18" s="165">
+      <c r="U18" s="157">
         <v>2</v>
       </c>
-      <c r="V18" s="111"/>
-      <c r="W18" s="111"/>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="112"/>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="113"/>
-      <c r="AB18" s="111"/>
-      <c r="AC18" s="111"/>
-      <c r="AD18" s="112"/>
-      <c r="AE18" s="111"/>
-      <c r="AF18" s="111"/>
-      <c r="AG18" s="111"/>
-      <c r="AH18" s="111"/>
-      <c r="AI18" s="112"/>
-      <c r="AJ18" s="121"/>
-      <c r="AK18" s="122"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="111"/>
-      <c r="AN18" s="112"/>
-      <c r="AO18" s="211"/>
-      <c r="AP18" s="212"/>
-      <c r="AQ18" s="212"/>
-      <c r="AR18" s="213"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="106"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="108"/>
+      <c r="AA18" s="108"/>
+      <c r="AB18" s="106"/>
+      <c r="AC18" s="106"/>
+      <c r="AD18" s="107"/>
+      <c r="AE18" s="106"/>
+      <c r="AF18" s="106"/>
+      <c r="AG18" s="106"/>
+      <c r="AH18" s="106"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="116"/>
+      <c r="AK18" s="117"/>
+      <c r="AL18" s="106"/>
+      <c r="AM18" s="106"/>
+      <c r="AN18" s="107"/>
+      <c r="AO18" s="193"/>
+      <c r="AP18" s="194"/>
+      <c r="AQ18" s="194"/>
+      <c r="AR18" s="195"/>
       <c r="AS18" s="8"/>
       <c r="AT18" s="6"/>
       <c r="AU18" s="6"/>
@@ -3554,22 +3686,22 @@
       <c r="BJ18" s="6"/>
       <c r="BK18" s="6"/>
       <c r="BL18" s="6"/>
-      <c r="BM18" s="8"/>
+      <c r="BM18" s="169"/>
       <c r="BP18" s="56"/>
       <c r="BX18" s="57"/>
     </row>
     <row r="19" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
-      <c r="B19" s="230" t="s">
+      <c r="A19" s="205"/>
+      <c r="B19" s="246" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="193" t="s">
+      <c r="C19" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="178">
+      <c r="D19" s="201">
         <v>2</v>
       </c>
-      <c r="E19" s="180">
+      <c r="E19" s="203">
         <v>2</v>
       </c>
       <c r="F19" s="38"/>
@@ -3582,37 +3714,37 @@
       <c r="M19" s="38"/>
       <c r="N19" s="38"/>
       <c r="O19" s="35"/>
-      <c r="P19" s="211"/>
-      <c r="Q19" s="212"/>
-      <c r="R19" s="212"/>
-      <c r="S19" s="213"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="194"/>
+      <c r="R19" s="194"/>
+      <c r="S19" s="195"/>
       <c r="T19" s="71"/>
-      <c r="U19" s="103"/>
-      <c r="V19" s="102">
+      <c r="U19" s="99"/>
+      <c r="V19" s="159">
         <v>2</v>
       </c>
-      <c r="W19" s="103"/>
-      <c r="X19" s="103"/>
-      <c r="Y19" s="104"/>
-      <c r="Z19" s="105"/>
-      <c r="AA19" s="105"/>
-      <c r="AB19" s="103"/>
-      <c r="AC19" s="103"/>
-      <c r="AD19" s="104"/>
-      <c r="AE19" s="103"/>
-      <c r="AF19" s="103"/>
-      <c r="AG19" s="103"/>
-      <c r="AH19" s="103"/>
-      <c r="AI19" s="104"/>
-      <c r="AJ19" s="123"/>
-      <c r="AK19" s="124"/>
-      <c r="AL19" s="103"/>
-      <c r="AM19" s="103"/>
-      <c r="AN19" s="104"/>
-      <c r="AO19" s="211"/>
-      <c r="AP19" s="212"/>
-      <c r="AQ19" s="212"/>
-      <c r="AR19" s="213"/>
+      <c r="W19" s="99"/>
+      <c r="X19" s="99"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="101"/>
+      <c r="AA19" s="101"/>
+      <c r="AB19" s="99"/>
+      <c r="AC19" s="99"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="99"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="118"/>
+      <c r="AK19" s="119"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="100"/>
+      <c r="AO19" s="193"/>
+      <c r="AP19" s="194"/>
+      <c r="AQ19" s="194"/>
+      <c r="AR19" s="195"/>
       <c r="AS19" s="8"/>
       <c r="AT19" s="6"/>
       <c r="AU19" s="6"/>
@@ -3633,24 +3765,24 @@
       <c r="BJ19" s="6"/>
       <c r="BK19" s="6"/>
       <c r="BL19" s="6"/>
-      <c r="BM19" s="8"/>
+      <c r="BM19" s="169"/>
       <c r="BP19" s="56"/>
       <c r="BQ19" s="53"/>
-      <c r="BS19" s="227" t="s">
+      <c r="BS19" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="BT19" s="227"/>
-      <c r="BU19" s="227"/>
-      <c r="BV19" s="227"/>
-      <c r="BW19" s="227"/>
+      <c r="BT19" s="247"/>
+      <c r="BU19" s="247"/>
+      <c r="BV19" s="247"/>
+      <c r="BW19" s="247"/>
       <c r="BX19" s="57"/>
     </row>
     <row r="20" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
-      <c r="B20" s="229"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="181"/>
+      <c r="A20" s="205"/>
+      <c r="B20" s="245"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="212"/>
       <c r="F20" s="39"/>
       <c r="G20" s="39"/>
       <c r="H20" s="39"/>
@@ -3661,37 +3793,37 @@
       <c r="M20" s="39"/>
       <c r="N20" s="39"/>
       <c r="O20" s="40"/>
-      <c r="P20" s="211"/>
-      <c r="Q20" s="212"/>
-      <c r="R20" s="212"/>
-      <c r="S20" s="213"/>
+      <c r="P20" s="193"/>
+      <c r="Q20" s="194"/>
+      <c r="R20" s="194"/>
+      <c r="S20" s="195"/>
       <c r="T20" s="72"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="164">
+      <c r="U20" s="102"/>
+      <c r="V20" s="160">
         <v>2</v>
       </c>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="107"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="106"/>
-      <c r="AD20" s="107"/>
-      <c r="AE20" s="106"/>
-      <c r="AF20" s="106"/>
-      <c r="AG20" s="106"/>
-      <c r="AH20" s="106"/>
-      <c r="AI20" s="107"/>
-      <c r="AJ20" s="125"/>
-      <c r="AK20" s="126"/>
-      <c r="AL20" s="106"/>
-      <c r="AM20" s="106"/>
-      <c r="AN20" s="107"/>
-      <c r="AO20" s="211"/>
-      <c r="AP20" s="212"/>
-      <c r="AQ20" s="212"/>
-      <c r="AR20" s="213"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="103"/>
+      <c r="Z20" s="104"/>
+      <c r="AA20" s="104"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="103"/>
+      <c r="AE20" s="102"/>
+      <c r="AF20" s="102"/>
+      <c r="AG20" s="102"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="121"/>
+      <c r="AL20" s="102"/>
+      <c r="AM20" s="102"/>
+      <c r="AN20" s="103"/>
+      <c r="AO20" s="193"/>
+      <c r="AP20" s="194"/>
+      <c r="AQ20" s="194"/>
+      <c r="AR20" s="195"/>
       <c r="AS20" s="35"/>
       <c r="AT20" s="38"/>
       <c r="AU20" s="38"/>
@@ -3712,22 +3844,22 @@
       <c r="BJ20" s="38"/>
       <c r="BK20" s="38"/>
       <c r="BL20" s="38"/>
-      <c r="BM20" s="35"/>
+      <c r="BM20" s="167"/>
       <c r="BP20" s="56"/>
       <c r="BX20" s="57"/>
     </row>
     <row r="21" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
-      <c r="B21" s="230" t="s">
+      <c r="A21" s="205"/>
+      <c r="B21" s="246" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="184" t="s">
+      <c r="C21" s="207" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="176">
+      <c r="D21" s="199">
         <v>2</v>
       </c>
-      <c r="E21" s="177">
+      <c r="E21" s="200">
         <v>2</v>
       </c>
       <c r="F21" s="6"/>
@@ -3738,37 +3870,37 @@
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="8"/>
-      <c r="P21" s="211"/>
-      <c r="Q21" s="212"/>
-      <c r="R21" s="212"/>
-      <c r="S21" s="213"/>
+      <c r="P21" s="193"/>
+      <c r="Q21" s="194"/>
+      <c r="R21" s="194"/>
+      <c r="S21" s="195"/>
       <c r="T21" s="73"/>
-      <c r="U21" s="111"/>
-      <c r="V21" s="111"/>
-      <c r="W21" s="116">
+      <c r="U21" s="106"/>
+      <c r="V21" s="106"/>
+      <c r="W21" s="111">
         <v>2</v>
       </c>
-      <c r="X21" s="111"/>
-      <c r="Y21" s="112"/>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="113"/>
-      <c r="AB21" s="111"/>
-      <c r="AC21" s="111"/>
-      <c r="AD21" s="112"/>
-      <c r="AE21" s="111"/>
-      <c r="AF21" s="111"/>
-      <c r="AG21" s="111"/>
-      <c r="AH21" s="111"/>
-      <c r="AI21" s="112"/>
-      <c r="AJ21" s="121"/>
-      <c r="AK21" s="122"/>
-      <c r="AL21" s="111"/>
-      <c r="AM21" s="111"/>
-      <c r="AN21" s="112"/>
-      <c r="AO21" s="211"/>
-      <c r="AP21" s="212"/>
-      <c r="AQ21" s="212"/>
-      <c r="AR21" s="213"/>
+      <c r="X21" s="106"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="108"/>
+      <c r="AA21" s="108"/>
+      <c r="AB21" s="106"/>
+      <c r="AC21" s="106"/>
+      <c r="AD21" s="107"/>
+      <c r="AE21" s="106"/>
+      <c r="AF21" s="106"/>
+      <c r="AG21" s="106"/>
+      <c r="AH21" s="106"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="116"/>
+      <c r="AK21" s="117"/>
+      <c r="AL21" s="106"/>
+      <c r="AM21" s="106"/>
+      <c r="AN21" s="107"/>
+      <c r="AO21" s="193"/>
+      <c r="AP21" s="194"/>
+      <c r="AQ21" s="194"/>
+      <c r="AR21" s="195"/>
       <c r="AS21" s="40"/>
       <c r="AT21" s="39"/>
       <c r="AU21" s="39"/>
@@ -3789,24 +3921,24 @@
       <c r="BJ21" s="39"/>
       <c r="BK21" s="39"/>
       <c r="BL21" s="39"/>
-      <c r="BM21" s="40"/>
+      <c r="BM21" s="168"/>
       <c r="BP21" s="56"/>
       <c r="BQ21" s="52"/>
-      <c r="BS21" s="227" t="s">
+      <c r="BS21" s="247" t="s">
         <v>24</v>
       </c>
-      <c r="BT21" s="227"/>
-      <c r="BU21" s="227"/>
-      <c r="BV21" s="227"/>
-      <c r="BW21" s="227"/>
+      <c r="BT21" s="247"/>
+      <c r="BU21" s="247"/>
+      <c r="BV21" s="247"/>
+      <c r="BW21" s="247"/>
       <c r="BX21" s="57"/>
     </row>
     <row r="22" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="182"/>
-      <c r="B22" s="229"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="176"/>
-      <c r="E22" s="177"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="245"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="199"/>
+      <c r="E22" s="200"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -3815,37 +3947,37 @@
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="8"/>
-      <c r="P22" s="211"/>
-      <c r="Q22" s="212"/>
-      <c r="R22" s="212"/>
-      <c r="S22" s="213"/>
+      <c r="P22" s="193"/>
+      <c r="Q22" s="194"/>
+      <c r="R22" s="194"/>
+      <c r="S22" s="195"/>
       <c r="T22" s="73"/>
-      <c r="U22" s="111"/>
-      <c r="V22" s="111"/>
-      <c r="W22" s="165">
+      <c r="U22" s="106"/>
+      <c r="V22" s="106"/>
+      <c r="W22" s="157">
         <v>2</v>
       </c>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="112"/>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="113"/>
-      <c r="AB22" s="111"/>
-      <c r="AC22" s="111"/>
-      <c r="AD22" s="112"/>
-      <c r="AE22" s="111"/>
-      <c r="AF22" s="111"/>
-      <c r="AG22" s="111"/>
-      <c r="AH22" s="111"/>
-      <c r="AI22" s="112"/>
-      <c r="AJ22" s="121"/>
-      <c r="AK22" s="122"/>
-      <c r="AL22" s="111"/>
-      <c r="AM22" s="111"/>
-      <c r="AN22" s="112"/>
-      <c r="AO22" s="211"/>
-      <c r="AP22" s="212"/>
-      <c r="AQ22" s="212"/>
-      <c r="AR22" s="213"/>
+      <c r="X22" s="106"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="108"/>
+      <c r="AA22" s="108"/>
+      <c r="AB22" s="106"/>
+      <c r="AC22" s="106"/>
+      <c r="AD22" s="107"/>
+      <c r="AE22" s="106"/>
+      <c r="AF22" s="106"/>
+      <c r="AG22" s="106"/>
+      <c r="AH22" s="106"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="116"/>
+      <c r="AK22" s="117"/>
+      <c r="AL22" s="106"/>
+      <c r="AM22" s="106"/>
+      <c r="AN22" s="107"/>
+      <c r="AO22" s="193"/>
+      <c r="AP22" s="194"/>
+      <c r="AQ22" s="194"/>
+      <c r="AR22" s="195"/>
       <c r="AS22" s="8"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -3866,22 +3998,22 @@
       <c r="BJ22" s="6"/>
       <c r="BK22" s="6"/>
       <c r="BL22" s="6"/>
-      <c r="BM22" s="8"/>
+      <c r="BM22" s="169"/>
       <c r="BP22" s="56"/>
       <c r="BX22" s="57"/>
     </row>
     <row r="23" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="182"/>
-      <c r="B23" s="230" t="s">
+      <c r="A23" s="205"/>
+      <c r="B23" s="246" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="184" t="s">
+      <c r="C23" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="178">
+      <c r="D23" s="201">
         <v>2</v>
       </c>
-      <c r="E23" s="180">
+      <c r="E23" s="203">
         <v>2</v>
       </c>
       <c r="F23" s="38"/>
@@ -3894,37 +4026,37 @@
       <c r="M23" s="38"/>
       <c r="N23" s="38"/>
       <c r="O23" s="35"/>
-      <c r="P23" s="211"/>
-      <c r="Q23" s="212"/>
-      <c r="R23" s="212"/>
-      <c r="S23" s="213"/>
+      <c r="P23" s="193"/>
+      <c r="Q23" s="194"/>
+      <c r="R23" s="194"/>
+      <c r="S23" s="195"/>
       <c r="T23" s="71"/>
-      <c r="U23" s="103"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="103"/>
-      <c r="X23" s="102">
+      <c r="U23" s="99"/>
+      <c r="V23" s="99"/>
+      <c r="W23" s="99"/>
+      <c r="X23" s="159">
         <v>2</v>
       </c>
-      <c r="Y23" s="104"/>
-      <c r="Z23" s="127"/>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="103"/>
-      <c r="AC23" s="103"/>
-      <c r="AD23" s="104"/>
-      <c r="AE23" s="103"/>
-      <c r="AF23" s="103"/>
-      <c r="AG23" s="103"/>
-      <c r="AH23" s="103"/>
-      <c r="AI23" s="104"/>
-      <c r="AJ23" s="123"/>
-      <c r="AK23" s="124"/>
-      <c r="AL23" s="103"/>
-      <c r="AM23" s="103"/>
-      <c r="AN23" s="104"/>
-      <c r="AO23" s="211"/>
-      <c r="AP23" s="212"/>
-      <c r="AQ23" s="212"/>
-      <c r="AR23" s="213"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="122"/>
+      <c r="AA23" s="101"/>
+      <c r="AB23" s="99"/>
+      <c r="AC23" s="99"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="99"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="118"/>
+      <c r="AK23" s="119"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="100"/>
+      <c r="AO23" s="193"/>
+      <c r="AP23" s="194"/>
+      <c r="AQ23" s="194"/>
+      <c r="AR23" s="195"/>
       <c r="AS23" s="8"/>
       <c r="AT23" s="6"/>
       <c r="AU23" s="6"/>
@@ -3945,24 +4077,24 @@
       <c r="BJ23" s="6"/>
       <c r="BK23" s="6"/>
       <c r="BL23" s="6"/>
-      <c r="BM23" s="8"/>
+      <c r="BM23" s="169"/>
       <c r="BP23" s="56"/>
       <c r="BQ23" s="50"/>
-      <c r="BS23" s="227" t="s">
+      <c r="BS23" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="BT23" s="227"/>
-      <c r="BU23" s="227"/>
-      <c r="BV23" s="227"/>
-      <c r="BW23" s="227"/>
+      <c r="BT23" s="247"/>
+      <c r="BU23" s="247"/>
+      <c r="BV23" s="247"/>
+      <c r="BW23" s="247"/>
       <c r="BX23" s="57"/>
     </row>
     <row r="24" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="182"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="185"/>
-      <c r="D24" s="179"/>
-      <c r="E24" s="181"/>
+      <c r="A24" s="205"/>
+      <c r="B24" s="245"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="212"/>
       <c r="F24" s="39"/>
       <c r="G24" s="39"/>
       <c r="H24" s="39"/>
@@ -3973,37 +4105,37 @@
       <c r="M24" s="39"/>
       <c r="N24" s="39"/>
       <c r="O24" s="40"/>
-      <c r="P24" s="211"/>
-      <c r="Q24" s="212"/>
-      <c r="R24" s="212"/>
-      <c r="S24" s="213"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="194"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="195"/>
       <c r="T24" s="72"/>
-      <c r="U24" s="106"/>
-      <c r="V24" s="106"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="164">
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="160">
         <v>2</v>
       </c>
-      <c r="Y24" s="107"/>
-      <c r="Z24" s="108"/>
-      <c r="AA24" s="108"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="107"/>
-      <c r="AE24" s="106"/>
-      <c r="AF24" s="106"/>
-      <c r="AG24" s="106"/>
-      <c r="AH24" s="106"/>
-      <c r="AI24" s="107"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="126"/>
-      <c r="AL24" s="106"/>
-      <c r="AM24" s="106"/>
-      <c r="AN24" s="107"/>
-      <c r="AO24" s="211"/>
-      <c r="AP24" s="212"/>
-      <c r="AQ24" s="212"/>
-      <c r="AR24" s="213"/>
+      <c r="Y24" s="103"/>
+      <c r="Z24" s="104"/>
+      <c r="AA24" s="104"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="103"/>
+      <c r="AE24" s="102"/>
+      <c r="AF24" s="102"/>
+      <c r="AG24" s="102"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="103"/>
+      <c r="AJ24" s="120"/>
+      <c r="AK24" s="121"/>
+      <c r="AL24" s="102"/>
+      <c r="AM24" s="102"/>
+      <c r="AN24" s="103"/>
+      <c r="AO24" s="193"/>
+      <c r="AP24" s="194"/>
+      <c r="AQ24" s="194"/>
+      <c r="AR24" s="195"/>
       <c r="AS24" s="35"/>
       <c r="AT24" s="38"/>
       <c r="AU24" s="38"/>
@@ -4024,22 +4156,22 @@
       <c r="BJ24" s="38"/>
       <c r="BK24" s="38"/>
       <c r="BL24" s="38"/>
-      <c r="BM24" s="35"/>
+      <c r="BM24" s="167"/>
       <c r="BP24" s="56"/>
       <c r="BX24" s="57"/>
     </row>
     <row r="25" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="182"/>
-      <c r="B25" s="230" t="s">
+      <c r="A25" s="205"/>
+      <c r="B25" s="246" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="193" t="s">
+      <c r="C25" s="216" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="176">
+      <c r="D25" s="199">
         <v>2</v>
       </c>
-      <c r="E25" s="177">
+      <c r="E25" s="200">
         <v>2</v>
       </c>
       <c r="F25" s="6"/>
@@ -4050,37 +4182,37 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="8"/>
-      <c r="P25" s="211"/>
-      <c r="Q25" s="212"/>
-      <c r="R25" s="212"/>
-      <c r="S25" s="213"/>
+      <c r="P25" s="193"/>
+      <c r="Q25" s="194"/>
+      <c r="R25" s="194"/>
+      <c r="S25" s="195"/>
       <c r="T25" s="73"/>
-      <c r="U25" s="111"/>
-      <c r="V25" s="111"/>
-      <c r="W25" s="111"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="112"/>
-      <c r="Z25" s="128">
+      <c r="U25" s="106"/>
+      <c r="V25" s="106"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="106"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="123">
         <v>2</v>
       </c>
-      <c r="AA25" s="129"/>
-      <c r="AB25" s="111"/>
-      <c r="AC25" s="111"/>
-      <c r="AD25" s="112"/>
-      <c r="AE25" s="111"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="111"/>
-      <c r="AH25" s="111"/>
-      <c r="AI25" s="112"/>
-      <c r="AJ25" s="121"/>
-      <c r="AK25" s="122"/>
-      <c r="AL25" s="111"/>
-      <c r="AM25" s="111"/>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="211"/>
-      <c r="AP25" s="212"/>
-      <c r="AQ25" s="212"/>
-      <c r="AR25" s="213"/>
+      <c r="AA25" s="124"/>
+      <c r="AB25" s="106"/>
+      <c r="AC25" s="106"/>
+      <c r="AD25" s="107"/>
+      <c r="AE25" s="106"/>
+      <c r="AF25" s="106"/>
+      <c r="AG25" s="106"/>
+      <c r="AH25" s="106"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="116"/>
+      <c r="AK25" s="117"/>
+      <c r="AL25" s="106"/>
+      <c r="AM25" s="106"/>
+      <c r="AN25" s="107"/>
+      <c r="AO25" s="193"/>
+      <c r="AP25" s="194"/>
+      <c r="AQ25" s="194"/>
+      <c r="AR25" s="195"/>
       <c r="AS25" s="40"/>
       <c r="AT25" s="39"/>
       <c r="AU25" s="39"/>
@@ -4101,24 +4233,24 @@
       <c r="BJ25" s="39"/>
       <c r="BK25" s="39"/>
       <c r="BL25" s="39"/>
-      <c r="BM25" s="40"/>
+      <c r="BM25" s="168"/>
       <c r="BP25" s="56"/>
       <c r="BQ25" s="45"/>
-      <c r="BS25" s="227" t="s">
+      <c r="BS25" s="247" t="s">
         <v>29</v>
       </c>
-      <c r="BT25" s="227"/>
-      <c r="BU25" s="227"/>
-      <c r="BV25" s="227"/>
-      <c r="BW25" s="227"/>
+      <c r="BT25" s="247"/>
+      <c r="BU25" s="247"/>
+      <c r="BV25" s="247"/>
+      <c r="BW25" s="247"/>
       <c r="BX25" s="57"/>
     </row>
     <row r="26" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
-      <c r="B26" s="229"/>
-      <c r="C26" s="185"/>
-      <c r="D26" s="176"/>
-      <c r="E26" s="177"/>
+      <c r="A26" s="205"/>
+      <c r="B26" s="245"/>
+      <c r="C26" s="208"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="200"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -4127,37 +4259,37 @@
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="8"/>
-      <c r="P26" s="211"/>
-      <c r="Q26" s="212"/>
-      <c r="R26" s="212"/>
-      <c r="S26" s="213"/>
+      <c r="P26" s="193"/>
+      <c r="Q26" s="194"/>
+      <c r="R26" s="194"/>
+      <c r="S26" s="195"/>
       <c r="T26" s="73"/>
-      <c r="U26" s="111"/>
-      <c r="V26" s="111"/>
-      <c r="W26" s="111"/>
-      <c r="X26" s="111"/>
-      <c r="Y26" s="112"/>
-      <c r="Z26" s="167">
+      <c r="U26" s="106"/>
+      <c r="V26" s="106"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="106"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="158">
         <v>2</v>
       </c>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="111"/>
-      <c r="AC26" s="111"/>
-      <c r="AD26" s="112"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="111"/>
-      <c r="AG26" s="111"/>
-      <c r="AH26" s="111"/>
-      <c r="AI26" s="112"/>
-      <c r="AJ26" s="121"/>
-      <c r="AK26" s="122"/>
-      <c r="AL26" s="111"/>
-      <c r="AM26" s="111"/>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="211"/>
-      <c r="AP26" s="212"/>
-      <c r="AQ26" s="212"/>
-      <c r="AR26" s="213"/>
+      <c r="AA26" s="108"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="107"/>
+      <c r="AE26" s="106"/>
+      <c r="AF26" s="106"/>
+      <c r="AG26" s="106"/>
+      <c r="AH26" s="106"/>
+      <c r="AI26" s="107"/>
+      <c r="AJ26" s="116"/>
+      <c r="AK26" s="117"/>
+      <c r="AL26" s="106"/>
+      <c r="AM26" s="106"/>
+      <c r="AN26" s="107"/>
+      <c r="AO26" s="193"/>
+      <c r="AP26" s="194"/>
+      <c r="AQ26" s="194"/>
+      <c r="AR26" s="195"/>
       <c r="AS26" s="8"/>
       <c r="AT26" s="6"/>
       <c r="AU26" s="6"/>
@@ -4178,22 +4310,22 @@
       <c r="BJ26" s="6"/>
       <c r="BK26" s="6"/>
       <c r="BL26" s="6"/>
-      <c r="BM26" s="8"/>
+      <c r="BM26" s="169"/>
       <c r="BP26" s="56"/>
       <c r="BX26" s="57"/>
     </row>
     <row r="27" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="182"/>
-      <c r="B27" s="230" t="s">
+      <c r="A27" s="205"/>
+      <c r="B27" s="246" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="193" t="s">
+      <c r="C27" s="216" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="178">
+      <c r="D27" s="201">
         <v>2</v>
       </c>
-      <c r="E27" s="180">
+      <c r="E27" s="203">
         <v>2</v>
       </c>
       <c r="F27" s="38"/>
@@ -4206,37 +4338,37 @@
       <c r="M27" s="38"/>
       <c r="N27" s="38"/>
       <c r="O27" s="35"/>
-      <c r="P27" s="211"/>
-      <c r="Q27" s="212"/>
-      <c r="R27" s="212"/>
-      <c r="S27" s="213"/>
+      <c r="P27" s="193"/>
+      <c r="Q27" s="194"/>
+      <c r="R27" s="194"/>
+      <c r="S27" s="195"/>
       <c r="T27" s="71"/>
-      <c r="U27" s="103"/>
-      <c r="V27" s="103"/>
-      <c r="W27" s="103"/>
-      <c r="X27" s="103"/>
-      <c r="Y27" s="104"/>
-      <c r="Z27" s="105"/>
-      <c r="AA27" s="110">
+      <c r="U27" s="99"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="99"/>
+      <c r="X27" s="99"/>
+      <c r="Y27" s="100"/>
+      <c r="Z27" s="101"/>
+      <c r="AA27" s="162">
         <v>2</v>
       </c>
-      <c r="AB27" s="103"/>
-      <c r="AC27" s="103"/>
-      <c r="AD27" s="104"/>
-      <c r="AE27" s="103"/>
-      <c r="AF27" s="103"/>
-      <c r="AG27" s="103"/>
-      <c r="AH27" s="103"/>
-      <c r="AI27" s="104"/>
-      <c r="AJ27" s="123"/>
-      <c r="AK27" s="124"/>
-      <c r="AL27" s="103"/>
-      <c r="AM27" s="103"/>
-      <c r="AN27" s="104"/>
-      <c r="AO27" s="211"/>
-      <c r="AP27" s="212"/>
-      <c r="AQ27" s="212"/>
-      <c r="AR27" s="213"/>
+      <c r="AB27" s="99"/>
+      <c r="AC27" s="99"/>
+      <c r="AD27" s="100"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="99"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
+      <c r="AJ27" s="118"/>
+      <c r="AK27" s="119"/>
+      <c r="AL27" s="99"/>
+      <c r="AM27" s="99"/>
+      <c r="AN27" s="100"/>
+      <c r="AO27" s="193"/>
+      <c r="AP27" s="194"/>
+      <c r="AQ27" s="194"/>
+      <c r="AR27" s="195"/>
       <c r="AS27" s="8"/>
       <c r="AT27" s="6"/>
       <c r="AU27" s="6"/>
@@ -4257,24 +4389,24 @@
       <c r="BJ27" s="6"/>
       <c r="BK27" s="6"/>
       <c r="BL27" s="6"/>
-      <c r="BM27" s="8"/>
+      <c r="BM27" s="169"/>
       <c r="BP27" s="56"/>
       <c r="BQ27" s="30"/>
-      <c r="BS27" s="227" t="s">
+      <c r="BS27" s="247" t="s">
         <v>31</v>
       </c>
-      <c r="BT27" s="227"/>
-      <c r="BU27" s="227"/>
-      <c r="BV27" s="227"/>
-      <c r="BW27" s="227"/>
+      <c r="BT27" s="247"/>
+      <c r="BU27" s="247"/>
+      <c r="BV27" s="247"/>
+      <c r="BW27" s="247"/>
       <c r="BX27" s="57"/>
     </row>
     <row r="28" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="182"/>
-      <c r="B28" s="229"/>
-      <c r="C28" s="185"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="181"/>
+      <c r="A28" s="205"/>
+      <c r="B28" s="245"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="212"/>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
       <c r="H28" s="39"/>
@@ -4285,37 +4417,37 @@
       <c r="M28" s="39"/>
       <c r="N28" s="39"/>
       <c r="O28" s="40"/>
-      <c r="P28" s="211"/>
-      <c r="Q28" s="212"/>
-      <c r="R28" s="212"/>
-      <c r="S28" s="213"/>
+      <c r="P28" s="193"/>
+      <c r="Q28" s="194"/>
+      <c r="R28" s="194"/>
+      <c r="S28" s="195"/>
       <c r="T28" s="72"/>
-      <c r="U28" s="106"/>
-      <c r="V28" s="106"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="107"/>
-      <c r="Z28" s="108"/>
-      <c r="AA28" s="166">
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="104"/>
+      <c r="AA28" s="161">
         <v>2</v>
       </c>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="106"/>
-      <c r="AD28" s="107"/>
-      <c r="AE28" s="106"/>
-      <c r="AF28" s="106"/>
-      <c r="AG28" s="106"/>
-      <c r="AH28" s="106"/>
-      <c r="AI28" s="107"/>
-      <c r="AJ28" s="125"/>
-      <c r="AK28" s="126"/>
-      <c r="AL28" s="106"/>
-      <c r="AM28" s="106"/>
-      <c r="AN28" s="107"/>
-      <c r="AO28" s="211"/>
-      <c r="AP28" s="212"/>
-      <c r="AQ28" s="212"/>
-      <c r="AR28" s="213"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="102"/>
+      <c r="AF28" s="102"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="103"/>
+      <c r="AJ28" s="120"/>
+      <c r="AK28" s="121"/>
+      <c r="AL28" s="102"/>
+      <c r="AM28" s="102"/>
+      <c r="AN28" s="103"/>
+      <c r="AO28" s="193"/>
+      <c r="AP28" s="194"/>
+      <c r="AQ28" s="194"/>
+      <c r="AR28" s="195"/>
       <c r="AS28" s="35"/>
       <c r="AT28" s="38"/>
       <c r="AU28" s="38"/>
@@ -4336,22 +4468,22 @@
       <c r="BJ28" s="38"/>
       <c r="BK28" s="38"/>
       <c r="BL28" s="38"/>
-      <c r="BM28" s="35"/>
+      <c r="BM28" s="167"/>
       <c r="BP28" s="56"/>
       <c r="BX28" s="57"/>
     </row>
     <row r="29" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="182"/>
-      <c r="B29" s="230" t="s">
+      <c r="A29" s="205"/>
+      <c r="B29" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="190" t="s">
+      <c r="C29" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="178">
+      <c r="D29" s="201">
         <v>2</v>
       </c>
-      <c r="E29" s="180">
+      <c r="E29" s="203">
         <v>2</v>
       </c>
       <c r="F29" s="38"/>
@@ -4364,37 +4496,37 @@
       <c r="M29" s="38"/>
       <c r="N29" s="38"/>
       <c r="O29" s="35"/>
-      <c r="P29" s="211"/>
-      <c r="Q29" s="212"/>
-      <c r="R29" s="212"/>
-      <c r="S29" s="213"/>
+      <c r="P29" s="193"/>
+      <c r="Q29" s="194"/>
+      <c r="R29" s="194"/>
+      <c r="S29" s="195"/>
       <c r="T29" s="73"/>
-      <c r="U29" s="111"/>
-      <c r="V29" s="111"/>
-      <c r="W29" s="111"/>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="112"/>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="129"/>
-      <c r="AB29" s="116">
+      <c r="U29" s="106"/>
+      <c r="V29" s="106"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="106"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="108"/>
+      <c r="AA29" s="124"/>
+      <c r="AB29" s="111">
         <v>2</v>
       </c>
-      <c r="AC29" s="111"/>
-      <c r="AD29" s="112"/>
-      <c r="AE29" s="111"/>
-      <c r="AF29" s="111"/>
-      <c r="AG29" s="111"/>
-      <c r="AH29" s="111"/>
-      <c r="AI29" s="112"/>
-      <c r="AJ29" s="121"/>
-      <c r="AK29" s="122"/>
-      <c r="AL29" s="111"/>
-      <c r="AM29" s="111"/>
-      <c r="AN29" s="112"/>
-      <c r="AO29" s="211"/>
-      <c r="AP29" s="212"/>
-      <c r="AQ29" s="212"/>
-      <c r="AR29" s="213"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="107"/>
+      <c r="AE29" s="106"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="106"/>
+      <c r="AH29" s="106"/>
+      <c r="AI29" s="107"/>
+      <c r="AJ29" s="116"/>
+      <c r="AK29" s="117"/>
+      <c r="AL29" s="106"/>
+      <c r="AM29" s="106"/>
+      <c r="AN29" s="107"/>
+      <c r="AO29" s="193"/>
+      <c r="AP29" s="194"/>
+      <c r="AQ29" s="194"/>
+      <c r="AR29" s="195"/>
       <c r="AS29" s="40"/>
       <c r="AT29" s="39"/>
       <c r="AU29" s="39"/>
@@ -4415,24 +4547,24 @@
       <c r="BJ29" s="39"/>
       <c r="BK29" s="39"/>
       <c r="BL29" s="39"/>
-      <c r="BM29" s="40"/>
+      <c r="BM29" s="168"/>
       <c r="BP29" s="56"/>
       <c r="BQ29" s="44"/>
-      <c r="BS29" s="227" t="s">
+      <c r="BS29" s="247" t="s">
         <v>73</v>
       </c>
-      <c r="BT29" s="227"/>
-      <c r="BU29" s="227"/>
-      <c r="BV29" s="227"/>
-      <c r="BW29" s="227"/>
+      <c r="BT29" s="247"/>
+      <c r="BU29" s="247"/>
+      <c r="BV29" s="247"/>
+      <c r="BW29" s="247"/>
       <c r="BX29" s="57"/>
     </row>
     <row r="30" spans="1:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="183"/>
-      <c r="B30" s="260"/>
-      <c r="C30" s="190"/>
-      <c r="D30" s="188"/>
-      <c r="E30" s="189"/>
+      <c r="A30" s="206"/>
+      <c r="B30" s="271"/>
+      <c r="C30" s="213"/>
+      <c r="D30" s="202"/>
+      <c r="E30" s="204"/>
       <c r="F30" s="39"/>
       <c r="G30" s="39"/>
       <c r="H30" s="39"/>
@@ -4443,37 +4575,37 @@
       <c r="M30" s="39"/>
       <c r="N30" s="39"/>
       <c r="O30" s="40"/>
-      <c r="P30" s="211"/>
-      <c r="Q30" s="212"/>
-      <c r="R30" s="212"/>
-      <c r="S30" s="213"/>
+      <c r="P30" s="193"/>
+      <c r="Q30" s="194"/>
+      <c r="R30" s="194"/>
+      <c r="S30" s="195"/>
       <c r="T30" s="73"/>
-      <c r="U30" s="111"/>
-      <c r="V30" s="111"/>
-      <c r="W30" s="111"/>
-      <c r="X30" s="111"/>
-      <c r="Y30" s="112"/>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="113"/>
-      <c r="AB30" s="165">
+      <c r="U30" s="106"/>
+      <c r="V30" s="106"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="106"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="108"/>
+      <c r="AA30" s="108"/>
+      <c r="AB30" s="157">
         <v>2</v>
       </c>
-      <c r="AC30" s="111"/>
-      <c r="AD30" s="112"/>
-      <c r="AE30" s="111"/>
-      <c r="AF30" s="111"/>
-      <c r="AG30" s="111"/>
-      <c r="AH30" s="111"/>
-      <c r="AI30" s="112"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="122"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="111"/>
-      <c r="AN30" s="112"/>
-      <c r="AO30" s="211"/>
-      <c r="AP30" s="212"/>
-      <c r="AQ30" s="212"/>
-      <c r="AR30" s="213"/>
+      <c r="AC30" s="106"/>
+      <c r="AD30" s="107"/>
+      <c r="AE30" s="106"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="106"/>
+      <c r="AH30" s="106"/>
+      <c r="AI30" s="107"/>
+      <c r="AJ30" s="116"/>
+      <c r="AK30" s="117"/>
+      <c r="AL30" s="106"/>
+      <c r="AM30" s="106"/>
+      <c r="AN30" s="107"/>
+      <c r="AO30" s="193"/>
+      <c r="AP30" s="194"/>
+      <c r="AQ30" s="194"/>
+      <c r="AR30" s="195"/>
       <c r="AS30" s="8"/>
       <c r="AT30" s="6"/>
       <c r="AU30" s="6"/>
@@ -4494,7 +4626,7 @@
       <c r="BJ30" s="6"/>
       <c r="BK30" s="6"/>
       <c r="BL30" s="6"/>
-      <c r="BM30" s="8"/>
+      <c r="BM30" s="169"/>
       <c r="BP30" s="61"/>
       <c r="BQ30" s="41"/>
       <c r="BR30" s="41"/>
@@ -4506,11 +4638,11 @@
       <c r="BX30" s="62"/>
     </row>
     <row r="31" spans="1:76" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="236" t="s">
+      <c r="A31" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="237"/>
-      <c r="C31" s="238"/>
+      <c r="B31" s="254"/>
+      <c r="C31" s="255"/>
       <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="6"/>
@@ -4521,35 +4653,35 @@
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
       <c r="O31" s="8"/>
-      <c r="P31" s="211"/>
-      <c r="Q31" s="212"/>
-      <c r="R31" s="212"/>
-      <c r="S31" s="213"/>
+      <c r="P31" s="193"/>
+      <c r="Q31" s="194"/>
+      <c r="R31" s="194"/>
+      <c r="S31" s="195"/>
       <c r="T31" s="35"/>
-      <c r="U31" s="103"/>
-      <c r="V31" s="103"/>
-      <c r="W31" s="103"/>
-      <c r="X31" s="103"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="105"/>
-      <c r="AA31" s="105"/>
-      <c r="AB31" s="109"/>
-      <c r="AC31" s="130"/>
-      <c r="AD31" s="104"/>
-      <c r="AE31" s="130"/>
-      <c r="AF31" s="130"/>
-      <c r="AG31" s="103"/>
-      <c r="AH31" s="103"/>
-      <c r="AI31" s="104"/>
-      <c r="AJ31" s="123"/>
-      <c r="AK31" s="124"/>
-      <c r="AL31" s="103"/>
-      <c r="AM31" s="103"/>
-      <c r="AN31" s="104"/>
-      <c r="AO31" s="211"/>
-      <c r="AP31" s="212"/>
-      <c r="AQ31" s="212"/>
-      <c r="AR31" s="213"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="99"/>
+      <c r="X31" s="99"/>
+      <c r="Y31" s="100"/>
+      <c r="Z31" s="101"/>
+      <c r="AA31" s="101"/>
+      <c r="AB31" s="105"/>
+      <c r="AC31" s="125"/>
+      <c r="AD31" s="100"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="118"/>
+      <c r="AK31" s="119"/>
+      <c r="AL31" s="99"/>
+      <c r="AM31" s="99"/>
+      <c r="AN31" s="100"/>
+      <c r="AO31" s="193"/>
+      <c r="AP31" s="194"/>
+      <c r="AQ31" s="194"/>
+      <c r="AR31" s="195"/>
       <c r="AS31" s="8"/>
       <c r="AT31" s="6"/>
       <c r="AU31" s="6"/>
@@ -4570,22 +4702,22 @@
       <c r="BJ31" s="6"/>
       <c r="BK31" s="6"/>
       <c r="BL31" s="6"/>
-      <c r="BM31" s="8"/>
+      <c r="BM31" s="169"/>
     </row>
     <row r="32" spans="1:76" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="194" t="s">
+      <c r="A32" s="218" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="228" t="s">
+      <c r="B32" s="244" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="190" t="s">
+      <c r="C32" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="186">
+      <c r="D32" s="209">
         <v>2</v>
       </c>
-      <c r="E32" s="187">
+      <c r="E32" s="210">
         <v>2</v>
       </c>
       <c r="F32" s="38"/>
@@ -4598,37 +4730,37 @@
       <c r="M32" s="38"/>
       <c r="N32" s="38"/>
       <c r="O32" s="35"/>
-      <c r="P32" s="211"/>
-      <c r="Q32" s="212"/>
-      <c r="R32" s="212"/>
-      <c r="S32" s="212"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="194"/>
+      <c r="R32" s="194"/>
+      <c r="S32" s="194"/>
       <c r="T32" s="35"/>
-      <c r="U32" s="103"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="103"/>
-      <c r="X32" s="103"/>
-      <c r="Y32" s="104"/>
-      <c r="Z32" s="105"/>
-      <c r="AA32" s="105"/>
-      <c r="AB32" s="109"/>
-      <c r="AC32" s="102">
+      <c r="U32" s="99"/>
+      <c r="V32" s="99"/>
+      <c r="W32" s="99"/>
+      <c r="X32" s="99"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="101"/>
+      <c r="AA32" s="101"/>
+      <c r="AB32" s="105"/>
+      <c r="AC32" s="159">
         <v>2</v>
       </c>
-      <c r="AD32" s="104"/>
-      <c r="AE32" s="103"/>
-      <c r="AF32" s="103"/>
-      <c r="AG32" s="103"/>
-      <c r="AH32" s="103"/>
-      <c r="AI32" s="104"/>
-      <c r="AJ32" s="124"/>
-      <c r="AK32" s="124"/>
-      <c r="AL32" s="103"/>
-      <c r="AM32" s="103"/>
-      <c r="AN32" s="104"/>
-      <c r="AO32" s="212"/>
-      <c r="AP32" s="212"/>
-      <c r="AQ32" s="212"/>
-      <c r="AR32" s="213"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="119"/>
+      <c r="AK32" s="119"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="100"/>
+      <c r="AO32" s="194"/>
+      <c r="AP32" s="194"/>
+      <c r="AQ32" s="194"/>
+      <c r="AR32" s="195"/>
       <c r="AS32" s="35"/>
       <c r="AT32" s="38"/>
       <c r="AU32" s="38"/>
@@ -4649,14 +4781,14 @@
       <c r="BJ32" s="38"/>
       <c r="BK32" s="38"/>
       <c r="BL32" s="38"/>
-      <c r="BM32" s="35"/>
+      <c r="BM32" s="167"/>
     </row>
     <row r="33" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="194"/>
-      <c r="B33" s="229"/>
-      <c r="C33" s="192"/>
-      <c r="D33" s="179"/>
-      <c r="E33" s="181"/>
+      <c r="A33" s="218"/>
+      <c r="B33" s="245"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="211"/>
+      <c r="E33" s="212"/>
       <c r="F33" s="39"/>
       <c r="G33" s="39"/>
       <c r="H33" s="39"/>
@@ -4667,37 +4799,37 @@
       <c r="M33" s="39"/>
       <c r="N33" s="39"/>
       <c r="O33" s="40"/>
-      <c r="P33" s="211"/>
-      <c r="Q33" s="212"/>
-      <c r="R33" s="212"/>
-      <c r="S33" s="212"/>
+      <c r="P33" s="193"/>
+      <c r="Q33" s="194"/>
+      <c r="R33" s="194"/>
+      <c r="S33" s="194"/>
       <c r="T33" s="40"/>
-      <c r="U33" s="106"/>
-      <c r="V33" s="106"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="108"/>
-      <c r="AA33" s="108"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="164">
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="104"/>
+      <c r="AA33" s="104"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="160">
         <v>2</v>
       </c>
-      <c r="AD33" s="107"/>
-      <c r="AE33" s="106"/>
-      <c r="AF33" s="106"/>
-      <c r="AG33" s="106"/>
-      <c r="AH33" s="106"/>
-      <c r="AI33" s="107"/>
-      <c r="AJ33" s="126"/>
-      <c r="AK33" s="126"/>
-      <c r="AL33" s="106"/>
-      <c r="AM33" s="106"/>
-      <c r="AN33" s="107"/>
-      <c r="AO33" s="212"/>
-      <c r="AP33" s="212"/>
-      <c r="AQ33" s="212"/>
-      <c r="AR33" s="213"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="102"/>
+      <c r="AF33" s="102"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="103"/>
+      <c r="AJ33" s="121"/>
+      <c r="AK33" s="121"/>
+      <c r="AL33" s="102"/>
+      <c r="AM33" s="102"/>
+      <c r="AN33" s="103"/>
+      <c r="AO33" s="194"/>
+      <c r="AP33" s="194"/>
+      <c r="AQ33" s="194"/>
+      <c r="AR33" s="195"/>
       <c r="AS33" s="40"/>
       <c r="AT33" s="39"/>
       <c r="AU33" s="39"/>
@@ -4718,20 +4850,20 @@
       <c r="BJ33" s="39"/>
       <c r="BK33" s="39"/>
       <c r="BL33" s="39"/>
-      <c r="BM33" s="40"/>
+      <c r="BM33" s="168"/>
     </row>
     <row r="34" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="194"/>
-      <c r="B34" s="230" t="s">
+      <c r="A34" s="218"/>
+      <c r="B34" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="178">
+      <c r="D34" s="201">
         <v>2</v>
       </c>
-      <c r="E34" s="180">
+      <c r="E34" s="203">
         <v>0</v>
       </c>
       <c r="F34" s="38"/>
@@ -4744,37 +4876,37 @@
       <c r="M34" s="38"/>
       <c r="N34" s="38"/>
       <c r="O34" s="35"/>
-      <c r="P34" s="211"/>
-      <c r="Q34" s="212"/>
-      <c r="R34" s="212"/>
-      <c r="S34" s="212"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="194"/>
+      <c r="R34" s="194"/>
+      <c r="S34" s="194"/>
       <c r="T34" s="35"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="104"/>
-      <c r="Z34" s="105"/>
-      <c r="AA34" s="105"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="109"/>
-      <c r="AD34" s="104"/>
-      <c r="AE34" s="102">
+      <c r="U34" s="99"/>
+      <c r="V34" s="99"/>
+      <c r="W34" s="99"/>
+      <c r="X34" s="99"/>
+      <c r="Y34" s="100"/>
+      <c r="Z34" s="101"/>
+      <c r="AA34" s="101"/>
+      <c r="AB34" s="99"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="100"/>
+      <c r="AE34" s="159">
         <v>2</v>
       </c>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="103"/>
-      <c r="AH34" s="103"/>
-      <c r="AI34" s="104"/>
-      <c r="AJ34" s="124"/>
-      <c r="AK34" s="124"/>
-      <c r="AL34" s="103"/>
-      <c r="AM34" s="103"/>
-      <c r="AN34" s="104"/>
-      <c r="AO34" s="212"/>
-      <c r="AP34" s="212"/>
-      <c r="AQ34" s="212"/>
-      <c r="AR34" s="213"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="99"/>
+      <c r="AH34" s="99"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="119"/>
+      <c r="AK34" s="119"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="100"/>
+      <c r="AO34" s="194"/>
+      <c r="AP34" s="194"/>
+      <c r="AQ34" s="194"/>
+      <c r="AR34" s="195"/>
       <c r="AS34" s="8"/>
       <c r="AT34" s="6"/>
       <c r="AU34" s="6"/>
@@ -4795,14 +4927,14 @@
       <c r="BJ34" s="6"/>
       <c r="BK34" s="6"/>
       <c r="BL34" s="6"/>
-      <c r="BM34" s="8"/>
+      <c r="BM34" s="169"/>
     </row>
     <row r="35" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="194"/>
-      <c r="B35" s="229"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="181"/>
+      <c r="A35" s="218"/>
+      <c r="B35" s="245"/>
+      <c r="C35" s="215"/>
+      <c r="D35" s="211"/>
+      <c r="E35" s="212"/>
       <c r="F35" s="39"/>
       <c r="G35" s="39"/>
       <c r="H35" s="39"/>
@@ -4813,35 +4945,35 @@
       <c r="M35" s="39"/>
       <c r="N35" s="39"/>
       <c r="O35" s="40"/>
-      <c r="P35" s="211"/>
-      <c r="Q35" s="212"/>
-      <c r="R35" s="212"/>
-      <c r="S35" s="212"/>
+      <c r="P35" s="193"/>
+      <c r="Q35" s="194"/>
+      <c r="R35" s="194"/>
+      <c r="S35" s="194"/>
       <c r="T35" s="40"/>
-      <c r="U35" s="106"/>
-      <c r="V35" s="106"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="107"/>
-      <c r="Z35" s="108"/>
-      <c r="AA35" s="108"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="106"/>
-      <c r="AD35" s="107"/>
-      <c r="AE35" s="106"/>
-      <c r="AF35" s="106"/>
-      <c r="AG35" s="106"/>
-      <c r="AH35" s="106"/>
-      <c r="AI35" s="107"/>
-      <c r="AJ35" s="126"/>
-      <c r="AK35" s="126"/>
-      <c r="AL35" s="106"/>
-      <c r="AM35" s="106"/>
-      <c r="AN35" s="107"/>
-      <c r="AO35" s="212"/>
-      <c r="AP35" s="212"/>
-      <c r="AQ35" s="212"/>
-      <c r="AR35" s="213"/>
+      <c r="U35" s="102"/>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="104"/>
+      <c r="AA35" s="104"/>
+      <c r="AB35" s="102"/>
+      <c r="AC35" s="102"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="102"/>
+      <c r="AF35" s="102"/>
+      <c r="AG35" s="102"/>
+      <c r="AH35" s="102"/>
+      <c r="AI35" s="103"/>
+      <c r="AJ35" s="121"/>
+      <c r="AK35" s="121"/>
+      <c r="AL35" s="102"/>
+      <c r="AM35" s="102"/>
+      <c r="AN35" s="103"/>
+      <c r="AO35" s="194"/>
+      <c r="AP35" s="194"/>
+      <c r="AQ35" s="194"/>
+      <c r="AR35" s="195"/>
       <c r="AS35" s="8"/>
       <c r="AT35" s="6"/>
       <c r="AU35" s="6"/>
@@ -4862,20 +4994,20 @@
       <c r="BJ35" s="6"/>
       <c r="BK35" s="6"/>
       <c r="BL35" s="6"/>
-      <c r="BM35" s="8"/>
+      <c r="BM35" s="169"/>
     </row>
     <row r="36" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="194"/>
-      <c r="B36" s="230" t="s">
+      <c r="A36" s="218"/>
+      <c r="B36" s="246" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="190" t="s">
+      <c r="C36" s="213" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="178">
+      <c r="D36" s="201">
         <v>2</v>
       </c>
-      <c r="E36" s="180">
+      <c r="E36" s="203">
         <v>2</v>
       </c>
       <c r="F36" s="38"/>
@@ -4888,37 +5020,37 @@
       <c r="M36" s="38"/>
       <c r="N36" s="38"/>
       <c r="O36" s="35"/>
-      <c r="P36" s="211"/>
-      <c r="Q36" s="212"/>
-      <c r="R36" s="212"/>
-      <c r="S36" s="212"/>
+      <c r="P36" s="193"/>
+      <c r="Q36" s="194"/>
+      <c r="R36" s="194"/>
+      <c r="S36" s="194"/>
       <c r="T36" s="8"/>
-      <c r="U36" s="111"/>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="112"/>
-      <c r="Z36" s="113"/>
-      <c r="AA36" s="113"/>
-      <c r="AB36" s="111"/>
-      <c r="AC36" s="111"/>
-      <c r="AD36" s="112"/>
-      <c r="AE36" s="131"/>
-      <c r="AF36" s="116">
+      <c r="U36" s="106"/>
+      <c r="V36" s="106"/>
+      <c r="W36" s="106"/>
+      <c r="X36" s="106"/>
+      <c r="Y36" s="107"/>
+      <c r="Z36" s="108"/>
+      <c r="AA36" s="108"/>
+      <c r="AB36" s="106"/>
+      <c r="AC36" s="106"/>
+      <c r="AD36" s="107"/>
+      <c r="AE36" s="126"/>
+      <c r="AF36" s="111">
         <v>2</v>
       </c>
-      <c r="AG36" s="111"/>
-      <c r="AH36" s="111"/>
-      <c r="AI36" s="112"/>
-      <c r="AJ36" s="122"/>
-      <c r="AK36" s="122"/>
-      <c r="AL36" s="111"/>
-      <c r="AM36" s="111"/>
-      <c r="AN36" s="112"/>
-      <c r="AO36" s="212"/>
-      <c r="AP36" s="212"/>
-      <c r="AQ36" s="212"/>
-      <c r="AR36" s="213"/>
+      <c r="AG36" s="106"/>
+      <c r="AH36" s="106"/>
+      <c r="AI36" s="107"/>
+      <c r="AJ36" s="117"/>
+      <c r="AK36" s="117"/>
+      <c r="AL36" s="106"/>
+      <c r="AM36" s="106"/>
+      <c r="AN36" s="107"/>
+      <c r="AO36" s="194"/>
+      <c r="AP36" s="194"/>
+      <c r="AQ36" s="194"/>
+      <c r="AR36" s="195"/>
       <c r="AS36" s="35"/>
       <c r="AT36" s="38"/>
       <c r="AU36" s="38"/>
@@ -4939,14 +5071,14 @@
       <c r="BJ36" s="38"/>
       <c r="BK36" s="38"/>
       <c r="BL36" s="71"/>
-      <c r="BM36" s="35"/>
+      <c r="BM36" s="167"/>
     </row>
     <row r="37" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="194"/>
-      <c r="B37" s="260"/>
-      <c r="C37" s="190"/>
-      <c r="D37" s="188"/>
-      <c r="E37" s="189"/>
+      <c r="A37" s="218"/>
+      <c r="B37" s="271"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="202"/>
+      <c r="E37" s="204"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
@@ -4957,37 +5089,37 @@
       <c r="M37" s="39"/>
       <c r="N37" s="39"/>
       <c r="O37" s="40"/>
-      <c r="P37" s="211"/>
-      <c r="Q37" s="212"/>
-      <c r="R37" s="212"/>
-      <c r="S37" s="212"/>
+      <c r="P37" s="193"/>
+      <c r="Q37" s="194"/>
+      <c r="R37" s="194"/>
+      <c r="S37" s="194"/>
       <c r="T37" s="40"/>
-      <c r="U37" s="106"/>
-      <c r="V37" s="106"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="108"/>
-      <c r="AA37" s="108"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="106"/>
-      <c r="AD37" s="107"/>
-      <c r="AE37" s="164">
+      <c r="U37" s="102"/>
+      <c r="V37" s="102"/>
+      <c r="W37" s="102"/>
+      <c r="X37" s="102"/>
+      <c r="Y37" s="103"/>
+      <c r="Z37" s="104"/>
+      <c r="AA37" s="104"/>
+      <c r="AB37" s="102"/>
+      <c r="AC37" s="102"/>
+      <c r="AD37" s="103"/>
+      <c r="AE37" s="160">
         <v>2</v>
       </c>
-      <c r="AF37" s="106"/>
-      <c r="AG37" s="106"/>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="107"/>
-      <c r="AJ37" s="126"/>
-      <c r="AK37" s="126"/>
-      <c r="AL37" s="106"/>
-      <c r="AM37" s="106"/>
-      <c r="AN37" s="107"/>
-      <c r="AO37" s="212"/>
-      <c r="AP37" s="212"/>
-      <c r="AQ37" s="212"/>
-      <c r="AR37" s="213"/>
+      <c r="AF37" s="102"/>
+      <c r="AG37" s="102"/>
+      <c r="AH37" s="102"/>
+      <c r="AI37" s="103"/>
+      <c r="AJ37" s="121"/>
+      <c r="AK37" s="121"/>
+      <c r="AL37" s="102"/>
+      <c r="AM37" s="102"/>
+      <c r="AN37" s="103"/>
+      <c r="AO37" s="194"/>
+      <c r="AP37" s="194"/>
+      <c r="AQ37" s="194"/>
+      <c r="AR37" s="195"/>
       <c r="AS37" s="40"/>
       <c r="AT37" s="39"/>
       <c r="AU37" s="39"/>
@@ -5008,14 +5140,14 @@
       <c r="BJ37" s="39"/>
       <c r="BK37" s="39"/>
       <c r="BL37" s="72"/>
-      <c r="BM37" s="40"/>
+      <c r="BM37" s="168"/>
     </row>
     <row r="38" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="239" t="s">
+      <c r="A38" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="B38" s="240"/>
-      <c r="C38" s="241"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="258"/>
       <c r="D38" s="16"/>
       <c r="E38" s="17"/>
       <c r="F38" s="6"/>
@@ -5026,71 +5158,71 @@
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
       <c r="O38" s="8"/>
-      <c r="P38" s="211"/>
-      <c r="Q38" s="212"/>
-      <c r="R38" s="212"/>
-      <c r="S38" s="213"/>
+      <c r="P38" s="193"/>
+      <c r="Q38" s="194"/>
+      <c r="R38" s="194"/>
+      <c r="S38" s="195"/>
       <c r="T38" s="40"/>
-      <c r="U38" s="106"/>
-      <c r="V38" s="106"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="108"/>
-      <c r="AA38" s="108"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="106"/>
-      <c r="AD38" s="107"/>
-      <c r="AE38" s="106"/>
-      <c r="AF38" s="132"/>
-      <c r="AG38" s="133"/>
-      <c r="AH38" s="133"/>
-      <c r="AI38" s="107"/>
-      <c r="AJ38" s="134"/>
-      <c r="AK38" s="135"/>
-      <c r="AL38" s="133"/>
-      <c r="AM38" s="133"/>
-      <c r="AN38" s="107"/>
-      <c r="AO38" s="211"/>
-      <c r="AP38" s="212"/>
-      <c r="AQ38" s="212"/>
-      <c r="AR38" s="213"/>
+      <c r="U38" s="102"/>
+      <c r="V38" s="102"/>
+      <c r="W38" s="102"/>
+      <c r="X38" s="102"/>
+      <c r="Y38" s="103"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="102"/>
+      <c r="AC38" s="102"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="102"/>
+      <c r="AF38" s="127"/>
+      <c r="AG38" s="128"/>
+      <c r="AH38" s="128"/>
+      <c r="AI38" s="103"/>
+      <c r="AJ38" s="129"/>
+      <c r="AK38" s="130"/>
+      <c r="AL38" s="128"/>
+      <c r="AM38" s="128"/>
+      <c r="AN38" s="103"/>
+      <c r="AO38" s="193"/>
+      <c r="AP38" s="194"/>
+      <c r="AQ38" s="194"/>
+      <c r="AR38" s="195"/>
       <c r="AS38" s="8"/>
-      <c r="AT38" s="146"/>
-      <c r="AU38" s="146"/>
-      <c r="AV38" s="146"/>
-      <c r="AW38" s="146"/>
-      <c r="AX38" s="95"/>
-      <c r="AY38" s="146"/>
-      <c r="AZ38" s="146"/>
-      <c r="BA38" s="94"/>
-      <c r="BB38" s="94"/>
-      <c r="BC38" s="95"/>
-      <c r="BD38" s="94"/>
-      <c r="BE38" s="94"/>
-      <c r="BF38" s="94"/>
-      <c r="BG38" s="94"/>
-      <c r="BH38" s="95"/>
-      <c r="BI38" s="94"/>
-      <c r="BJ38" s="94"/>
-      <c r="BK38" s="94"/>
-      <c r="BL38" s="94"/>
-      <c r="BM38" s="8"/>
+      <c r="AT38" s="141"/>
+      <c r="AU38" s="141"/>
+      <c r="AV38" s="141"/>
+      <c r="AW38" s="141"/>
+      <c r="AX38" s="92"/>
+      <c r="AY38" s="141"/>
+      <c r="AZ38" s="141"/>
+      <c r="BA38" s="91"/>
+      <c r="BB38" s="91"/>
+      <c r="BC38" s="92"/>
+      <c r="BD38" s="91"/>
+      <c r="BE38" s="91"/>
+      <c r="BF38" s="91"/>
+      <c r="BG38" s="91"/>
+      <c r="BH38" s="92"/>
+      <c r="BI38" s="91"/>
+      <c r="BJ38" s="91"/>
+      <c r="BK38" s="91"/>
+      <c r="BL38" s="91"/>
+      <c r="BM38" s="169"/>
     </row>
     <row r="39" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="248" t="s">
+      <c r="A39" s="265" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="228" t="s">
+      <c r="B39" s="244" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="190" t="s">
+      <c r="C39" s="213" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="186">
+      <c r="D39" s="209">
         <v>8</v>
       </c>
-      <c r="E39" s="187">
+      <c r="E39" s="210">
         <v>8</v>
       </c>
       <c r="F39" s="38"/>
@@ -5103,67 +5235,67 @@
       <c r="M39" s="38"/>
       <c r="N39" s="38"/>
       <c r="O39" s="35"/>
-      <c r="P39" s="211"/>
-      <c r="Q39" s="212"/>
-      <c r="R39" s="212"/>
-      <c r="S39" s="213"/>
+      <c r="P39" s="193"/>
+      <c r="Q39" s="194"/>
+      <c r="R39" s="194"/>
+      <c r="S39" s="195"/>
       <c r="T39" s="71"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="103"/>
-      <c r="W39" s="103"/>
-      <c r="X39" s="103"/>
-      <c r="Y39" s="104"/>
-      <c r="Z39" s="105"/>
-      <c r="AA39" s="105"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="103"/>
-      <c r="AD39" s="104"/>
-      <c r="AE39" s="103"/>
-      <c r="AF39" s="109"/>
-      <c r="AG39" s="169">
+      <c r="U39" s="99"/>
+      <c r="V39" s="99"/>
+      <c r="W39" s="99"/>
+      <c r="X39" s="99"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="101"/>
+      <c r="AA39" s="101"/>
+      <c r="AB39" s="99"/>
+      <c r="AC39" s="99"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="99"/>
+      <c r="AF39" s="105"/>
+      <c r="AG39" s="183">
         <v>4</v>
       </c>
-      <c r="AH39" s="170"/>
-      <c r="AI39" s="104"/>
-      <c r="AJ39" s="169">
+      <c r="AH39" s="184"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="183">
         <v>4</v>
       </c>
-      <c r="AK39" s="170"/>
-      <c r="AL39" s="103"/>
-      <c r="AM39" s="103"/>
-      <c r="AN39" s="104"/>
-      <c r="AO39" s="211"/>
-      <c r="AP39" s="212"/>
-      <c r="AQ39" s="212"/>
-      <c r="AR39" s="213"/>
+      <c r="AK39" s="184"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="100"/>
+      <c r="AO39" s="193"/>
+      <c r="AP39" s="194"/>
+      <c r="AQ39" s="194"/>
+      <c r="AR39" s="195"/>
       <c r="AS39" s="35"/>
-      <c r="AT39" s="88"/>
-      <c r="AU39" s="88"/>
-      <c r="AV39" s="88"/>
-      <c r="AW39" s="88"/>
-      <c r="AX39" s="89"/>
-      <c r="AY39" s="88"/>
-      <c r="AZ39" s="88"/>
-      <c r="BA39" s="88"/>
-      <c r="BB39" s="88"/>
-      <c r="BC39" s="89"/>
-      <c r="BD39" s="88"/>
-      <c r="BE39" s="88"/>
-      <c r="BF39" s="88"/>
-      <c r="BG39" s="88"/>
-      <c r="BH39" s="89"/>
-      <c r="BI39" s="88"/>
-      <c r="BJ39" s="88"/>
-      <c r="BK39" s="88"/>
-      <c r="BL39" s="88"/>
-      <c r="BM39" s="35"/>
+      <c r="AT39" s="86"/>
+      <c r="AU39" s="86"/>
+      <c r="AV39" s="86"/>
+      <c r="AW39" s="86"/>
+      <c r="AX39" s="87"/>
+      <c r="AY39" s="86"/>
+      <c r="AZ39" s="86"/>
+      <c r="BA39" s="86"/>
+      <c r="BB39" s="86"/>
+      <c r="BC39" s="87"/>
+      <c r="BD39" s="86"/>
+      <c r="BE39" s="86"/>
+      <c r="BF39" s="86"/>
+      <c r="BG39" s="86"/>
+      <c r="BH39" s="87"/>
+      <c r="BI39" s="86"/>
+      <c r="BJ39" s="86"/>
+      <c r="BK39" s="86"/>
+      <c r="BL39" s="86"/>
+      <c r="BM39" s="167"/>
     </row>
     <row r="40" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="248"/>
-      <c r="B40" s="229"/>
-      <c r="C40" s="190"/>
-      <c r="D40" s="179"/>
-      <c r="E40" s="181"/>
+      <c r="A40" s="265"/>
+      <c r="B40" s="245"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="211"/>
+      <c r="E40" s="212"/>
       <c r="F40" s="39"/>
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
@@ -5174,73 +5306,73 @@
       <c r="M40" s="39"/>
       <c r="N40" s="39"/>
       <c r="O40" s="40"/>
-      <c r="P40" s="211"/>
-      <c r="Q40" s="212"/>
-      <c r="R40" s="212"/>
-      <c r="S40" s="213"/>
+      <c r="P40" s="193"/>
+      <c r="Q40" s="194"/>
+      <c r="R40" s="194"/>
+      <c r="S40" s="195"/>
       <c r="T40" s="72"/>
-      <c r="U40" s="106"/>
-      <c r="V40" s="106"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="107"/>
-      <c r="Z40" s="108"/>
-      <c r="AA40" s="108"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="106"/>
-      <c r="AD40" s="107"/>
-      <c r="AE40" s="106"/>
-      <c r="AF40" s="171">
+      <c r="U40" s="102"/>
+      <c r="V40" s="102"/>
+      <c r="W40" s="102"/>
+      <c r="X40" s="102"/>
+      <c r="Y40" s="103"/>
+      <c r="Z40" s="104"/>
+      <c r="AA40" s="104"/>
+      <c r="AB40" s="102"/>
+      <c r="AC40" s="102"/>
+      <c r="AD40" s="103"/>
+      <c r="AE40" s="102"/>
+      <c r="AF40" s="185">
         <v>6</v>
       </c>
-      <c r="AG40" s="171"/>
-      <c r="AH40" s="175"/>
-      <c r="AI40" s="107"/>
-      <c r="AJ40" s="164">
+      <c r="AG40" s="185"/>
+      <c r="AH40" s="189"/>
+      <c r="AI40" s="103"/>
+      <c r="AJ40" s="160">
         <v>2</v>
       </c>
-      <c r="AK40" s="265"/>
-      <c r="AL40" s="106"/>
-      <c r="AM40" s="106"/>
-      <c r="AN40" s="107"/>
-      <c r="AO40" s="211"/>
-      <c r="AP40" s="212"/>
-      <c r="AQ40" s="212"/>
-      <c r="AR40" s="213"/>
+      <c r="AK40" s="165"/>
+      <c r="AL40" s="102"/>
+      <c r="AM40" s="102"/>
+      <c r="AN40" s="103"/>
+      <c r="AO40" s="193"/>
+      <c r="AP40" s="194"/>
+      <c r="AQ40" s="194"/>
+      <c r="AR40" s="195"/>
       <c r="AS40" s="40"/>
-      <c r="AT40" s="91"/>
-      <c r="AU40" s="91"/>
-      <c r="AV40" s="91"/>
-      <c r="AW40" s="91"/>
-      <c r="AX40" s="92"/>
-      <c r="AY40" s="91"/>
-      <c r="AZ40" s="91"/>
-      <c r="BA40" s="91"/>
-      <c r="BB40" s="91"/>
-      <c r="BC40" s="92"/>
-      <c r="BD40" s="91"/>
-      <c r="BE40" s="91"/>
-      <c r="BF40" s="91"/>
-      <c r="BG40" s="91"/>
-      <c r="BH40" s="92"/>
-      <c r="BI40" s="91"/>
-      <c r="BJ40" s="91"/>
-      <c r="BK40" s="91"/>
-      <c r="BL40" s="91"/>
-      <c r="BM40" s="40"/>
+      <c r="AT40" s="89"/>
+      <c r="AU40" s="89"/>
+      <c r="AV40" s="89"/>
+      <c r="AW40" s="89"/>
+      <c r="AX40" s="90"/>
+      <c r="AY40" s="89"/>
+      <c r="AZ40" s="89"/>
+      <c r="BA40" s="89"/>
+      <c r="BB40" s="89"/>
+      <c r="BC40" s="90"/>
+      <c r="BD40" s="89"/>
+      <c r="BE40" s="89"/>
+      <c r="BF40" s="89"/>
+      <c r="BG40" s="89"/>
+      <c r="BH40" s="90"/>
+      <c r="BI40" s="89"/>
+      <c r="BJ40" s="89"/>
+      <c r="BK40" s="89"/>
+      <c r="BL40" s="89"/>
+      <c r="BM40" s="168"/>
     </row>
     <row r="41" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="248"/>
-      <c r="B41" s="230" t="s">
+      <c r="A41" s="265"/>
+      <c r="B41" s="246" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="191" t="s">
+      <c r="C41" s="214" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="176">
+      <c r="D41" s="199">
         <v>4</v>
       </c>
-      <c r="E41" s="177">
+      <c r="E41" s="200">
         <v>4</v>
       </c>
       <c r="F41" s="6"/>
@@ -5251,65 +5383,65 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="8"/>
-      <c r="P41" s="211"/>
-      <c r="Q41" s="212"/>
-      <c r="R41" s="212"/>
-      <c r="S41" s="213"/>
+      <c r="P41" s="193"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="194"/>
+      <c r="S41" s="195"/>
       <c r="T41" s="73"/>
-      <c r="U41" s="111"/>
-      <c r="V41" s="111"/>
-      <c r="W41" s="111"/>
-      <c r="X41" s="111"/>
-      <c r="Y41" s="112"/>
-      <c r="Z41" s="113"/>
-      <c r="AA41" s="113"/>
-      <c r="AB41" s="111"/>
-      <c r="AC41" s="111"/>
-      <c r="AD41" s="112"/>
-      <c r="AE41" s="111"/>
-      <c r="AF41" s="111"/>
-      <c r="AG41" s="111"/>
-      <c r="AH41" s="111"/>
-      <c r="AI41" s="112"/>
-      <c r="AJ41" s="121"/>
-      <c r="AK41" s="122"/>
-      <c r="AL41" s="169">
+      <c r="U41" s="106"/>
+      <c r="V41" s="106"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="106"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="108"/>
+      <c r="AA41" s="108"/>
+      <c r="AB41" s="106"/>
+      <c r="AC41" s="106"/>
+      <c r="AD41" s="107"/>
+      <c r="AE41" s="106"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="106"/>
+      <c r="AH41" s="106"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="116"/>
+      <c r="AK41" s="117"/>
+      <c r="AL41" s="183">
         <v>4</v>
       </c>
-      <c r="AM41" s="170"/>
-      <c r="AN41" s="112"/>
-      <c r="AO41" s="211"/>
-      <c r="AP41" s="212"/>
-      <c r="AQ41" s="212"/>
-      <c r="AR41" s="213"/>
+      <c r="AM41" s="184"/>
+      <c r="AN41" s="107"/>
+      <c r="AO41" s="193"/>
+      <c r="AP41" s="194"/>
+      <c r="AQ41" s="194"/>
+      <c r="AR41" s="195"/>
       <c r="AS41" s="8"/>
-      <c r="AT41" s="94"/>
-      <c r="AU41" s="94"/>
-      <c r="AV41" s="94"/>
-      <c r="AW41" s="94"/>
-      <c r="AX41" s="95"/>
-      <c r="AY41" s="94"/>
-      <c r="AZ41" s="94"/>
-      <c r="BA41" s="94"/>
-      <c r="BB41" s="94"/>
-      <c r="BC41" s="95"/>
-      <c r="BD41" s="94"/>
-      <c r="BE41" s="94"/>
-      <c r="BF41" s="94"/>
-      <c r="BG41" s="94"/>
-      <c r="BH41" s="95"/>
-      <c r="BI41" s="94"/>
-      <c r="BJ41" s="94"/>
-      <c r="BK41" s="94"/>
-      <c r="BL41" s="94"/>
-      <c r="BM41" s="8"/>
+      <c r="AT41" s="91"/>
+      <c r="AU41" s="91"/>
+      <c r="AV41" s="91"/>
+      <c r="AW41" s="91"/>
+      <c r="AX41" s="92"/>
+      <c r="AY41" s="91"/>
+      <c r="AZ41" s="91"/>
+      <c r="BA41" s="91"/>
+      <c r="BB41" s="91"/>
+      <c r="BC41" s="92"/>
+      <c r="BD41" s="91"/>
+      <c r="BE41" s="91"/>
+      <c r="BF41" s="91"/>
+      <c r="BG41" s="91"/>
+      <c r="BH41" s="92"/>
+      <c r="BI41" s="91"/>
+      <c r="BJ41" s="91"/>
+      <c r="BK41" s="91"/>
+      <c r="BL41" s="91"/>
+      <c r="BM41" s="169"/>
     </row>
     <row r="42" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="248"/>
-      <c r="B42" s="229"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="176"/>
-      <c r="E42" s="177"/>
+      <c r="A42" s="265"/>
+      <c r="B42" s="245"/>
+      <c r="C42" s="215"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="200"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -5318,71 +5450,71 @@
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
       <c r="O42" s="8"/>
-      <c r="P42" s="211"/>
-      <c r="Q42" s="212"/>
-      <c r="R42" s="212"/>
-      <c r="S42" s="213"/>
+      <c r="P42" s="193"/>
+      <c r="Q42" s="194"/>
+      <c r="R42" s="194"/>
+      <c r="S42" s="195"/>
       <c r="T42" s="73"/>
-      <c r="U42" s="111"/>
-      <c r="V42" s="111"/>
-      <c r="W42" s="111"/>
-      <c r="X42" s="111"/>
-      <c r="Y42" s="112"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="111"/>
-      <c r="AC42" s="111"/>
-      <c r="AD42" s="112"/>
-      <c r="AE42" s="111"/>
-      <c r="AF42" s="111"/>
-      <c r="AG42" s="111"/>
-      <c r="AH42" s="111"/>
-      <c r="AI42" s="112"/>
-      <c r="AJ42" s="121"/>
-      <c r="AK42" s="171">
+      <c r="U42" s="106"/>
+      <c r="V42" s="106"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="106"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="108"/>
+      <c r="AA42" s="108"/>
+      <c r="AB42" s="106"/>
+      <c r="AC42" s="106"/>
+      <c r="AD42" s="107"/>
+      <c r="AE42" s="106"/>
+      <c r="AF42" s="106"/>
+      <c r="AG42" s="106"/>
+      <c r="AH42" s="106"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="116"/>
+      <c r="AK42" s="185">
         <v>4</v>
       </c>
-      <c r="AL42" s="171"/>
-      <c r="AM42" s="111"/>
-      <c r="AN42" s="112"/>
-      <c r="AO42" s="211"/>
-      <c r="AP42" s="212"/>
-      <c r="AQ42" s="212"/>
-      <c r="AR42" s="213"/>
+      <c r="AL42" s="185"/>
+      <c r="AM42" s="106"/>
+      <c r="AN42" s="107"/>
+      <c r="AO42" s="193"/>
+      <c r="AP42" s="194"/>
+      <c r="AQ42" s="194"/>
+      <c r="AR42" s="195"/>
       <c r="AS42" s="8"/>
-      <c r="AT42" s="94"/>
-      <c r="AU42" s="94"/>
-      <c r="AV42" s="94"/>
-      <c r="AW42" s="94"/>
-      <c r="AX42" s="95"/>
-      <c r="AY42" s="94"/>
-      <c r="AZ42" s="94"/>
-      <c r="BA42" s="94"/>
-      <c r="BB42" s="94"/>
-      <c r="BC42" s="95"/>
-      <c r="BD42" s="94"/>
-      <c r="BE42" s="94"/>
-      <c r="BF42" s="94"/>
-      <c r="BG42" s="94"/>
-      <c r="BH42" s="95"/>
-      <c r="BI42" s="94"/>
-      <c r="BJ42" s="94"/>
-      <c r="BK42" s="94"/>
-      <c r="BL42" s="94"/>
-      <c r="BM42" s="8"/>
+      <c r="AT42" s="91"/>
+      <c r="AU42" s="91"/>
+      <c r="AV42" s="91"/>
+      <c r="AW42" s="91"/>
+      <c r="AX42" s="92"/>
+      <c r="AY42" s="91"/>
+      <c r="AZ42" s="91"/>
+      <c r="BA42" s="91"/>
+      <c r="BB42" s="91"/>
+      <c r="BC42" s="92"/>
+      <c r="BD42" s="91"/>
+      <c r="BE42" s="91"/>
+      <c r="BF42" s="91"/>
+      <c r="BG42" s="91"/>
+      <c r="BH42" s="92"/>
+      <c r="BI42" s="91"/>
+      <c r="BJ42" s="91"/>
+      <c r="BK42" s="91"/>
+      <c r="BL42" s="91"/>
+      <c r="BM42" s="169"/>
     </row>
     <row r="43" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="248"/>
-      <c r="B43" s="230" t="s">
+      <c r="A43" s="265"/>
+      <c r="B43" s="246" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="190" t="s">
+      <c r="C43" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="178">
+      <c r="D43" s="201">
         <v>4</v>
       </c>
-      <c r="E43" s="180"/>
+      <c r="E43" s="203"/>
       <c r="F43" s="38"/>
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
@@ -5393,65 +5525,65 @@
       <c r="M43" s="38"/>
       <c r="N43" s="38"/>
       <c r="O43" s="35"/>
-      <c r="P43" s="211"/>
-      <c r="Q43" s="212"/>
-      <c r="R43" s="212"/>
-      <c r="S43" s="213"/>
+      <c r="P43" s="193"/>
+      <c r="Q43" s="194"/>
+      <c r="R43" s="194"/>
+      <c r="S43" s="195"/>
       <c r="T43" s="71"/>
-      <c r="U43" s="136"/>
-      <c r="V43" s="136"/>
-      <c r="W43" s="136"/>
-      <c r="X43" s="136"/>
-      <c r="Y43" s="137"/>
-      <c r="Z43" s="138"/>
-      <c r="AA43" s="138"/>
-      <c r="AB43" s="136"/>
-      <c r="AC43" s="136"/>
-      <c r="AD43" s="137"/>
-      <c r="AE43" s="136"/>
-      <c r="AF43" s="136"/>
-      <c r="AG43" s="136"/>
-      <c r="AH43" s="136"/>
-      <c r="AI43" s="137"/>
-      <c r="AJ43" s="139"/>
-      <c r="AK43" s="84"/>
-      <c r="AL43" s="136"/>
-      <c r="AM43" s="140"/>
-      <c r="AN43" s="137"/>
-      <c r="AO43" s="211"/>
-      <c r="AP43" s="212"/>
-      <c r="AQ43" s="212"/>
-      <c r="AR43" s="213"/>
-      <c r="AS43" s="89"/>
-      <c r="AT43" s="168">
+      <c r="U43" s="131"/>
+      <c r="V43" s="131"/>
+      <c r="W43" s="131"/>
+      <c r="X43" s="131"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="133"/>
+      <c r="AA43" s="133"/>
+      <c r="AB43" s="131"/>
+      <c r="AC43" s="131"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="131"/>
+      <c r="AF43" s="131"/>
+      <c r="AG43" s="131"/>
+      <c r="AH43" s="131"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="134"/>
+      <c r="AK43" s="164"/>
+      <c r="AL43" s="131"/>
+      <c r="AM43" s="135"/>
+      <c r="AN43" s="132"/>
+      <c r="AO43" s="193"/>
+      <c r="AP43" s="194"/>
+      <c r="AQ43" s="194"/>
+      <c r="AR43" s="195"/>
+      <c r="AS43" s="87"/>
+      <c r="AT43" s="182">
         <v>4</v>
       </c>
-      <c r="AU43" s="169"/>
-      <c r="AV43" s="88"/>
-      <c r="AW43" s="88"/>
-      <c r="AX43" s="89"/>
-      <c r="AY43" s="88"/>
-      <c r="AZ43" s="88"/>
-      <c r="BA43" s="88"/>
-      <c r="BB43" s="88"/>
-      <c r="BC43" s="89"/>
-      <c r="BD43" s="88"/>
-      <c r="BE43" s="88"/>
-      <c r="BF43" s="88"/>
-      <c r="BG43" s="88"/>
-      <c r="BH43" s="89"/>
-      <c r="BI43" s="88"/>
-      <c r="BJ43" s="88"/>
-      <c r="BK43" s="88"/>
-      <c r="BL43" s="88"/>
-      <c r="BM43" s="35"/>
+      <c r="AU43" s="183"/>
+      <c r="AV43" s="86"/>
+      <c r="AW43" s="86"/>
+      <c r="AX43" s="87"/>
+      <c r="AY43" s="86"/>
+      <c r="AZ43" s="86"/>
+      <c r="BA43" s="86"/>
+      <c r="BB43" s="86"/>
+      <c r="BC43" s="87"/>
+      <c r="BD43" s="86"/>
+      <c r="BE43" s="86"/>
+      <c r="BF43" s="86"/>
+      <c r="BG43" s="86"/>
+      <c r="BH43" s="87"/>
+      <c r="BI43" s="86"/>
+      <c r="BJ43" s="86"/>
+      <c r="BK43" s="86"/>
+      <c r="BL43" s="86"/>
+      <c r="BM43" s="167"/>
     </row>
     <row r="44" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="248"/>
-      <c r="B44" s="229"/>
-      <c r="C44" s="190"/>
-      <c r="D44" s="179"/>
-      <c r="E44" s="181"/>
+      <c r="A44" s="265"/>
+      <c r="B44" s="245"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="211"/>
+      <c r="E44" s="212"/>
       <c r="F44" s="39"/>
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
@@ -5462,71 +5594,73 @@
       <c r="M44" s="39"/>
       <c r="N44" s="39"/>
       <c r="O44" s="40"/>
-      <c r="P44" s="211"/>
-      <c r="Q44" s="212"/>
-      <c r="R44" s="212"/>
-      <c r="S44" s="213"/>
+      <c r="P44" s="193"/>
+      <c r="Q44" s="194"/>
+      <c r="R44" s="194"/>
+      <c r="S44" s="195"/>
       <c r="T44" s="72"/>
-      <c r="U44" s="117"/>
-      <c r="V44" s="117"/>
-      <c r="W44" s="117"/>
-      <c r="X44" s="117"/>
-      <c r="Y44" s="118"/>
-      <c r="Z44" s="119"/>
-      <c r="AA44" s="119"/>
-      <c r="AB44" s="117"/>
-      <c r="AC44" s="117"/>
-      <c r="AD44" s="118"/>
-      <c r="AE44" s="117"/>
-      <c r="AF44" s="117"/>
-      <c r="AG44" s="117"/>
-      <c r="AH44" s="117"/>
-      <c r="AI44" s="118"/>
-      <c r="AJ44" s="120"/>
-      <c r="AK44" s="83"/>
-      <c r="AL44" s="117"/>
-      <c r="AM44" s="164">
+      <c r="U44" s="112"/>
+      <c r="V44" s="112"/>
+      <c r="W44" s="112"/>
+      <c r="X44" s="112"/>
+      <c r="Y44" s="113"/>
+      <c r="Z44" s="114"/>
+      <c r="AA44" s="114"/>
+      <c r="AB44" s="112"/>
+      <c r="AC44" s="112"/>
+      <c r="AD44" s="113"/>
+      <c r="AE44" s="112"/>
+      <c r="AF44" s="112"/>
+      <c r="AG44" s="112"/>
+      <c r="AH44" s="112"/>
+      <c r="AI44" s="113"/>
+      <c r="AJ44" s="115"/>
+      <c r="AK44" s="163"/>
+      <c r="AL44" s="112"/>
+      <c r="AM44" s="160">
         <v>2</v>
       </c>
-      <c r="AN44" s="118"/>
-      <c r="AO44" s="211"/>
-      <c r="AP44" s="212"/>
-      <c r="AQ44" s="212"/>
-      <c r="AR44" s="213"/>
-      <c r="AS44" s="92"/>
-      <c r="AT44" s="91"/>
-      <c r="AU44" s="106"/>
-      <c r="AV44" s="106"/>
-      <c r="AW44" s="106"/>
-      <c r="AX44" s="107"/>
-      <c r="AY44" s="106"/>
-      <c r="AZ44" s="106"/>
-      <c r="BA44" s="106"/>
-      <c r="BB44" s="106"/>
-      <c r="BC44" s="107"/>
-      <c r="BD44" s="106"/>
-      <c r="BE44" s="106"/>
-      <c r="BF44" s="106"/>
-      <c r="BG44" s="106"/>
-      <c r="BH44" s="107"/>
-      <c r="BI44" s="106"/>
-      <c r="BJ44" s="106"/>
-      <c r="BK44" s="106"/>
-      <c r="BL44" s="106"/>
-      <c r="BM44" s="40"/>
+      <c r="AN44" s="113"/>
+      <c r="AO44" s="193"/>
+      <c r="AP44" s="194"/>
+      <c r="AQ44" s="194"/>
+      <c r="AR44" s="195"/>
+      <c r="AS44" s="90"/>
+      <c r="AT44" s="160">
+        <v>2</v>
+      </c>
+      <c r="AU44" s="102"/>
+      <c r="AV44" s="102"/>
+      <c r="AW44" s="102"/>
+      <c r="AX44" s="103"/>
+      <c r="AY44" s="102"/>
+      <c r="AZ44" s="102"/>
+      <c r="BA44" s="102"/>
+      <c r="BB44" s="102"/>
+      <c r="BC44" s="103"/>
+      <c r="BD44" s="102"/>
+      <c r="BE44" s="102"/>
+      <c r="BF44" s="102"/>
+      <c r="BG44" s="102"/>
+      <c r="BH44" s="103"/>
+      <c r="BI44" s="102"/>
+      <c r="BJ44" s="102"/>
+      <c r="BK44" s="102"/>
+      <c r="BL44" s="102"/>
+      <c r="BM44" s="168"/>
     </row>
     <row r="45" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="248"/>
-      <c r="B45" s="230" t="s">
+      <c r="A45" s="265"/>
+      <c r="B45" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="191" t="s">
+      <c r="C45" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="176">
+      <c r="D45" s="199">
         <v>2</v>
       </c>
-      <c r="E45" s="177"/>
+      <c r="E45" s="200"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -5535,65 +5669,65 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="8"/>
-      <c r="P45" s="211"/>
-      <c r="Q45" s="212"/>
-      <c r="R45" s="212"/>
-      <c r="S45" s="213"/>
+      <c r="P45" s="193"/>
+      <c r="Q45" s="194"/>
+      <c r="R45" s="194"/>
+      <c r="S45" s="195"/>
       <c r="T45" s="73"/>
-      <c r="U45" s="141"/>
-      <c r="V45" s="141"/>
-      <c r="W45" s="141"/>
-      <c r="X45" s="141"/>
-      <c r="Y45" s="142"/>
-      <c r="Z45" s="143"/>
-      <c r="AA45" s="143"/>
-      <c r="AB45" s="141"/>
-      <c r="AC45" s="141"/>
-      <c r="AD45" s="142"/>
-      <c r="AE45" s="141"/>
-      <c r="AF45" s="141"/>
-      <c r="AG45" s="141"/>
-      <c r="AH45" s="141"/>
-      <c r="AI45" s="142"/>
-      <c r="AJ45" s="144"/>
-      <c r="AK45" s="145"/>
-      <c r="AL45" s="141"/>
-      <c r="AM45" s="141"/>
-      <c r="AN45" s="142"/>
-      <c r="AO45" s="211"/>
-      <c r="AP45" s="212"/>
-      <c r="AQ45" s="212"/>
-      <c r="AR45" s="213"/>
-      <c r="AS45" s="95"/>
-      <c r="AT45" s="94"/>
-      <c r="AU45" s="131"/>
-      <c r="AV45" s="116">
+      <c r="U45" s="136"/>
+      <c r="V45" s="136"/>
+      <c r="W45" s="136"/>
+      <c r="X45" s="136"/>
+      <c r="Y45" s="137"/>
+      <c r="Z45" s="138"/>
+      <c r="AA45" s="138"/>
+      <c r="AB45" s="136"/>
+      <c r="AC45" s="136"/>
+      <c r="AD45" s="137"/>
+      <c r="AE45" s="136"/>
+      <c r="AF45" s="136"/>
+      <c r="AG45" s="136"/>
+      <c r="AH45" s="136"/>
+      <c r="AI45" s="137"/>
+      <c r="AJ45" s="139"/>
+      <c r="AK45" s="140"/>
+      <c r="AL45" s="136"/>
+      <c r="AM45" s="136"/>
+      <c r="AN45" s="137"/>
+      <c r="AO45" s="193"/>
+      <c r="AP45" s="194"/>
+      <c r="AQ45" s="194"/>
+      <c r="AR45" s="195"/>
+      <c r="AS45" s="92"/>
+      <c r="AT45" s="91"/>
+      <c r="AU45" s="126"/>
+      <c r="AV45" s="111">
         <v>2</v>
       </c>
-      <c r="AW45" s="111"/>
-      <c r="AX45" s="112"/>
-      <c r="AY45" s="111"/>
-      <c r="AZ45" s="111"/>
-      <c r="BA45" s="111"/>
-      <c r="BB45" s="111"/>
-      <c r="BC45" s="112"/>
-      <c r="BD45" s="111"/>
-      <c r="BE45" s="111"/>
-      <c r="BF45" s="111"/>
-      <c r="BG45" s="111"/>
-      <c r="BH45" s="112"/>
-      <c r="BI45" s="111"/>
-      <c r="BJ45" s="111"/>
-      <c r="BK45" s="111"/>
-      <c r="BL45" s="111"/>
-      <c r="BM45" s="8"/>
+      <c r="AW45" s="106"/>
+      <c r="AX45" s="107"/>
+      <c r="AY45" s="106"/>
+      <c r="AZ45" s="106"/>
+      <c r="BA45" s="106"/>
+      <c r="BB45" s="106"/>
+      <c r="BC45" s="107"/>
+      <c r="BD45" s="106"/>
+      <c r="BE45" s="106"/>
+      <c r="BF45" s="106"/>
+      <c r="BG45" s="106"/>
+      <c r="BH45" s="107"/>
+      <c r="BI45" s="106"/>
+      <c r="BJ45" s="106"/>
+      <c r="BK45" s="106"/>
+      <c r="BL45" s="106"/>
+      <c r="BM45" s="169"/>
     </row>
     <row r="46" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="248"/>
-      <c r="B46" s="229"/>
-      <c r="C46" s="192"/>
-      <c r="D46" s="176"/>
-      <c r="E46" s="177"/>
+      <c r="A46" s="265"/>
+      <c r="B46" s="245"/>
+      <c r="C46" s="215"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="200"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -5602,69 +5736,71 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="8"/>
-      <c r="P46" s="211"/>
-      <c r="Q46" s="212"/>
-      <c r="R46" s="212"/>
-      <c r="S46" s="213"/>
+      <c r="P46" s="193"/>
+      <c r="Q46" s="194"/>
+      <c r="R46" s="194"/>
+      <c r="S46" s="195"/>
       <c r="T46" s="73"/>
-      <c r="U46" s="141"/>
-      <c r="V46" s="141"/>
-      <c r="W46" s="141"/>
-      <c r="X46" s="141"/>
-      <c r="Y46" s="142"/>
-      <c r="Z46" s="143"/>
-      <c r="AA46" s="143"/>
-      <c r="AB46" s="141"/>
-      <c r="AC46" s="141"/>
-      <c r="AD46" s="142"/>
-      <c r="AE46" s="141"/>
-      <c r="AF46" s="141"/>
-      <c r="AG46" s="141"/>
-      <c r="AH46" s="141"/>
-      <c r="AI46" s="142"/>
-      <c r="AJ46" s="144"/>
-      <c r="AK46" s="145"/>
-      <c r="AL46" s="141"/>
-      <c r="AM46" s="141"/>
-      <c r="AN46" s="142"/>
-      <c r="AO46" s="211"/>
-      <c r="AP46" s="212"/>
-      <c r="AQ46" s="212"/>
-      <c r="AR46" s="213"/>
-      <c r="AS46" s="95"/>
-      <c r="AT46" s="94"/>
-      <c r="AU46" s="111"/>
-      <c r="AV46" s="111"/>
-      <c r="AW46" s="111"/>
-      <c r="AX46" s="112"/>
-      <c r="AY46" s="111"/>
-      <c r="AZ46" s="111"/>
-      <c r="BA46" s="111"/>
-      <c r="BB46" s="111"/>
-      <c r="BC46" s="112"/>
-      <c r="BD46" s="111"/>
-      <c r="BE46" s="111"/>
-      <c r="BF46" s="111"/>
-      <c r="BG46" s="111"/>
-      <c r="BH46" s="112"/>
-      <c r="BI46" s="111"/>
-      <c r="BJ46" s="111"/>
-      <c r="BK46" s="111"/>
-      <c r="BL46" s="111"/>
-      <c r="BM46" s="8"/>
+      <c r="U46" s="136"/>
+      <c r="V46" s="136"/>
+      <c r="W46" s="136"/>
+      <c r="X46" s="136"/>
+      <c r="Y46" s="137"/>
+      <c r="Z46" s="138"/>
+      <c r="AA46" s="138"/>
+      <c r="AB46" s="136"/>
+      <c r="AC46" s="136"/>
+      <c r="AD46" s="137"/>
+      <c r="AE46" s="136"/>
+      <c r="AF46" s="136"/>
+      <c r="AG46" s="136"/>
+      <c r="AH46" s="136"/>
+      <c r="AI46" s="137"/>
+      <c r="AJ46" s="139"/>
+      <c r="AK46" s="140"/>
+      <c r="AL46" s="136"/>
+      <c r="AM46" s="136"/>
+      <c r="AN46" s="137"/>
+      <c r="AO46" s="193"/>
+      <c r="AP46" s="194"/>
+      <c r="AQ46" s="194"/>
+      <c r="AR46" s="195"/>
+      <c r="AS46" s="92"/>
+      <c r="AT46" s="91"/>
+      <c r="AU46" s="160">
+        <v>2</v>
+      </c>
+      <c r="AV46" s="106"/>
+      <c r="AW46" s="106"/>
+      <c r="AX46" s="107"/>
+      <c r="AY46" s="106"/>
+      <c r="AZ46" s="106"/>
+      <c r="BA46" s="106"/>
+      <c r="BB46" s="106"/>
+      <c r="BC46" s="107"/>
+      <c r="BD46" s="106"/>
+      <c r="BE46" s="106"/>
+      <c r="BF46" s="106"/>
+      <c r="BG46" s="106"/>
+      <c r="BH46" s="107"/>
+      <c r="BI46" s="106"/>
+      <c r="BJ46" s="106"/>
+      <c r="BK46" s="106"/>
+      <c r="BL46" s="106"/>
+      <c r="BM46" s="169"/>
     </row>
     <row r="47" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="248"/>
-      <c r="B47" s="230" t="s">
+      <c r="A47" s="265"/>
+      <c r="B47" s="246" t="s">
         <v>94</v>
       </c>
-      <c r="C47" s="190" t="s">
+      <c r="C47" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="D47" s="178">
+      <c r="D47" s="201">
         <v>3</v>
       </c>
-      <c r="E47" s="180"/>
+      <c r="E47" s="203"/>
       <c r="F47" s="38"/>
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
@@ -5675,10 +5811,10 @@
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
       <c r="O47" s="35"/>
-      <c r="P47" s="211"/>
-      <c r="Q47" s="212"/>
-      <c r="R47" s="212"/>
-      <c r="S47" s="213"/>
+      <c r="P47" s="193"/>
+      <c r="Q47" s="194"/>
+      <c r="R47" s="194"/>
+      <c r="S47" s="195"/>
       <c r="T47" s="71"/>
       <c r="U47" s="38"/>
       <c r="V47" s="38"/>
@@ -5700,42 +5836,42 @@
       <c r="AL47" s="38"/>
       <c r="AM47" s="38"/>
       <c r="AN47" s="35"/>
-      <c r="AO47" s="211"/>
-      <c r="AP47" s="212"/>
-      <c r="AQ47" s="212"/>
-      <c r="AR47" s="213"/>
-      <c r="AS47" s="89"/>
-      <c r="AT47" s="88"/>
-      <c r="AU47" s="103"/>
-      <c r="AV47" s="109"/>
-      <c r="AW47" s="102">
+      <c r="AO47" s="193"/>
+      <c r="AP47" s="194"/>
+      <c r="AQ47" s="194"/>
+      <c r="AR47" s="195"/>
+      <c r="AS47" s="87"/>
+      <c r="AT47" s="86"/>
+      <c r="AU47" s="99"/>
+      <c r="AV47" s="105"/>
+      <c r="AW47" s="159">
         <v>1</v>
       </c>
-      <c r="AX47" s="104"/>
-      <c r="AY47" s="102">
+      <c r="AX47" s="100"/>
+      <c r="AY47" s="159">
         <v>2</v>
       </c>
-      <c r="AZ47" s="103"/>
-      <c r="BA47" s="103"/>
-      <c r="BB47" s="103"/>
-      <c r="BC47" s="104"/>
-      <c r="BD47" s="103"/>
-      <c r="BE47" s="103"/>
-      <c r="BF47" s="103"/>
-      <c r="BG47" s="103"/>
-      <c r="BH47" s="104"/>
-      <c r="BI47" s="103"/>
-      <c r="BJ47" s="103"/>
-      <c r="BK47" s="103"/>
-      <c r="BL47" s="103"/>
-      <c r="BM47" s="35"/>
+      <c r="AZ47" s="99"/>
+      <c r="BA47" s="99"/>
+      <c r="BB47" s="99"/>
+      <c r="BC47" s="100"/>
+      <c r="BD47" s="99"/>
+      <c r="BE47" s="99"/>
+      <c r="BF47" s="99"/>
+      <c r="BG47" s="99"/>
+      <c r="BH47" s="100"/>
+      <c r="BI47" s="99"/>
+      <c r="BJ47" s="99"/>
+      <c r="BK47" s="99"/>
+      <c r="BL47" s="99"/>
+      <c r="BM47" s="167"/>
     </row>
     <row r="48" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="248"/>
-      <c r="B48" s="229"/>
-      <c r="C48" s="190"/>
-      <c r="D48" s="179"/>
-      <c r="E48" s="181"/>
+      <c r="A48" s="265"/>
+      <c r="B48" s="245"/>
+      <c r="C48" s="213"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="212"/>
       <c r="F48" s="39"/>
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
@@ -5746,10 +5882,10 @@
       <c r="M48" s="39"/>
       <c r="N48" s="39"/>
       <c r="O48" s="40"/>
-      <c r="P48" s="211"/>
-      <c r="Q48" s="212"/>
-      <c r="R48" s="212"/>
-      <c r="S48" s="213"/>
+      <c r="P48" s="193"/>
+      <c r="Q48" s="194"/>
+      <c r="R48" s="194"/>
+      <c r="S48" s="195"/>
       <c r="T48" s="72"/>
       <c r="U48" s="39"/>
       <c r="V48" s="39"/>
@@ -5771,44 +5907,48 @@
       <c r="AL48" s="39"/>
       <c r="AM48" s="39"/>
       <c r="AN48" s="40"/>
-      <c r="AO48" s="211"/>
-      <c r="AP48" s="212"/>
-      <c r="AQ48" s="212"/>
-      <c r="AR48" s="213"/>
-      <c r="AS48" s="92"/>
-      <c r="AT48" s="91"/>
-      <c r="AU48" s="106"/>
-      <c r="AV48" s="106"/>
-      <c r="AW48" s="106"/>
-      <c r="AX48" s="107"/>
-      <c r="AY48" s="106"/>
-      <c r="AZ48" s="106"/>
-      <c r="BA48" s="106"/>
-      <c r="BB48" s="106"/>
-      <c r="BC48" s="107"/>
-      <c r="BD48" s="106"/>
-      <c r="BE48" s="106"/>
-      <c r="BF48" s="106"/>
-      <c r="BG48" s="106"/>
-      <c r="BH48" s="107"/>
-      <c r="BI48" s="106"/>
-      <c r="BJ48" s="106"/>
-      <c r="BK48" s="106"/>
-      <c r="BL48" s="106"/>
-      <c r="BM48" s="40"/>
+      <c r="AO48" s="193"/>
+      <c r="AP48" s="194"/>
+      <c r="AQ48" s="194"/>
+      <c r="AR48" s="195"/>
+      <c r="AS48" s="90"/>
+      <c r="AT48" s="89"/>
+      <c r="AU48" s="102"/>
+      <c r="AV48" s="160">
+        <v>2</v>
+      </c>
+      <c r="AW48" s="102"/>
+      <c r="AX48" s="103"/>
+      <c r="AY48" s="166">
+        <v>1</v>
+      </c>
+      <c r="AZ48" s="102"/>
+      <c r="BA48" s="102"/>
+      <c r="BB48" s="102"/>
+      <c r="BC48" s="103"/>
+      <c r="BD48" s="102"/>
+      <c r="BE48" s="102"/>
+      <c r="BF48" s="102"/>
+      <c r="BG48" s="102"/>
+      <c r="BH48" s="103"/>
+      <c r="BI48" s="102"/>
+      <c r="BJ48" s="102"/>
+      <c r="BK48" s="102"/>
+      <c r="BL48" s="102"/>
+      <c r="BM48" s="168"/>
     </row>
     <row r="49" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="248"/>
-      <c r="B49" s="230" t="s">
+      <c r="A49" s="265"/>
+      <c r="B49" s="246" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="191" t="s">
+      <c r="C49" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="D49" s="178">
+      <c r="D49" s="201">
         <v>2</v>
       </c>
-      <c r="E49" s="180"/>
+      <c r="E49" s="203"/>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
@@ -5819,10 +5959,10 @@
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
       <c r="O49" s="35"/>
-      <c r="P49" s="211"/>
-      <c r="Q49" s="212"/>
-      <c r="R49" s="212"/>
-      <c r="S49" s="213"/>
+      <c r="P49" s="193"/>
+      <c r="Q49" s="194"/>
+      <c r="R49" s="194"/>
+      <c r="S49" s="195"/>
       <c r="T49" s="73"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
@@ -5842,40 +5982,40 @@
       <c r="AL49" s="6"/>
       <c r="AM49" s="6"/>
       <c r="AN49" s="8"/>
-      <c r="AO49" s="211"/>
-      <c r="AP49" s="212"/>
-      <c r="AQ49" s="212"/>
-      <c r="AR49" s="213"/>
-      <c r="AS49" s="95"/>
-      <c r="AT49" s="94"/>
-      <c r="AU49" s="111"/>
-      <c r="AV49" s="131"/>
-      <c r="AW49" s="131"/>
-      <c r="AX49" s="112"/>
-      <c r="AY49" s="131"/>
-      <c r="AZ49" s="116">
+      <c r="AO49" s="193"/>
+      <c r="AP49" s="194"/>
+      <c r="AQ49" s="194"/>
+      <c r="AR49" s="195"/>
+      <c r="AS49" s="92"/>
+      <c r="AT49" s="91"/>
+      <c r="AU49" s="106"/>
+      <c r="AV49" s="126"/>
+      <c r="AW49" s="126"/>
+      <c r="AX49" s="107"/>
+      <c r="AY49" s="126"/>
+      <c r="AZ49" s="111">
         <v>2</v>
       </c>
-      <c r="BA49" s="111"/>
-      <c r="BB49" s="111"/>
-      <c r="BC49" s="112"/>
-      <c r="BD49" s="111"/>
-      <c r="BE49" s="111"/>
-      <c r="BF49" s="111"/>
-      <c r="BG49" s="111"/>
-      <c r="BH49" s="112"/>
-      <c r="BI49" s="111"/>
-      <c r="BJ49" s="111"/>
-      <c r="BK49" s="111"/>
-      <c r="BL49" s="111"/>
-      <c r="BM49" s="8"/>
+      <c r="BA49" s="106"/>
+      <c r="BB49" s="106"/>
+      <c r="BC49" s="107"/>
+      <c r="BD49" s="106"/>
+      <c r="BE49" s="106"/>
+      <c r="BF49" s="106"/>
+      <c r="BG49" s="106"/>
+      <c r="BH49" s="107"/>
+      <c r="BI49" s="106"/>
+      <c r="BJ49" s="106"/>
+      <c r="BK49" s="106"/>
+      <c r="BL49" s="106"/>
+      <c r="BM49" s="169"/>
     </row>
     <row r="50" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="249"/>
-      <c r="B50" s="260"/>
-      <c r="C50" s="190"/>
-      <c r="D50" s="188"/>
-      <c r="E50" s="189"/>
+      <c r="A50" s="266"/>
+      <c r="B50" s="271"/>
+      <c r="C50" s="213"/>
+      <c r="D50" s="202"/>
+      <c r="E50" s="204"/>
       <c r="F50" s="39"/>
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
@@ -5886,10 +6026,10 @@
       <c r="M50" s="39"/>
       <c r="N50" s="39"/>
       <c r="O50" s="40"/>
-      <c r="P50" s="211"/>
-      <c r="Q50" s="212"/>
-      <c r="R50" s="212"/>
-      <c r="S50" s="213"/>
+      <c r="P50" s="193"/>
+      <c r="Q50" s="194"/>
+      <c r="R50" s="194"/>
+      <c r="S50" s="195"/>
       <c r="T50" s="8"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
@@ -5909,38 +6049,40 @@
       <c r="AL50" s="6"/>
       <c r="AM50" s="6"/>
       <c r="AN50" s="8"/>
-      <c r="AO50" s="211"/>
-      <c r="AP50" s="212"/>
-      <c r="AQ50" s="212"/>
-      <c r="AR50" s="213"/>
-      <c r="AS50" s="95"/>
-      <c r="AT50" s="94"/>
-      <c r="AU50" s="111"/>
-      <c r="AV50" s="111"/>
-      <c r="AW50" s="111"/>
-      <c r="AX50" s="112"/>
-      <c r="AY50" s="111"/>
-      <c r="AZ50" s="111"/>
-      <c r="BA50" s="111"/>
-      <c r="BB50" s="111"/>
-      <c r="BC50" s="112"/>
-      <c r="BD50" s="111"/>
-      <c r="BE50" s="111"/>
-      <c r="BF50" s="111"/>
-      <c r="BG50" s="111"/>
-      <c r="BH50" s="112"/>
-      <c r="BI50" s="111"/>
-      <c r="BJ50" s="111"/>
-      <c r="BK50" s="111"/>
-      <c r="BL50" s="111"/>
-      <c r="BM50" s="8"/>
+      <c r="AO50" s="193"/>
+      <c r="AP50" s="194"/>
+      <c r="AQ50" s="194"/>
+      <c r="AR50" s="195"/>
+      <c r="AS50" s="92"/>
+      <c r="AT50" s="91"/>
+      <c r="AU50" s="106"/>
+      <c r="AV50" s="106"/>
+      <c r="AW50" s="106"/>
+      <c r="AX50" s="107"/>
+      <c r="AY50" s="284">
+        <v>2</v>
+      </c>
+      <c r="AZ50" s="185"/>
+      <c r="BA50" s="106"/>
+      <c r="BB50" s="106"/>
+      <c r="BC50" s="107"/>
+      <c r="BD50" s="106"/>
+      <c r="BE50" s="106"/>
+      <c r="BF50" s="106"/>
+      <c r="BG50" s="106"/>
+      <c r="BH50" s="107"/>
+      <c r="BI50" s="106"/>
+      <c r="BJ50" s="106"/>
+      <c r="BK50" s="106"/>
+      <c r="BL50" s="106"/>
+      <c r="BM50" s="169"/>
     </row>
     <row r="51" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="242" t="s">
+      <c r="A51" s="259" t="s">
         <v>25</v>
       </c>
-      <c r="B51" s="243"/>
-      <c r="C51" s="244"/>
+      <c r="B51" s="260"/>
+      <c r="C51" s="261"/>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
       <c r="F51" s="6"/>
@@ -5951,10 +6093,10 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
       <c r="O51" s="8"/>
-      <c r="P51" s="211"/>
-      <c r="Q51" s="212"/>
-      <c r="R51" s="212"/>
-      <c r="S51" s="213"/>
+      <c r="P51" s="193"/>
+      <c r="Q51" s="194"/>
+      <c r="R51" s="194"/>
+      <c r="S51" s="195"/>
       <c r="T51" s="70"/>
       <c r="U51" s="74"/>
       <c r="V51" s="74"/>
@@ -5976,46 +6118,46 @@
       <c r="AL51" s="74"/>
       <c r="AM51" s="74"/>
       <c r="AN51" s="70"/>
-      <c r="AO51" s="211"/>
-      <c r="AP51" s="212"/>
-      <c r="AQ51" s="212"/>
-      <c r="AR51" s="213"/>
-      <c r="AS51" s="89"/>
-      <c r="AT51" s="88"/>
-      <c r="AU51" s="103"/>
-      <c r="AV51" s="103"/>
-      <c r="AW51" s="103"/>
-      <c r="AX51" s="104"/>
-      <c r="AY51" s="109"/>
-      <c r="AZ51" s="109"/>
-      <c r="BA51" s="147"/>
-      <c r="BB51" s="147"/>
-      <c r="BC51" s="104"/>
-      <c r="BD51" s="147"/>
-      <c r="BE51" s="147"/>
-      <c r="BF51" s="147"/>
-      <c r="BG51" s="147"/>
-      <c r="BH51" s="104"/>
-      <c r="BI51" s="147"/>
-      <c r="BJ51" s="103"/>
-      <c r="BK51" s="103"/>
-      <c r="BL51" s="103"/>
-      <c r="BM51" s="70"/>
+      <c r="AO51" s="193"/>
+      <c r="AP51" s="194"/>
+      <c r="AQ51" s="194"/>
+      <c r="AR51" s="195"/>
+      <c r="AS51" s="87"/>
+      <c r="AT51" s="86"/>
+      <c r="AU51" s="99"/>
+      <c r="AV51" s="99"/>
+      <c r="AW51" s="99"/>
+      <c r="AX51" s="100"/>
+      <c r="AY51" s="105"/>
+      <c r="AZ51" s="105"/>
+      <c r="BA51" s="142"/>
+      <c r="BB51" s="142"/>
+      <c r="BC51" s="100"/>
+      <c r="BD51" s="142"/>
+      <c r="BE51" s="142"/>
+      <c r="BF51" s="142"/>
+      <c r="BG51" s="142"/>
+      <c r="BH51" s="100"/>
+      <c r="BI51" s="142"/>
+      <c r="BJ51" s="99"/>
+      <c r="BK51" s="99"/>
+      <c r="BL51" s="99"/>
+      <c r="BM51" s="170"/>
     </row>
     <row r="52" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="195" t="s">
+      <c r="A52" s="219" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="228" t="s">
+      <c r="B52" s="244" t="s">
         <v>96</v>
       </c>
-      <c r="C52" s="196" t="s">
+      <c r="C52" s="220" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="186">
+      <c r="D52" s="209">
         <v>2</v>
       </c>
-      <c r="E52" s="187"/>
+      <c r="E52" s="210"/>
       <c r="F52" s="38"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
@@ -6026,10 +6168,10 @@
       <c r="M52" s="38"/>
       <c r="N52" s="38"/>
       <c r="O52" s="35"/>
-      <c r="P52" s="211"/>
-      <c r="Q52" s="212"/>
-      <c r="R52" s="212"/>
-      <c r="S52" s="213"/>
+      <c r="P52" s="193"/>
+      <c r="Q52" s="194"/>
+      <c r="R52" s="194"/>
+      <c r="S52" s="195"/>
       <c r="T52" s="73"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
@@ -6049,40 +6191,40 @@
       <c r="AL52" s="6"/>
       <c r="AM52" s="6"/>
       <c r="AN52" s="8"/>
-      <c r="AO52" s="211"/>
-      <c r="AP52" s="212"/>
-      <c r="AQ52" s="212"/>
-      <c r="AR52" s="212"/>
-      <c r="AS52" s="89"/>
-      <c r="AT52" s="88"/>
-      <c r="AU52" s="103"/>
-      <c r="AV52" s="103"/>
-      <c r="AW52" s="103"/>
-      <c r="AX52" s="104"/>
-      <c r="AY52" s="109"/>
-      <c r="AZ52" s="109"/>
-      <c r="BA52" s="102">
+      <c r="AO52" s="193"/>
+      <c r="AP52" s="194"/>
+      <c r="AQ52" s="194"/>
+      <c r="AR52" s="194"/>
+      <c r="AS52" s="87"/>
+      <c r="AT52" s="86"/>
+      <c r="AU52" s="99"/>
+      <c r="AV52" s="99"/>
+      <c r="AW52" s="99"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="105"/>
+      <c r="AZ52" s="105"/>
+      <c r="BA52" s="159">
         <v>2</v>
       </c>
-      <c r="BB52" s="103"/>
-      <c r="BC52" s="104"/>
-      <c r="BD52" s="103"/>
-      <c r="BE52" s="103"/>
-      <c r="BF52" s="103"/>
-      <c r="BG52" s="103"/>
-      <c r="BH52" s="104"/>
-      <c r="BI52" s="103"/>
-      <c r="BJ52" s="103"/>
-      <c r="BK52" s="103"/>
-      <c r="BL52" s="148"/>
-      <c r="BM52" s="8"/>
+      <c r="BB52" s="99"/>
+      <c r="BC52" s="100"/>
+      <c r="BD52" s="99"/>
+      <c r="BE52" s="99"/>
+      <c r="BF52" s="99"/>
+      <c r="BG52" s="99"/>
+      <c r="BH52" s="100"/>
+      <c r="BI52" s="99"/>
+      <c r="BJ52" s="99"/>
+      <c r="BK52" s="99"/>
+      <c r="BL52" s="143"/>
+      <c r="BM52" s="169"/>
     </row>
     <row r="53" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="195"/>
-      <c r="B53" s="229"/>
-      <c r="C53" s="196"/>
-      <c r="D53" s="179"/>
-      <c r="E53" s="181"/>
+      <c r="A53" s="219"/>
+      <c r="B53" s="245"/>
+      <c r="C53" s="220"/>
+      <c r="D53" s="211"/>
+      <c r="E53" s="212"/>
       <c r="F53" s="39"/>
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
@@ -6093,10 +6235,10 @@
       <c r="M53" s="39"/>
       <c r="N53" s="39"/>
       <c r="O53" s="40"/>
-      <c r="P53" s="211"/>
-      <c r="Q53" s="212"/>
-      <c r="R53" s="212"/>
-      <c r="S53" s="213"/>
+      <c r="P53" s="193"/>
+      <c r="Q53" s="194"/>
+      <c r="R53" s="194"/>
+      <c r="S53" s="195"/>
       <c r="T53" s="73"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
@@ -6116,44 +6258,46 @@
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
       <c r="AN53" s="8"/>
-      <c r="AO53" s="211"/>
-      <c r="AP53" s="212"/>
-      <c r="AQ53" s="212"/>
-      <c r="AR53" s="213"/>
-      <c r="AS53" s="92"/>
-      <c r="AT53" s="91"/>
-      <c r="AU53" s="106"/>
-      <c r="AV53" s="106"/>
-      <c r="AW53" s="106"/>
-      <c r="AX53" s="107"/>
-      <c r="AY53" s="106"/>
-      <c r="AZ53" s="106"/>
-      <c r="BA53" s="106"/>
-      <c r="BB53" s="106"/>
-      <c r="BC53" s="107"/>
-      <c r="BD53" s="106"/>
-      <c r="BE53" s="106"/>
-      <c r="BF53" s="106"/>
-      <c r="BG53" s="106"/>
-      <c r="BH53" s="107"/>
-      <c r="BI53" s="106"/>
-      <c r="BJ53" s="106"/>
-      <c r="BK53" s="106"/>
-      <c r="BL53" s="149"/>
-      <c r="BM53" s="40"/>
+      <c r="AO53" s="193"/>
+      <c r="AP53" s="194"/>
+      <c r="AQ53" s="194"/>
+      <c r="AR53" s="195"/>
+      <c r="AS53" s="90"/>
+      <c r="AT53" s="89"/>
+      <c r="AU53" s="102"/>
+      <c r="AV53" s="102"/>
+      <c r="AW53" s="102"/>
+      <c r="AX53" s="103"/>
+      <c r="AY53" s="102"/>
+      <c r="AZ53" s="185">
+        <v>2</v>
+      </c>
+      <c r="BA53" s="185"/>
+      <c r="BB53" s="102"/>
+      <c r="BC53" s="103"/>
+      <c r="BD53" s="102"/>
+      <c r="BE53" s="102"/>
+      <c r="BF53" s="102"/>
+      <c r="BG53" s="102"/>
+      <c r="BH53" s="103"/>
+      <c r="BI53" s="102"/>
+      <c r="BJ53" s="102"/>
+      <c r="BK53" s="102"/>
+      <c r="BL53" s="144"/>
+      <c r="BM53" s="168"/>
     </row>
     <row r="54" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="195"/>
-      <c r="B54" s="230" t="s">
+      <c r="A54" s="219"/>
+      <c r="B54" s="246" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="214" t="s">
         <v>67</v>
       </c>
-      <c r="D54" s="176">
+      <c r="D54" s="199">
         <v>6</v>
       </c>
-      <c r="E54" s="177"/>
+      <c r="E54" s="200"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -6162,10 +6306,10 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
       <c r="O54" s="8"/>
-      <c r="P54" s="211"/>
-      <c r="Q54" s="212"/>
-      <c r="R54" s="212"/>
-      <c r="S54" s="213"/>
+      <c r="P54" s="193"/>
+      <c r="Q54" s="194"/>
+      <c r="R54" s="194"/>
+      <c r="S54" s="195"/>
       <c r="T54" s="35"/>
       <c r="U54" s="38"/>
       <c r="V54" s="38"/>
@@ -6187,42 +6331,42 @@
       <c r="AL54" s="38"/>
       <c r="AM54" s="38"/>
       <c r="AN54" s="35"/>
-      <c r="AO54" s="211"/>
-      <c r="AP54" s="212"/>
-      <c r="AQ54" s="212"/>
-      <c r="AR54" s="213"/>
-      <c r="AS54" s="89"/>
-      <c r="AT54" s="88"/>
-      <c r="AU54" s="103"/>
-      <c r="AV54" s="103"/>
-      <c r="AW54" s="103"/>
-      <c r="AX54" s="104"/>
-      <c r="AY54" s="103"/>
-      <c r="AZ54" s="103"/>
-      <c r="BA54" s="109"/>
-      <c r="BB54" s="102">
+      <c r="AO54" s="193"/>
+      <c r="AP54" s="194"/>
+      <c r="AQ54" s="194"/>
+      <c r="AR54" s="195"/>
+      <c r="AS54" s="87"/>
+      <c r="AT54" s="86"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="100"/>
+      <c r="AY54" s="99"/>
+      <c r="AZ54" s="99"/>
+      <c r="BA54" s="105"/>
+      <c r="BB54" s="159">
         <v>2</v>
       </c>
-      <c r="BC54" s="104"/>
-      <c r="BD54" s="168">
-        <v>6</v>
+      <c r="BC54" s="100"/>
+      <c r="BD54" s="182">
+        <v>4</v>
       </c>
-      <c r="BE54" s="169"/>
-      <c r="BF54" s="103"/>
-      <c r="BG54" s="103"/>
-      <c r="BH54" s="104"/>
-      <c r="BI54" s="103"/>
-      <c r="BJ54" s="103"/>
-      <c r="BK54" s="103"/>
-      <c r="BL54" s="148"/>
-      <c r="BM54" s="8"/>
+      <c r="BE54" s="183"/>
+      <c r="BF54" s="99"/>
+      <c r="BG54" s="99"/>
+      <c r="BH54" s="100"/>
+      <c r="BI54" s="99"/>
+      <c r="BJ54" s="99"/>
+      <c r="BK54" s="99"/>
+      <c r="BL54" s="143"/>
+      <c r="BM54" s="169"/>
     </row>
     <row r="55" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="195"/>
-      <c r="B55" s="229"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="177"/>
+      <c r="A55" s="219"/>
+      <c r="B55" s="245"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="199"/>
+      <c r="E55" s="200"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -6231,10 +6375,10 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
       <c r="O55" s="8"/>
-      <c r="P55" s="211"/>
-      <c r="Q55" s="212"/>
-      <c r="R55" s="212"/>
-      <c r="S55" s="213"/>
+      <c r="P55" s="193"/>
+      <c r="Q55" s="194"/>
+      <c r="R55" s="194"/>
+      <c r="S55" s="195"/>
       <c r="T55" s="40"/>
       <c r="U55" s="39"/>
       <c r="V55" s="39"/>
@@ -6256,44 +6400,46 @@
       <c r="AL55" s="39"/>
       <c r="AM55" s="39"/>
       <c r="AN55" s="40"/>
-      <c r="AO55" s="211"/>
-      <c r="AP55" s="212"/>
-      <c r="AQ55" s="212"/>
-      <c r="AR55" s="213"/>
-      <c r="AS55" s="92"/>
-      <c r="AT55" s="91"/>
-      <c r="AU55" s="106"/>
-      <c r="AV55" s="106"/>
-      <c r="AW55" s="106"/>
-      <c r="AX55" s="107"/>
-      <c r="AY55" s="106"/>
-      <c r="AZ55" s="106"/>
-      <c r="BA55" s="106"/>
-      <c r="BB55" s="106"/>
-      <c r="BC55" s="107"/>
-      <c r="BD55" s="106"/>
-      <c r="BE55" s="106"/>
-      <c r="BF55" s="106"/>
-      <c r="BG55" s="106"/>
-      <c r="BH55" s="107"/>
-      <c r="BI55" s="106"/>
-      <c r="BJ55" s="106"/>
-      <c r="BK55" s="106"/>
-      <c r="BL55" s="149"/>
-      <c r="BM55" s="40"/>
+      <c r="AO55" s="193"/>
+      <c r="AP55" s="194"/>
+      <c r="AQ55" s="194"/>
+      <c r="AR55" s="195"/>
+      <c r="AS55" s="90"/>
+      <c r="AT55" s="89"/>
+      <c r="AU55" s="102"/>
+      <c r="AV55" s="102"/>
+      <c r="AW55" s="102"/>
+      <c r="AX55" s="103"/>
+      <c r="AY55" s="102"/>
+      <c r="AZ55" s="102"/>
+      <c r="BA55" s="185">
+        <v>3</v>
+      </c>
+      <c r="BB55" s="185"/>
+      <c r="BC55" s="103"/>
+      <c r="BD55" s="102"/>
+      <c r="BE55" s="102"/>
+      <c r="BF55" s="102"/>
+      <c r="BG55" s="102"/>
+      <c r="BH55" s="103"/>
+      <c r="BI55" s="102"/>
+      <c r="BJ55" s="102"/>
+      <c r="BK55" s="102"/>
+      <c r="BL55" s="144"/>
+      <c r="BM55" s="168"/>
     </row>
     <row r="56" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="195"/>
-      <c r="B56" s="230" t="s">
+      <c r="A56" s="219"/>
+      <c r="B56" s="246" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="190" t="s">
+      <c r="C56" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="178">
+      <c r="D56" s="201">
         <v>2</v>
       </c>
-      <c r="E56" s="180"/>
+      <c r="E56" s="203"/>
       <c r="F56" s="38"/>
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
@@ -6304,10 +6450,10 @@
       <c r="M56" s="38"/>
       <c r="N56" s="38"/>
       <c r="O56" s="35"/>
-      <c r="P56" s="211"/>
-      <c r="Q56" s="212"/>
-      <c r="R56" s="212"/>
-      <c r="S56" s="213"/>
+      <c r="P56" s="193"/>
+      <c r="Q56" s="194"/>
+      <c r="R56" s="194"/>
+      <c r="S56" s="195"/>
       <c r="T56" s="73"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
@@ -6327,40 +6473,40 @@
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="8"/>
-      <c r="AO56" s="211"/>
-      <c r="AP56" s="212"/>
-      <c r="AQ56" s="212"/>
-      <c r="AR56" s="213"/>
-      <c r="AS56" s="89"/>
-      <c r="AT56" s="88"/>
-      <c r="AU56" s="103"/>
-      <c r="AV56" s="103"/>
-      <c r="AW56" s="103"/>
-      <c r="AX56" s="104"/>
-      <c r="AY56" s="103"/>
-      <c r="AZ56" s="103"/>
-      <c r="BA56" s="103"/>
-      <c r="BB56" s="103"/>
-      <c r="BC56" s="104"/>
-      <c r="BD56" s="109"/>
-      <c r="BE56" s="109"/>
-      <c r="BF56" s="102">
+      <c r="AO56" s="193"/>
+      <c r="AP56" s="194"/>
+      <c r="AQ56" s="194"/>
+      <c r="AR56" s="195"/>
+      <c r="AS56" s="87"/>
+      <c r="AT56" s="86"/>
+      <c r="AU56" s="99"/>
+      <c r="AV56" s="99"/>
+      <c r="AW56" s="99"/>
+      <c r="AX56" s="100"/>
+      <c r="AY56" s="99"/>
+      <c r="AZ56" s="99"/>
+      <c r="BA56" s="99"/>
+      <c r="BB56" s="99"/>
+      <c r="BC56" s="100"/>
+      <c r="BD56" s="105"/>
+      <c r="BE56" s="105"/>
+      <c r="BF56" s="159">
         <v>2</v>
       </c>
-      <c r="BG56" s="103"/>
-      <c r="BH56" s="104"/>
-      <c r="BI56" s="103"/>
-      <c r="BJ56" s="103"/>
-      <c r="BK56" s="103"/>
-      <c r="BL56" s="148"/>
-      <c r="BM56" s="8"/>
+      <c r="BG56" s="99"/>
+      <c r="BH56" s="100"/>
+      <c r="BI56" s="99"/>
+      <c r="BJ56" s="99"/>
+      <c r="BK56" s="99"/>
+      <c r="BL56" s="143"/>
+      <c r="BM56" s="169"/>
     </row>
     <row r="57" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="195"/>
-      <c r="B57" s="229"/>
-      <c r="C57" s="190"/>
-      <c r="D57" s="179"/>
-      <c r="E57" s="181"/>
+      <c r="A57" s="219"/>
+      <c r="B57" s="245"/>
+      <c r="C57" s="213"/>
+      <c r="D57" s="211"/>
+      <c r="E57" s="212"/>
       <c r="F57" s="39"/>
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
@@ -6371,10 +6517,10 @@
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
       <c r="O57" s="40"/>
-      <c r="P57" s="211"/>
-      <c r="Q57" s="212"/>
-      <c r="R57" s="212"/>
-      <c r="S57" s="213"/>
+      <c r="P57" s="193"/>
+      <c r="Q57" s="194"/>
+      <c r="R57" s="194"/>
+      <c r="S57" s="195"/>
       <c r="T57" s="73"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
@@ -6394,44 +6540,44 @@
       <c r="AL57" s="6"/>
       <c r="AM57" s="6"/>
       <c r="AN57" s="8"/>
-      <c r="AO57" s="211"/>
-      <c r="AP57" s="212"/>
-      <c r="AQ57" s="212"/>
-      <c r="AR57" s="213"/>
-      <c r="AS57" s="92"/>
-      <c r="AT57" s="91"/>
-      <c r="AU57" s="106"/>
-      <c r="AV57" s="106"/>
-      <c r="AW57" s="106"/>
-      <c r="AX57" s="107"/>
-      <c r="AY57" s="106"/>
-      <c r="AZ57" s="106"/>
-      <c r="BA57" s="106"/>
-      <c r="BB57" s="106"/>
-      <c r="BC57" s="107"/>
-      <c r="BD57" s="106"/>
-      <c r="BE57" s="106"/>
-      <c r="BF57" s="106"/>
-      <c r="BG57" s="106"/>
-      <c r="BH57" s="107"/>
-      <c r="BI57" s="106"/>
-      <c r="BJ57" s="106"/>
-      <c r="BK57" s="106"/>
-      <c r="BL57" s="149"/>
-      <c r="BM57" s="40"/>
+      <c r="AO57" s="193"/>
+      <c r="AP57" s="194"/>
+      <c r="AQ57" s="194"/>
+      <c r="AR57" s="195"/>
+      <c r="AS57" s="90"/>
+      <c r="AT57" s="89"/>
+      <c r="AU57" s="102"/>
+      <c r="AV57" s="102"/>
+      <c r="AW57" s="102"/>
+      <c r="AX57" s="103"/>
+      <c r="AY57" s="102"/>
+      <c r="AZ57" s="102"/>
+      <c r="BA57" s="102"/>
+      <c r="BB57" s="102"/>
+      <c r="BC57" s="103"/>
+      <c r="BD57" s="102"/>
+      <c r="BE57" s="102"/>
+      <c r="BF57" s="102"/>
+      <c r="BG57" s="102"/>
+      <c r="BH57" s="103"/>
+      <c r="BI57" s="102"/>
+      <c r="BJ57" s="102"/>
+      <c r="BK57" s="102"/>
+      <c r="BL57" s="144"/>
+      <c r="BM57" s="168"/>
     </row>
     <row r="58" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="195"/>
-      <c r="B58" s="230" t="s">
+      <c r="A58" s="219"/>
+      <c r="B58" s="246" t="s">
         <v>99</v>
       </c>
-      <c r="C58" s="191" t="s">
+      <c r="C58" s="214" t="s">
         <v>27</v>
       </c>
-      <c r="D58" s="176">
+      <c r="D58" s="199">
         <v>2</v>
       </c>
-      <c r="E58" s="177"/>
+      <c r="E58" s="200"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -6440,10 +6586,10 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
       <c r="O58" s="8"/>
-      <c r="P58" s="211"/>
-      <c r="Q58" s="212"/>
-      <c r="R58" s="212"/>
-      <c r="S58" s="213"/>
+      <c r="P58" s="193"/>
+      <c r="Q58" s="194"/>
+      <c r="R58" s="194"/>
+      <c r="S58" s="195"/>
       <c r="T58" s="35"/>
       <c r="U58" s="38"/>
       <c r="V58" s="38"/>
@@ -6465,40 +6611,40 @@
       <c r="AL58" s="38"/>
       <c r="AM58" s="38"/>
       <c r="AN58" s="35"/>
-      <c r="AO58" s="211"/>
-      <c r="AP58" s="212"/>
-      <c r="AQ58" s="212"/>
-      <c r="AR58" s="213"/>
-      <c r="AS58" s="89"/>
-      <c r="AT58" s="88"/>
-      <c r="AU58" s="103"/>
-      <c r="AV58" s="103"/>
-      <c r="AW58" s="103"/>
-      <c r="AX58" s="104"/>
-      <c r="AY58" s="103"/>
-      <c r="AZ58" s="103"/>
-      <c r="BA58" s="103"/>
-      <c r="BB58" s="103"/>
-      <c r="BC58" s="104"/>
-      <c r="BD58" s="103"/>
-      <c r="BE58" s="109"/>
-      <c r="BF58" s="109"/>
-      <c r="BG58" s="102">
+      <c r="AO58" s="193"/>
+      <c r="AP58" s="194"/>
+      <c r="AQ58" s="194"/>
+      <c r="AR58" s="195"/>
+      <c r="AS58" s="87"/>
+      <c r="AT58" s="86"/>
+      <c r="AU58" s="99"/>
+      <c r="AV58" s="99"/>
+      <c r="AW58" s="99"/>
+      <c r="AX58" s="100"/>
+      <c r="AY58" s="99"/>
+      <c r="AZ58" s="99"/>
+      <c r="BA58" s="99"/>
+      <c r="BB58" s="99"/>
+      <c r="BC58" s="100"/>
+      <c r="BD58" s="99"/>
+      <c r="BE58" s="105"/>
+      <c r="BF58" s="105"/>
+      <c r="BG58" s="159">
         <v>2</v>
       </c>
-      <c r="BH58" s="104"/>
-      <c r="BI58" s="103"/>
-      <c r="BJ58" s="103"/>
-      <c r="BK58" s="103"/>
-      <c r="BL58" s="148"/>
-      <c r="BM58" s="8"/>
+      <c r="BH58" s="100"/>
+      <c r="BI58" s="99"/>
+      <c r="BJ58" s="99"/>
+      <c r="BK58" s="99"/>
+      <c r="BL58" s="143"/>
+      <c r="BM58" s="169"/>
     </row>
     <row r="59" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="195"/>
-      <c r="B59" s="229"/>
-      <c r="C59" s="192"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="177"/>
+      <c r="A59" s="219"/>
+      <c r="B59" s="245"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="199"/>
+      <c r="E59" s="200"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -6507,10 +6653,10 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="8"/>
-      <c r="P59" s="211"/>
-      <c r="Q59" s="212"/>
-      <c r="R59" s="212"/>
-      <c r="S59" s="213"/>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="194"/>
+      <c r="R59" s="194"/>
+      <c r="S59" s="195"/>
       <c r="T59" s="40"/>
       <c r="U59" s="39"/>
       <c r="V59" s="39"/>
@@ -6532,44 +6678,44 @@
       <c r="AL59" s="39"/>
       <c r="AM59" s="39"/>
       <c r="AN59" s="40"/>
-      <c r="AO59" s="211"/>
-      <c r="AP59" s="212"/>
-      <c r="AQ59" s="212"/>
-      <c r="AR59" s="213"/>
-      <c r="AS59" s="92"/>
-      <c r="AT59" s="91"/>
-      <c r="AU59" s="106"/>
-      <c r="AV59" s="106"/>
-      <c r="AW59" s="106"/>
-      <c r="AX59" s="107"/>
-      <c r="AY59" s="106"/>
-      <c r="AZ59" s="106"/>
-      <c r="BA59" s="106"/>
-      <c r="BB59" s="106"/>
-      <c r="BC59" s="107"/>
-      <c r="BD59" s="106"/>
-      <c r="BE59" s="106"/>
-      <c r="BF59" s="106"/>
-      <c r="BG59" s="106"/>
-      <c r="BH59" s="107"/>
-      <c r="BI59" s="106"/>
-      <c r="BJ59" s="106"/>
-      <c r="BK59" s="106"/>
-      <c r="BL59" s="149"/>
-      <c r="BM59" s="40"/>
+      <c r="AO59" s="193"/>
+      <c r="AP59" s="194"/>
+      <c r="AQ59" s="194"/>
+      <c r="AR59" s="195"/>
+      <c r="AS59" s="90"/>
+      <c r="AT59" s="89"/>
+      <c r="AU59" s="102"/>
+      <c r="AV59" s="102"/>
+      <c r="AW59" s="102"/>
+      <c r="AX59" s="103"/>
+      <c r="AY59" s="102"/>
+      <c r="AZ59" s="102"/>
+      <c r="BA59" s="102"/>
+      <c r="BB59" s="102"/>
+      <c r="BC59" s="103"/>
+      <c r="BD59" s="102"/>
+      <c r="BE59" s="102"/>
+      <c r="BF59" s="102"/>
+      <c r="BG59" s="102"/>
+      <c r="BH59" s="103"/>
+      <c r="BI59" s="102"/>
+      <c r="BJ59" s="102"/>
+      <c r="BK59" s="102"/>
+      <c r="BL59" s="144"/>
+      <c r="BM59" s="168"/>
     </row>
     <row r="60" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="195"/>
-      <c r="B60" s="230" t="s">
+      <c r="A60" s="219"/>
+      <c r="B60" s="246" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="190" t="s">
+      <c r="C60" s="213" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="178">
+      <c r="D60" s="201">
         <v>2</v>
       </c>
-      <c r="E60" s="180"/>
+      <c r="E60" s="203"/>
       <c r="F60" s="38"/>
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
@@ -6580,10 +6726,10 @@
       <c r="M60" s="38"/>
       <c r="N60" s="38"/>
       <c r="O60" s="35"/>
-      <c r="P60" s="211"/>
-      <c r="Q60" s="212"/>
-      <c r="R60" s="212"/>
-      <c r="S60" s="213"/>
+      <c r="P60" s="193"/>
+      <c r="Q60" s="194"/>
+      <c r="R60" s="194"/>
+      <c r="S60" s="195"/>
       <c r="T60" s="73"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
@@ -6603,40 +6749,40 @@
       <c r="AL60" s="6"/>
       <c r="AM60" s="6"/>
       <c r="AN60" s="8"/>
-      <c r="AO60" s="211"/>
-      <c r="AP60" s="212"/>
-      <c r="AQ60" s="212"/>
-      <c r="AR60" s="213"/>
-      <c r="AS60" s="89"/>
-      <c r="AT60" s="88"/>
-      <c r="AU60" s="103"/>
-      <c r="AV60" s="103"/>
-      <c r="AW60" s="103"/>
-      <c r="AX60" s="104"/>
-      <c r="AY60" s="103"/>
-      <c r="AZ60" s="103"/>
-      <c r="BA60" s="103"/>
-      <c r="BB60" s="103"/>
-      <c r="BC60" s="104"/>
-      <c r="BD60" s="103"/>
-      <c r="BE60" s="103"/>
-      <c r="BF60" s="103"/>
-      <c r="BG60" s="109"/>
-      <c r="BH60" s="104"/>
-      <c r="BI60" s="102">
+      <c r="AO60" s="193"/>
+      <c r="AP60" s="194"/>
+      <c r="AQ60" s="194"/>
+      <c r="AR60" s="195"/>
+      <c r="AS60" s="87"/>
+      <c r="AT60" s="86"/>
+      <c r="AU60" s="99"/>
+      <c r="AV60" s="99"/>
+      <c r="AW60" s="99"/>
+      <c r="AX60" s="100"/>
+      <c r="AY60" s="99"/>
+      <c r="AZ60" s="99"/>
+      <c r="BA60" s="99"/>
+      <c r="BB60" s="99"/>
+      <c r="BC60" s="100"/>
+      <c r="BD60" s="99"/>
+      <c r="BE60" s="99"/>
+      <c r="BF60" s="99"/>
+      <c r="BG60" s="105"/>
+      <c r="BH60" s="100"/>
+      <c r="BI60" s="159">
         <v>2</v>
       </c>
-      <c r="BJ60" s="103"/>
-      <c r="BK60" s="103"/>
-      <c r="BL60" s="148"/>
-      <c r="BM60" s="8"/>
+      <c r="BJ60" s="99"/>
+      <c r="BK60" s="99"/>
+      <c r="BL60" s="143"/>
+      <c r="BM60" s="169"/>
     </row>
     <row r="61" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="195"/>
-      <c r="B61" s="229"/>
-      <c r="C61" s="190"/>
-      <c r="D61" s="188"/>
-      <c r="E61" s="189"/>
+      <c r="A61" s="219"/>
+      <c r="B61" s="245"/>
+      <c r="C61" s="213"/>
+      <c r="D61" s="202"/>
+      <c r="E61" s="204"/>
       <c r="F61" s="39"/>
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
@@ -6647,10 +6793,10 @@
       <c r="M61" s="39"/>
       <c r="N61" s="39"/>
       <c r="O61" s="40"/>
-      <c r="P61" s="211"/>
-      <c r="Q61" s="212"/>
-      <c r="R61" s="212"/>
-      <c r="S61" s="213"/>
+      <c r="P61" s="193"/>
+      <c r="Q61" s="194"/>
+      <c r="R61" s="194"/>
+      <c r="S61" s="195"/>
       <c r="T61" s="73"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
@@ -6670,38 +6816,38 @@
       <c r="AL61" s="6"/>
       <c r="AM61" s="6"/>
       <c r="AN61" s="8"/>
-      <c r="AO61" s="211"/>
-      <c r="AP61" s="212"/>
-      <c r="AQ61" s="212"/>
-      <c r="AR61" s="213"/>
-      <c r="AS61" s="92"/>
-      <c r="AT61" s="91"/>
-      <c r="AU61" s="106"/>
-      <c r="AV61" s="106"/>
-      <c r="AW61" s="106"/>
-      <c r="AX61" s="107"/>
-      <c r="AY61" s="106"/>
-      <c r="AZ61" s="106"/>
-      <c r="BA61" s="106"/>
-      <c r="BB61" s="106"/>
-      <c r="BC61" s="107"/>
-      <c r="BD61" s="106"/>
-      <c r="BE61" s="106"/>
-      <c r="BF61" s="106"/>
-      <c r="BG61" s="106"/>
-      <c r="BH61" s="107"/>
-      <c r="BI61" s="106"/>
-      <c r="BJ61" s="106"/>
-      <c r="BK61" s="106"/>
-      <c r="BL61" s="149"/>
-      <c r="BM61" s="40"/>
+      <c r="AO61" s="193"/>
+      <c r="AP61" s="194"/>
+      <c r="AQ61" s="194"/>
+      <c r="AR61" s="195"/>
+      <c r="AS61" s="90"/>
+      <c r="AT61" s="89"/>
+      <c r="AU61" s="102"/>
+      <c r="AV61" s="102"/>
+      <c r="AW61" s="102"/>
+      <c r="AX61" s="103"/>
+      <c r="AY61" s="102"/>
+      <c r="AZ61" s="102"/>
+      <c r="BA61" s="102"/>
+      <c r="BB61" s="102"/>
+      <c r="BC61" s="103"/>
+      <c r="BD61" s="102"/>
+      <c r="BE61" s="102"/>
+      <c r="BF61" s="102"/>
+      <c r="BG61" s="102"/>
+      <c r="BH61" s="103"/>
+      <c r="BI61" s="102"/>
+      <c r="BJ61" s="102"/>
+      <c r="BK61" s="102"/>
+      <c r="BL61" s="144"/>
+      <c r="BM61" s="168"/>
     </row>
     <row r="62" spans="1:65" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="254" t="s">
+      <c r="A62" s="272" t="s">
         <v>29</v>
       </c>
-      <c r="B62" s="255"/>
-      <c r="C62" s="256"/>
+      <c r="B62" s="273"/>
+      <c r="C62" s="274"/>
       <c r="D62" s="23"/>
       <c r="E62" s="24"/>
       <c r="F62" s="6"/>
@@ -6712,10 +6858,10 @@
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="8"/>
-      <c r="P62" s="211"/>
-      <c r="Q62" s="212"/>
-      <c r="R62" s="212"/>
-      <c r="S62" s="213"/>
+      <c r="P62" s="193"/>
+      <c r="Q62" s="194"/>
+      <c r="R62" s="194"/>
+      <c r="S62" s="195"/>
       <c r="T62" s="70"/>
       <c r="U62" s="74"/>
       <c r="V62" s="74"/>
@@ -6737,46 +6883,46 @@
       <c r="AL62" s="74"/>
       <c r="AM62" s="74"/>
       <c r="AN62" s="70"/>
-      <c r="AO62" s="211"/>
-      <c r="AP62" s="212"/>
-      <c r="AQ62" s="212"/>
-      <c r="AR62" s="213"/>
-      <c r="AS62" s="100"/>
-      <c r="AT62" s="101"/>
-      <c r="AU62" s="150"/>
-      <c r="AV62" s="150"/>
-      <c r="AW62" s="150"/>
-      <c r="AX62" s="151"/>
-      <c r="AY62" s="150"/>
-      <c r="AZ62" s="150"/>
-      <c r="BA62" s="150"/>
-      <c r="BB62" s="150"/>
-      <c r="BC62" s="151"/>
-      <c r="BD62" s="150"/>
-      <c r="BE62" s="150"/>
-      <c r="BF62" s="150"/>
-      <c r="BG62" s="150"/>
-      <c r="BH62" s="151"/>
-      <c r="BI62" s="150"/>
-      <c r="BJ62" s="152"/>
-      <c r="BK62" s="152"/>
-      <c r="BL62" s="153"/>
-      <c r="BM62" s="40"/>
+      <c r="AO62" s="193"/>
+      <c r="AP62" s="194"/>
+      <c r="AQ62" s="194"/>
+      <c r="AR62" s="195"/>
+      <c r="AS62" s="97"/>
+      <c r="AT62" s="98"/>
+      <c r="AU62" s="145"/>
+      <c r="AV62" s="145"/>
+      <c r="AW62" s="145"/>
+      <c r="AX62" s="146"/>
+      <c r="AY62" s="145"/>
+      <c r="AZ62" s="145"/>
+      <c r="BA62" s="145"/>
+      <c r="BB62" s="145"/>
+      <c r="BC62" s="146"/>
+      <c r="BD62" s="145"/>
+      <c r="BE62" s="145"/>
+      <c r="BF62" s="145"/>
+      <c r="BG62" s="145"/>
+      <c r="BH62" s="146"/>
+      <c r="BI62" s="145"/>
+      <c r="BJ62" s="147"/>
+      <c r="BK62" s="147"/>
+      <c r="BL62" s="148"/>
+      <c r="BM62" s="168"/>
     </row>
     <row r="63" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="234" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="250" t="s">
+      <c r="B63" s="267" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="190" t="s">
+      <c r="C63" s="213" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="186">
+      <c r="D63" s="209">
         <v>2</v>
       </c>
-      <c r="E63" s="187"/>
+      <c r="E63" s="210"/>
       <c r="F63" s="38"/>
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
@@ -6787,10 +6933,10 @@
       <c r="M63" s="38"/>
       <c r="N63" s="38"/>
       <c r="O63" s="35"/>
-      <c r="P63" s="211"/>
-      <c r="Q63" s="212"/>
-      <c r="R63" s="212"/>
-      <c r="S63" s="213"/>
+      <c r="P63" s="193"/>
+      <c r="Q63" s="194"/>
+      <c r="R63" s="194"/>
+      <c r="S63" s="195"/>
       <c r="T63" s="73"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
@@ -6810,40 +6956,40 @@
       <c r="AL63" s="6"/>
       <c r="AM63" s="6"/>
       <c r="AN63" s="8"/>
-      <c r="AO63" s="211"/>
-      <c r="AP63" s="212"/>
-      <c r="AQ63" s="212"/>
-      <c r="AR63" s="213"/>
-      <c r="AS63" s="89"/>
-      <c r="AT63" s="88"/>
-      <c r="AU63" s="103"/>
-      <c r="AV63" s="103"/>
-      <c r="AW63" s="103"/>
-      <c r="AX63" s="104"/>
-      <c r="AY63" s="103"/>
-      <c r="AZ63" s="103"/>
-      <c r="BA63" s="103"/>
-      <c r="BB63" s="103"/>
-      <c r="BC63" s="104"/>
-      <c r="BD63" s="103"/>
-      <c r="BE63" s="103"/>
-      <c r="BF63" s="103"/>
-      <c r="BG63" s="103"/>
-      <c r="BH63" s="104"/>
-      <c r="BI63" s="109"/>
-      <c r="BJ63" s="102">
+      <c r="AO63" s="193"/>
+      <c r="AP63" s="194"/>
+      <c r="AQ63" s="194"/>
+      <c r="AR63" s="195"/>
+      <c r="AS63" s="87"/>
+      <c r="AT63" s="86"/>
+      <c r="AU63" s="99"/>
+      <c r="AV63" s="99"/>
+      <c r="AW63" s="99"/>
+      <c r="AX63" s="100"/>
+      <c r="AY63" s="99"/>
+      <c r="AZ63" s="99"/>
+      <c r="BA63" s="99"/>
+      <c r="BB63" s="99"/>
+      <c r="BC63" s="100"/>
+      <c r="BD63" s="99"/>
+      <c r="BE63" s="99"/>
+      <c r="BF63" s="99"/>
+      <c r="BG63" s="99"/>
+      <c r="BH63" s="100"/>
+      <c r="BI63" s="105"/>
+      <c r="BJ63" s="159">
         <v>2</v>
       </c>
-      <c r="BK63" s="103"/>
-      <c r="BL63" s="148"/>
-      <c r="BM63" s="8"/>
+      <c r="BK63" s="99"/>
+      <c r="BL63" s="143"/>
+      <c r="BM63" s="169"/>
     </row>
     <row r="64" spans="1:65" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="218"/>
-      <c r="B64" s="251"/>
-      <c r="C64" s="190"/>
-      <c r="D64" s="176"/>
-      <c r="E64" s="177"/>
+      <c r="A64" s="235"/>
+      <c r="B64" s="268"/>
+      <c r="C64" s="213"/>
+      <c r="D64" s="199"/>
+      <c r="E64" s="200"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -6852,10 +6998,10 @@
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="8"/>
-      <c r="P64" s="211"/>
-      <c r="Q64" s="212"/>
-      <c r="R64" s="212"/>
-      <c r="S64" s="213"/>
+      <c r="P64" s="193"/>
+      <c r="Q64" s="194"/>
+      <c r="R64" s="194"/>
+      <c r="S64" s="195"/>
       <c r="T64" s="73"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
@@ -6875,44 +7021,44 @@
       <c r="AL64" s="6"/>
       <c r="AM64" s="6"/>
       <c r="AN64" s="8"/>
-      <c r="AO64" s="211"/>
-      <c r="AP64" s="212"/>
-      <c r="AQ64" s="212"/>
-      <c r="AR64" s="213"/>
-      <c r="AS64" s="92"/>
-      <c r="AT64" s="91"/>
-      <c r="AU64" s="106"/>
-      <c r="AV64" s="106"/>
-      <c r="AW64" s="106"/>
-      <c r="AX64" s="107"/>
-      <c r="AY64" s="106"/>
-      <c r="AZ64" s="106"/>
-      <c r="BA64" s="106"/>
-      <c r="BB64" s="106"/>
-      <c r="BC64" s="107"/>
-      <c r="BD64" s="106"/>
-      <c r="BE64" s="106"/>
-      <c r="BF64" s="106"/>
-      <c r="BG64" s="106"/>
-      <c r="BH64" s="107"/>
-      <c r="BI64" s="106"/>
-      <c r="BJ64" s="106"/>
-      <c r="BK64" s="106"/>
-      <c r="BL64" s="149"/>
-      <c r="BM64" s="40"/>
+      <c r="AO64" s="193"/>
+      <c r="AP64" s="194"/>
+      <c r="AQ64" s="194"/>
+      <c r="AR64" s="195"/>
+      <c r="AS64" s="90"/>
+      <c r="AT64" s="89"/>
+      <c r="AU64" s="102"/>
+      <c r="AV64" s="102"/>
+      <c r="AW64" s="102"/>
+      <c r="AX64" s="103"/>
+      <c r="AY64" s="102"/>
+      <c r="AZ64" s="102"/>
+      <c r="BA64" s="102"/>
+      <c r="BB64" s="102"/>
+      <c r="BC64" s="103"/>
+      <c r="BD64" s="102"/>
+      <c r="BE64" s="102"/>
+      <c r="BF64" s="102"/>
+      <c r="BG64" s="102"/>
+      <c r="BH64" s="103"/>
+      <c r="BI64" s="102"/>
+      <c r="BJ64" s="102"/>
+      <c r="BK64" s="102"/>
+      <c r="BL64" s="144"/>
+      <c r="BM64" s="168"/>
     </row>
     <row r="65" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="218"/>
-      <c r="B65" s="252" t="s">
+      <c r="A65" s="235"/>
+      <c r="B65" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="191" t="s">
+      <c r="C65" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="D65" s="178">
+      <c r="D65" s="201">
         <v>4</v>
       </c>
-      <c r="E65" s="180"/>
+      <c r="E65" s="203"/>
       <c r="F65" s="38"/>
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
@@ -6923,10 +7069,10 @@
       <c r="M65" s="38"/>
       <c r="N65" s="38"/>
       <c r="O65" s="35"/>
-      <c r="P65" s="211"/>
-      <c r="Q65" s="212"/>
-      <c r="R65" s="212"/>
-      <c r="S65" s="213"/>
+      <c r="P65" s="193"/>
+      <c r="Q65" s="194"/>
+      <c r="R65" s="194"/>
+      <c r="S65" s="195"/>
       <c r="T65" s="35"/>
       <c r="U65" s="38"/>
       <c r="V65" s="38"/>
@@ -6948,40 +7094,40 @@
       <c r="AL65" s="38"/>
       <c r="AM65" s="38"/>
       <c r="AN65" s="35"/>
-      <c r="AO65" s="211"/>
-      <c r="AP65" s="212"/>
-      <c r="AQ65" s="212"/>
-      <c r="AR65" s="213"/>
-      <c r="AS65" s="89"/>
-      <c r="AT65" s="88"/>
-      <c r="AU65" s="103"/>
-      <c r="AV65" s="103"/>
-      <c r="AW65" s="103"/>
-      <c r="AX65" s="104"/>
-      <c r="AY65" s="103"/>
-      <c r="AZ65" s="103"/>
-      <c r="BA65" s="103"/>
-      <c r="BB65" s="103"/>
-      <c r="BC65" s="104"/>
-      <c r="BD65" s="103"/>
-      <c r="BE65" s="103"/>
-      <c r="BF65" s="103"/>
-      <c r="BG65" s="103"/>
-      <c r="BH65" s="104"/>
-      <c r="BI65" s="103"/>
-      <c r="BJ65" s="103"/>
-      <c r="BK65" s="169">
+      <c r="AO65" s="193"/>
+      <c r="AP65" s="194"/>
+      <c r="AQ65" s="194"/>
+      <c r="AR65" s="195"/>
+      <c r="AS65" s="87"/>
+      <c r="AT65" s="86"/>
+      <c r="AU65" s="99"/>
+      <c r="AV65" s="99"/>
+      <c r="AW65" s="99"/>
+      <c r="AX65" s="100"/>
+      <c r="AY65" s="99"/>
+      <c r="AZ65" s="99"/>
+      <c r="BA65" s="99"/>
+      <c r="BB65" s="99"/>
+      <c r="BC65" s="100"/>
+      <c r="BD65" s="99"/>
+      <c r="BE65" s="99"/>
+      <c r="BF65" s="99"/>
+      <c r="BG65" s="99"/>
+      <c r="BH65" s="100"/>
+      <c r="BI65" s="99"/>
+      <c r="BJ65" s="99"/>
+      <c r="BK65" s="183">
         <v>4</v>
       </c>
-      <c r="BL65" s="170"/>
-      <c r="BM65" s="8"/>
+      <c r="BL65" s="184"/>
+      <c r="BM65" s="169"/>
     </row>
     <row r="66" spans="1:70" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="219"/>
-      <c r="B66" s="253"/>
-      <c r="C66" s="190"/>
-      <c r="D66" s="188"/>
-      <c r="E66" s="189"/>
+      <c r="A66" s="236"/>
+      <c r="B66" s="270"/>
+      <c r="C66" s="213"/>
+      <c r="D66" s="202"/>
+      <c r="E66" s="204"/>
       <c r="F66" s="39"/>
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
@@ -6992,10 +7138,10 @@
       <c r="M66" s="39"/>
       <c r="N66" s="39"/>
       <c r="O66" s="40"/>
-      <c r="P66" s="211"/>
-      <c r="Q66" s="212"/>
-      <c r="R66" s="212"/>
-      <c r="S66" s="213"/>
+      <c r="P66" s="193"/>
+      <c r="Q66" s="194"/>
+      <c r="R66" s="194"/>
+      <c r="S66" s="195"/>
       <c r="T66" s="40"/>
       <c r="U66" s="39"/>
       <c r="V66" s="39"/>
@@ -7017,38 +7163,38 @@
       <c r="AL66" s="39"/>
       <c r="AM66" s="39"/>
       <c r="AN66" s="40"/>
-      <c r="AO66" s="211"/>
-      <c r="AP66" s="212"/>
-      <c r="AQ66" s="212"/>
-      <c r="AR66" s="213"/>
+      <c r="AO66" s="193"/>
+      <c r="AP66" s="194"/>
+      <c r="AQ66" s="194"/>
+      <c r="AR66" s="195"/>
       <c r="AS66" s="8"/>
       <c r="AT66" s="6"/>
-      <c r="AU66" s="141"/>
-      <c r="AV66" s="141"/>
-      <c r="AW66" s="141"/>
-      <c r="AX66" s="142"/>
-      <c r="AY66" s="141"/>
-      <c r="AZ66" s="141"/>
-      <c r="BA66" s="141"/>
-      <c r="BB66" s="141"/>
-      <c r="BC66" s="142"/>
-      <c r="BD66" s="141"/>
-      <c r="BE66" s="141"/>
-      <c r="BF66" s="141"/>
-      <c r="BG66" s="141"/>
-      <c r="BH66" s="142"/>
-      <c r="BI66" s="141"/>
-      <c r="BJ66" s="141"/>
-      <c r="BK66" s="141"/>
-      <c r="BL66" s="154"/>
-      <c r="BM66" s="8"/>
+      <c r="AU66" s="136"/>
+      <c r="AV66" s="136"/>
+      <c r="AW66" s="136"/>
+      <c r="AX66" s="137"/>
+      <c r="AY66" s="136"/>
+      <c r="AZ66" s="136"/>
+      <c r="BA66" s="136"/>
+      <c r="BB66" s="136"/>
+      <c r="BC66" s="137"/>
+      <c r="BD66" s="136"/>
+      <c r="BE66" s="136"/>
+      <c r="BF66" s="136"/>
+      <c r="BG66" s="136"/>
+      <c r="BH66" s="137"/>
+      <c r="BI66" s="136"/>
+      <c r="BJ66" s="136"/>
+      <c r="BK66" s="136"/>
+      <c r="BL66" s="149"/>
+      <c r="BM66" s="169"/>
     </row>
     <row r="67" spans="1:70" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="257" t="s">
+      <c r="A67" s="275" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="258"/>
-      <c r="C67" s="259"/>
+      <c r="B67" s="276"/>
+      <c r="C67" s="277"/>
       <c r="D67" s="25"/>
       <c r="E67" s="26"/>
       <c r="F67" s="29"/>
@@ -7061,10 +7207,10 @@
       <c r="M67" s="29"/>
       <c r="N67" s="29"/>
       <c r="O67" s="8"/>
-      <c r="P67" s="211"/>
-      <c r="Q67" s="212"/>
-      <c r="R67" s="212"/>
-      <c r="S67" s="213"/>
+      <c r="P67" s="193"/>
+      <c r="Q67" s="194"/>
+      <c r="R67" s="194"/>
+      <c r="S67" s="195"/>
       <c r="T67" s="73"/>
       <c r="U67" s="29"/>
       <c r="V67" s="29"/>
@@ -7086,10 +7232,10 @@
       <c r="AL67" s="29"/>
       <c r="AM67" s="29"/>
       <c r="AN67" s="8"/>
-      <c r="AO67" s="211"/>
-      <c r="AP67" s="212"/>
-      <c r="AQ67" s="212"/>
-      <c r="AR67" s="213"/>
+      <c r="AO67" s="193"/>
+      <c r="AP67" s="194"/>
+      <c r="AQ67" s="194"/>
+      <c r="AR67" s="195"/>
       <c r="AS67" s="70"/>
       <c r="AT67" s="78"/>
       <c r="AU67" s="78"/>
@@ -7110,22 +7256,22 @@
       <c r="BJ67" s="78"/>
       <c r="BK67" s="78"/>
       <c r="BL67" s="78"/>
-      <c r="BM67" s="70"/>
+      <c r="BM67" s="170"/>
     </row>
     <row r="68" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="220" t="s">
+      <c r="A68" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="228" t="s">
+      <c r="B68" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="C68" s="190" t="s">
+      <c r="C68" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="D68" s="186">
+      <c r="D68" s="209">
         <v>80</v>
       </c>
-      <c r="E68" s="187"/>
+      <c r="E68" s="210"/>
       <c r="F68" s="64"/>
       <c r="G68" s="64"/>
       <c r="H68" s="64"/>
@@ -7136,10 +7282,10 @@
       <c r="M68" s="64"/>
       <c r="N68" s="64"/>
       <c r="O68" s="35"/>
-      <c r="P68" s="211"/>
-      <c r="Q68" s="212"/>
-      <c r="R68" s="212"/>
-      <c r="S68" s="213"/>
+      <c r="P68" s="193"/>
+      <c r="Q68" s="194"/>
+      <c r="R68" s="194"/>
+      <c r="S68" s="195"/>
       <c r="T68" s="35"/>
       <c r="U68" s="64"/>
       <c r="V68" s="64"/>
@@ -7161,10 +7307,10 @@
       <c r="AL68" s="64"/>
       <c r="AM68" s="64"/>
       <c r="AN68" s="35"/>
-      <c r="AO68" s="211"/>
-      <c r="AP68" s="212"/>
-      <c r="AQ68" s="212"/>
-      <c r="AR68" s="213"/>
+      <c r="AO68" s="193"/>
+      <c r="AP68" s="194"/>
+      <c r="AQ68" s="194"/>
+      <c r="AR68" s="195"/>
       <c r="AS68" s="35"/>
       <c r="AT68" s="64"/>
       <c r="AU68" s="64"/>
@@ -7185,14 +7331,14 @@
       <c r="BJ68" s="64"/>
       <c r="BK68" s="64"/>
       <c r="BL68" s="64"/>
-      <c r="BM68" s="35"/>
+      <c r="BM68" s="167"/>
     </row>
     <row r="69" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="221"/>
-      <c r="B69" s="229"/>
-      <c r="C69" s="190"/>
-      <c r="D69" s="179"/>
-      <c r="E69" s="181"/>
+      <c r="A69" s="238"/>
+      <c r="B69" s="245"/>
+      <c r="C69" s="213"/>
+      <c r="D69" s="211"/>
+      <c r="E69" s="212"/>
       <c r="F69" s="63"/>
       <c r="G69" s="63"/>
       <c r="H69" s="63"/>
@@ -7203,10 +7349,10 @@
       <c r="M69" s="63"/>
       <c r="N69" s="63"/>
       <c r="O69" s="40"/>
-      <c r="P69" s="211"/>
-      <c r="Q69" s="212"/>
-      <c r="R69" s="212"/>
-      <c r="S69" s="213"/>
+      <c r="P69" s="193"/>
+      <c r="Q69" s="194"/>
+      <c r="R69" s="194"/>
+      <c r="S69" s="195"/>
       <c r="T69" s="40"/>
       <c r="U69" s="63"/>
       <c r="V69" s="63"/>
@@ -7228,10 +7374,10 @@
       <c r="AL69" s="39"/>
       <c r="AM69" s="39"/>
       <c r="AN69" s="40"/>
-      <c r="AO69" s="211"/>
-      <c r="AP69" s="212"/>
-      <c r="AQ69" s="212"/>
-      <c r="AR69" s="213"/>
+      <c r="AO69" s="193"/>
+      <c r="AP69" s="194"/>
+      <c r="AQ69" s="194"/>
+      <c r="AR69" s="195"/>
       <c r="AS69" s="40"/>
       <c r="AT69" s="39"/>
       <c r="AU69" s="39"/>
@@ -7252,208 +7398,210 @@
       <c r="BJ69" s="39"/>
       <c r="BK69" s="39"/>
       <c r="BL69" s="39"/>
-      <c r="BM69" s="40"/>
+      <c r="BM69" s="168"/>
     </row>
     <row r="70" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="221"/>
-      <c r="B70" s="230" t="s">
+      <c r="A70" s="238"/>
+      <c r="B70" s="246" t="s">
         <v>104</v>
       </c>
-      <c r="C70" s="191" t="s">
+      <c r="C70" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="D70" s="176">
-        <v>10</v>
+      <c r="D70" s="199">
+        <v>5</v>
       </c>
-      <c r="E70" s="177"/>
+      <c r="E70" s="200"/>
       <c r="F70" s="6"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="97">
-        <v>0.5</v>
+      <c r="G70" s="91"/>
+      <c r="H70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="J70" s="95"/>
-      <c r="K70" s="96"/>
-      <c r="L70" s="96"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="97">
-        <v>0.5</v>
+      <c r="I70" s="184"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="93"/>
+      <c r="L70" s="93"/>
+      <c r="M70" s="183" t="s">
+        <v>117</v>
       </c>
+      <c r="N70" s="184"/>
       <c r="O70" s="8"/>
-      <c r="P70" s="211"/>
-      <c r="Q70" s="212"/>
-      <c r="R70" s="212"/>
-      <c r="S70" s="213"/>
+      <c r="P70" s="193"/>
+      <c r="Q70" s="194"/>
+      <c r="R70" s="194"/>
+      <c r="S70" s="195"/>
       <c r="T70" s="73"/>
-      <c r="U70" s="94"/>
-      <c r="V70" s="94"/>
-      <c r="W70" s="94"/>
-      <c r="X70" s="97">
-        <v>0.5</v>
+      <c r="U70" s="91"/>
+      <c r="V70" s="91"/>
+      <c r="W70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="Y70" s="95"/>
-      <c r="Z70" s="96"/>
-      <c r="AA70" s="96"/>
-      <c r="AB70" s="94"/>
-      <c r="AC70" s="97">
-        <v>0.5</v>
+      <c r="X70" s="184"/>
+      <c r="Y70" s="92"/>
+      <c r="Z70" s="93"/>
+      <c r="AA70" s="93"/>
+      <c r="AB70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="AD70" s="95"/>
-      <c r="AE70" s="94"/>
-      <c r="AF70" s="94"/>
-      <c r="AG70" s="94"/>
-      <c r="AH70" s="97">
-        <v>0.5</v>
+      <c r="AC70" s="184"/>
+      <c r="AD70" s="92"/>
+      <c r="AE70" s="91"/>
+      <c r="AF70" s="91"/>
+      <c r="AG70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="AI70" s="95"/>
-      <c r="AJ70" s="98"/>
-      <c r="AK70" s="99"/>
-      <c r="AL70" s="94"/>
-      <c r="AM70" s="97">
-        <v>0.5</v>
+      <c r="AH70" s="184"/>
+      <c r="AI70" s="92"/>
+      <c r="AJ70" s="95"/>
+      <c r="AK70" s="96"/>
+      <c r="AL70" s="183" t="s">
+        <v>117</v>
       </c>
+      <c r="AM70" s="184"/>
       <c r="AN70" s="8"/>
-      <c r="AO70" s="211"/>
-      <c r="AP70" s="212"/>
-      <c r="AQ70" s="212"/>
-      <c r="AR70" s="213"/>
+      <c r="AO70" s="193"/>
+      <c r="AP70" s="194"/>
+      <c r="AQ70" s="194"/>
+      <c r="AR70" s="195"/>
       <c r="AS70" s="35"/>
-      <c r="AT70" s="88"/>
-      <c r="AU70" s="88"/>
-      <c r="AV70" s="88"/>
-      <c r="AW70" s="87">
-        <v>0.5</v>
+      <c r="AT70" s="86"/>
+      <c r="AU70" s="86"/>
+      <c r="AV70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="AX70" s="89"/>
-      <c r="AY70" s="88"/>
-      <c r="AZ70" s="88"/>
-      <c r="BA70" s="88"/>
-      <c r="BB70" s="87">
-        <v>0.5</v>
+      <c r="AW70" s="184"/>
+      <c r="AX70" s="87"/>
+      <c r="AY70" s="86"/>
+      <c r="AZ70" s="86"/>
+      <c r="BA70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="BC70" s="89"/>
-      <c r="BD70" s="88"/>
-      <c r="BE70" s="88"/>
-      <c r="BF70" s="88"/>
-      <c r="BG70" s="87">
-        <v>0.5</v>
+      <c r="BB70" s="184"/>
+      <c r="BC70" s="87"/>
+      <c r="BD70" s="86"/>
+      <c r="BE70" s="86"/>
+      <c r="BF70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="BH70" s="89"/>
-      <c r="BI70" s="88"/>
-      <c r="BJ70" s="88"/>
-      <c r="BK70" s="88"/>
-      <c r="BL70" s="87">
-        <v>0.5</v>
+      <c r="BG70" s="184"/>
+      <c r="BH70" s="87"/>
+      <c r="BI70" s="86"/>
+      <c r="BJ70" s="86"/>
+      <c r="BK70" s="183" t="s">
+        <v>117</v>
       </c>
-      <c r="BM70" s="35"/>
+      <c r="BL70" s="184"/>
+      <c r="BM70" s="167"/>
     </row>
     <row r="71" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="221"/>
-      <c r="B71" s="229"/>
-      <c r="C71" s="192"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="177"/>
+      <c r="A71" s="238"/>
+      <c r="B71" s="245"/>
+      <c r="C71" s="215"/>
+      <c r="D71" s="199"/>
+      <c r="E71" s="200"/>
       <c r="F71" s="6"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="155">
-        <v>0.5</v>
+      <c r="G71" s="91"/>
+      <c r="H71" s="185" t="s">
+        <v>117</v>
       </c>
-      <c r="J71" s="156"/>
-      <c r="K71" s="157"/>
-      <c r="L71" s="157"/>
-      <c r="M71" s="158"/>
-      <c r="N71" s="155">
-        <v>0.5</v>
+      <c r="I71" s="189"/>
+      <c r="J71" s="150"/>
+      <c r="K71" s="151"/>
+      <c r="L71" s="151"/>
+      <c r="M71" s="185" t="s">
+        <v>117</v>
       </c>
+      <c r="N71" s="189"/>
       <c r="O71" s="8"/>
-      <c r="P71" s="211"/>
-      <c r="Q71" s="212"/>
-      <c r="R71" s="212"/>
-      <c r="S71" s="213"/>
+      <c r="P71" s="193"/>
+      <c r="Q71" s="194"/>
+      <c r="R71" s="194"/>
+      <c r="S71" s="195"/>
       <c r="T71" s="73"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="158"/>
-      <c r="X71" s="155">
-        <v>0.5</v>
+      <c r="U71" s="91"/>
+      <c r="V71" s="91"/>
+      <c r="W71" s="185" t="s">
+        <v>117</v>
       </c>
-      <c r="Y71" s="156"/>
-      <c r="Z71" s="157"/>
-      <c r="AA71" s="157"/>
-      <c r="AB71" s="158"/>
-      <c r="AC71" s="155">
-        <v>0.5</v>
+      <c r="X71" s="189"/>
+      <c r="Y71" s="150"/>
+      <c r="Z71" s="151"/>
+      <c r="AA71" s="151"/>
+      <c r="AB71" s="185" t="s">
+        <v>117</v>
       </c>
-      <c r="AD71" s="156"/>
-      <c r="AE71" s="158"/>
-      <c r="AF71" s="158"/>
-      <c r="AG71" s="158"/>
-      <c r="AH71" s="155">
-        <v>0.5</v>
+      <c r="AC71" s="189"/>
+      <c r="AD71" s="150"/>
+      <c r="AE71" s="152"/>
+      <c r="AF71" s="152"/>
+      <c r="AG71" s="185" t="s">
+        <v>117</v>
       </c>
-      <c r="AI71" s="156"/>
-      <c r="AJ71" s="160"/>
-      <c r="AK71" s="161"/>
-      <c r="AL71" s="158"/>
-      <c r="AM71" s="155">
-        <v>0.5</v>
+      <c r="AH71" s="189"/>
+      <c r="AI71" s="150"/>
+      <c r="AJ71" s="153"/>
+      <c r="AK71" s="154"/>
+      <c r="AL71" s="185" t="s">
+        <v>117</v>
       </c>
+      <c r="AM71" s="189"/>
       <c r="AN71" s="8"/>
-      <c r="AO71" s="211"/>
-      <c r="AP71" s="212"/>
-      <c r="AQ71" s="212"/>
-      <c r="AR71" s="213"/>
+      <c r="AO71" s="193"/>
+      <c r="AP71" s="194"/>
+      <c r="AQ71" s="194"/>
+      <c r="AR71" s="195"/>
       <c r="AS71" s="40"/>
-      <c r="AT71" s="162"/>
-      <c r="AU71" s="162"/>
-      <c r="AV71" s="162"/>
-      <c r="AW71" s="162"/>
-      <c r="AX71" s="163"/>
-      <c r="AY71" s="162"/>
-      <c r="AZ71" s="162"/>
-      <c r="BA71" s="162"/>
-      <c r="BB71" s="162"/>
-      <c r="BC71" s="163"/>
-      <c r="BD71" s="162"/>
-      <c r="BE71" s="162"/>
-      <c r="BF71" s="162"/>
-      <c r="BG71" s="162"/>
-      <c r="BH71" s="163"/>
-      <c r="BI71" s="162"/>
-      <c r="BJ71" s="162"/>
-      <c r="BK71" s="162"/>
-      <c r="BL71" s="162"/>
-      <c r="BM71" s="40"/>
+      <c r="AT71" s="155"/>
+      <c r="AU71" s="155"/>
+      <c r="AV71" s="185" t="s">
+        <v>117</v>
+      </c>
+      <c r="AW71" s="189"/>
+      <c r="AX71" s="156"/>
+      <c r="AY71" s="155"/>
+      <c r="AZ71" s="155"/>
+      <c r="BA71" s="282"/>
+      <c r="BB71" s="283"/>
+      <c r="BC71" s="156"/>
+      <c r="BD71" s="155"/>
+      <c r="BE71" s="155"/>
+      <c r="BF71" s="282"/>
+      <c r="BG71" s="283"/>
+      <c r="BH71" s="156"/>
+      <c r="BI71" s="155"/>
+      <c r="BJ71" s="155"/>
+      <c r="BK71" s="282"/>
+      <c r="BL71" s="283"/>
+      <c r="BM71" s="168"/>
     </row>
     <row r="72" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="221"/>
-      <c r="B72" s="230" t="s">
+      <c r="A72" s="238"/>
+      <c r="B72" s="246" t="s">
         <v>105</v>
       </c>
-      <c r="C72" s="191" t="s">
+      <c r="C72" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="D72" s="178">
+      <c r="D72" s="201">
         <v>2</v>
       </c>
-      <c r="E72" s="180"/>
+      <c r="E72" s="203"/>
       <c r="F72" s="38"/>
-      <c r="G72" s="88"/>
-      <c r="H72" s="88"/>
-      <c r="I72" s="88"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="88"/>
-      <c r="N72" s="87">
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="86"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="88"/>
+      <c r="L72" s="88"/>
+      <c r="M72" s="86"/>
+      <c r="N72" s="85">
         <v>1</v>
       </c>
       <c r="O72" s="35"/>
-      <c r="P72" s="211"/>
-      <c r="Q72" s="212"/>
-      <c r="R72" s="212"/>
-      <c r="S72" s="213"/>
+      <c r="P72" s="193"/>
+      <c r="Q72" s="194"/>
+      <c r="R72" s="194"/>
+      <c r="S72" s="195"/>
       <c r="T72" s="35"/>
       <c r="U72" s="38"/>
       <c r="V72" s="38"/>
@@ -7475,102 +7623,104 @@
       <c r="AL72" s="38"/>
       <c r="AM72" s="38"/>
       <c r="AN72" s="35"/>
-      <c r="AO72" s="211"/>
-      <c r="AP72" s="212"/>
-      <c r="AQ72" s="212"/>
-      <c r="AR72" s="213"/>
+      <c r="AO72" s="193"/>
+      <c r="AP72" s="194"/>
+      <c r="AQ72" s="194"/>
+      <c r="AR72" s="195"/>
       <c r="AS72" s="8"/>
-      <c r="AT72" s="94"/>
-      <c r="AU72" s="94"/>
-      <c r="AV72" s="94"/>
-      <c r="AW72" s="97">
+      <c r="AT72" s="91"/>
+      <c r="AU72" s="91"/>
+      <c r="AV72" s="91"/>
+      <c r="AW72" s="94">
         <v>1</v>
       </c>
-      <c r="AX72" s="95"/>
-      <c r="AY72" s="94"/>
-      <c r="AZ72" s="94"/>
-      <c r="BA72" s="94"/>
-      <c r="BB72" s="94"/>
-      <c r="BC72" s="95"/>
-      <c r="BD72" s="94"/>
-      <c r="BE72" s="94"/>
-      <c r="BF72" s="94"/>
-      <c r="BG72" s="94"/>
-      <c r="BH72" s="95"/>
-      <c r="BI72" s="94"/>
-      <c r="BJ72" s="94"/>
-      <c r="BK72" s="94"/>
-      <c r="BL72" s="94"/>
-      <c r="BM72" s="8"/>
+      <c r="AX72" s="92"/>
+      <c r="AY72" s="91"/>
+      <c r="AZ72" s="91"/>
+      <c r="BA72" s="91"/>
+      <c r="BB72" s="91"/>
+      <c r="BC72" s="92"/>
+      <c r="BD72" s="91"/>
+      <c r="BE72" s="91"/>
+      <c r="BF72" s="91"/>
+      <c r="BG72" s="91"/>
+      <c r="BH72" s="92"/>
+      <c r="BI72" s="91"/>
+      <c r="BJ72" s="91"/>
+      <c r="BK72" s="91"/>
+      <c r="BL72" s="91"/>
+      <c r="BM72" s="169"/>
     </row>
     <row r="73" spans="1:70" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="222"/>
-      <c r="B73" s="229"/>
-      <c r="C73" s="192"/>
-      <c r="D73" s="179"/>
-      <c r="E73" s="181"/>
-      <c r="F73" s="39"/>
-      <c r="G73" s="91"/>
-      <c r="H73" s="91"/>
-      <c r="I73" s="91"/>
-      <c r="J73" s="92"/>
-      <c r="K73" s="93"/>
-      <c r="L73" s="93"/>
-      <c r="M73" s="91"/>
-      <c r="N73" s="159">
+      <c r="A73" s="239"/>
+      <c r="B73" s="271"/>
+      <c r="C73" s="217"/>
+      <c r="D73" s="202"/>
+      <c r="E73" s="204"/>
+      <c r="F73" s="171"/>
+      <c r="G73" s="172"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="173"/>
+      <c r="K73" s="174"/>
+      <c r="L73" s="174"/>
+      <c r="M73" s="172"/>
+      <c r="N73" s="175">
         <v>1</v>
       </c>
-      <c r="O73" s="40"/>
-      <c r="P73" s="214"/>
-      <c r="Q73" s="215"/>
-      <c r="R73" s="215"/>
-      <c r="S73" s="216"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="39"/>
-      <c r="V73" s="39"/>
-      <c r="W73" s="39"/>
-      <c r="X73" s="39"/>
-      <c r="Y73" s="40"/>
-      <c r="Z73" s="41"/>
-      <c r="AA73" s="41"/>
-      <c r="AB73" s="39"/>
-      <c r="AC73" s="39"/>
-      <c r="AD73" s="40"/>
-      <c r="AE73" s="39"/>
-      <c r="AF73" s="39"/>
-      <c r="AG73" s="39"/>
-      <c r="AH73" s="39"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="42"/>
-      <c r="AK73" s="43"/>
-      <c r="AL73" s="39"/>
-      <c r="AM73" s="39"/>
-      <c r="AN73" s="40"/>
-      <c r="AO73" s="214"/>
-      <c r="AP73" s="215"/>
-      <c r="AQ73" s="215"/>
-      <c r="AR73" s="216"/>
-      <c r="AS73" s="40"/>
-      <c r="AT73" s="162"/>
-      <c r="AU73" s="162"/>
-      <c r="AV73" s="162"/>
-      <c r="AW73" s="162"/>
-      <c r="AX73" s="92"/>
-      <c r="AY73" s="91"/>
-      <c r="AZ73" s="91"/>
-      <c r="BA73" s="91"/>
-      <c r="BB73" s="91"/>
-      <c r="BC73" s="92"/>
-      <c r="BD73" s="91"/>
-      <c r="BE73" s="91"/>
-      <c r="BF73" s="91"/>
-      <c r="BG73" s="91"/>
-      <c r="BH73" s="92"/>
-      <c r="BI73" s="91"/>
-      <c r="BJ73" s="91"/>
-      <c r="BK73" s="91"/>
-      <c r="BL73" s="91"/>
-      <c r="BM73" s="40"/>
+      <c r="O73" s="176"/>
+      <c r="P73" s="196"/>
+      <c r="Q73" s="197"/>
+      <c r="R73" s="197"/>
+      <c r="S73" s="198"/>
+      <c r="T73" s="176"/>
+      <c r="U73" s="171"/>
+      <c r="V73" s="171"/>
+      <c r="W73" s="171"/>
+      <c r="X73" s="171"/>
+      <c r="Y73" s="176"/>
+      <c r="Z73" s="177"/>
+      <c r="AA73" s="177"/>
+      <c r="AB73" s="171"/>
+      <c r="AC73" s="171"/>
+      <c r="AD73" s="176"/>
+      <c r="AE73" s="171"/>
+      <c r="AF73" s="171"/>
+      <c r="AG73" s="171"/>
+      <c r="AH73" s="171"/>
+      <c r="AI73" s="176"/>
+      <c r="AJ73" s="178"/>
+      <c r="AK73" s="179"/>
+      <c r="AL73" s="171"/>
+      <c r="AM73" s="171"/>
+      <c r="AN73" s="176"/>
+      <c r="AO73" s="196"/>
+      <c r="AP73" s="197"/>
+      <c r="AQ73" s="197"/>
+      <c r="AR73" s="198"/>
+      <c r="AS73" s="176"/>
+      <c r="AT73" s="180"/>
+      <c r="AU73" s="180"/>
+      <c r="AV73" s="180"/>
+      <c r="AW73" s="160">
+        <v>1</v>
+      </c>
+      <c r="AX73" s="173"/>
+      <c r="AY73" s="172"/>
+      <c r="AZ73" s="172"/>
+      <c r="BA73" s="172"/>
+      <c r="BB73" s="172"/>
+      <c r="BC73" s="173"/>
+      <c r="BD73" s="172"/>
+      <c r="BE73" s="172"/>
+      <c r="BF73" s="172"/>
+      <c r="BG73" s="172"/>
+      <c r="BH73" s="173"/>
+      <c r="BI73" s="172"/>
+      <c r="BJ73" s="172"/>
+      <c r="BK73" s="172"/>
+      <c r="BL73" s="172"/>
+      <c r="BM73" s="181"/>
     </row>
     <row r="74" spans="1:70" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
@@ -37648,7 +37798,20 @@
       <c r="BR504" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
+  <mergeCells count="229">
+    <mergeCell ref="AY50:AZ50"/>
+    <mergeCell ref="AZ53:BA53"/>
+    <mergeCell ref="BA55:BB55"/>
+    <mergeCell ref="AL71:AM71"/>
+    <mergeCell ref="AL70:AM70"/>
+    <mergeCell ref="AV70:AW70"/>
+    <mergeCell ref="AV71:AW71"/>
+    <mergeCell ref="BA70:BB70"/>
+    <mergeCell ref="BA71:BB71"/>
+    <mergeCell ref="BF70:BG70"/>
+    <mergeCell ref="BF71:BG71"/>
+    <mergeCell ref="BK70:BL70"/>
+    <mergeCell ref="BK71:BL71"/>
     <mergeCell ref="B63:B64"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B68:B69"/>
@@ -37855,9 +38018,19 @@
     <mergeCell ref="P3:S73"/>
     <mergeCell ref="AO3:AR73"/>
     <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="W70:X70"/>
+    <mergeCell ref="W71:X71"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AG70:AH70"/>
+    <mergeCell ref="AG71:AH71"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="54" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="80" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -37879,29 +38052,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="262" t="s">
+      <c r="D2" s="279" t="s">
         <v>116</v>
       </c>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="264"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="281"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C3" s="3"/>
-      <c r="D3" s="261" t="s">
+      <c r="D3" s="278" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261" t="s">
+      <c r="E3" s="278"/>
+      <c r="F3" s="278" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="261"/>
+      <c r="G3" s="278"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="83" t="s">
         <v>106</v>
       </c>
       <c r="D4" s="82" t="s">
@@ -37921,20 +38094,20 @@
       <c r="B5" s="81" t="s">
         <v>111</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="83">
         <v>1</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="83">
         <v>6</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="83">
         <f>C5*D5</f>
         <v>6</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="83">
         <v>8</v>
       </c>
-      <c r="G5" s="85">
+      <c r="G5" s="83">
         <f>C5*F5</f>
         <v>8</v>
       </c>
@@ -37943,20 +38116,20 @@
       <c r="B6" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="83">
         <v>4</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="83">
         <v>7</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="83">
         <f t="shared" ref="E6:E8" si="0">C6*D6</f>
         <v>28</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="83">
         <v>9</v>
       </c>
-      <c r="G6" s="85">
+      <c r="G6" s="83">
         <f t="shared" ref="G6:G8" si="1">C6*F6</f>
         <v>36</v>
       </c>
@@ -37965,20 +38138,20 @@
       <c r="B7" s="81" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="83">
         <v>2</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="83">
         <v>10</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="83">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="83">
         <v>6</v>
       </c>
-      <c r="G7" s="85">
+      <c r="G7" s="83">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -37987,33 +38160,33 @@
       <c r="B8" s="81" t="s">
         <v>114</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="83">
         <v>4</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="83">
         <v>8</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="83">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="83">
         <v>10</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="83">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="85">
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83">
         <f>SUM(E5:E8)</f>
         <v>86</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="85">
+      <c r="F9" s="84"/>
+      <c r="G9" s="83">
         <f>SUM(G5:G8)</f>
         <v>96</v>
       </c>
